--- a/Code/Results/Cases/Case_2_37/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_37/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9863538948473597</v>
+        <v>0.98635389484736</v>
       </c>
       <c r="D2">
-        <v>1.00776211446058</v>
+        <v>1.007762114460581</v>
       </c>
       <c r="E2">
-        <v>0.974965719362016</v>
+        <v>0.9749657193620164</v>
       </c>
       <c r="F2">
-        <v>0.993527385488881</v>
+        <v>0.9935273854888815</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.040186321368982</v>
       </c>
       <c r="J2">
-        <v>1.008950562783676</v>
+        <v>1.008950562783677</v>
       </c>
       <c r="K2">
         <v>1.019114359611838</v>
       </c>
       <c r="L2">
-        <v>0.9867852016678672</v>
+        <v>0.9867852016678675</v>
       </c>
       <c r="M2">
-        <v>1.005077636767459</v>
+        <v>1.00507763676746</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,13 +459,13 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9939939931212279</v>
+        <v>0.9939939931212288</v>
       </c>
       <c r="D3">
-        <v>1.01363810172935</v>
+        <v>1.013638101729351</v>
       </c>
       <c r="E3">
-        <v>0.980779802395085</v>
+        <v>0.9807798023950849</v>
       </c>
       <c r="F3">
         <v>1.000750691561172</v>
@@ -474,10 +474,10 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042865648573915</v>
+        <v>1.042865648573916</v>
       </c>
       <c r="J3">
-        <v>1.014649737879513</v>
+        <v>1.014649737879515</v>
       </c>
       <c r="K3">
         <v>1.024099404457774</v>
@@ -486,7 +486,7 @@
         <v>0.9916646632376981</v>
       </c>
       <c r="M3">
-        <v>1.011373976151573</v>
+        <v>1.011373976151574</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,13 +497,13 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9987781442312692</v>
+        <v>0.9987781442312702</v>
       </c>
       <c r="D4">
-        <v>1.017319259807501</v>
+        <v>1.017319259807502</v>
       </c>
       <c r="E4">
-        <v>0.9844417792922261</v>
+        <v>0.9844417792922262</v>
       </c>
       <c r="F4">
         <v>1.00528694980655</v>
@@ -515,16 +515,16 @@
         <v>1.044527896707723</v>
       </c>
       <c r="J4">
-        <v>1.018213156930142</v>
+        <v>1.018213156930143</v>
       </c>
       <c r="K4">
-        <v>1.027213055536215</v>
+        <v>1.027213055536216</v>
       </c>
       <c r="L4">
         <v>0.9947316774828795</v>
       </c>
       <c r="M4">
-        <v>1.015321982069053</v>
+        <v>1.015321982069054</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,7 +541,7 @@
         <v>1.018839422723073</v>
       </c>
       <c r="E5">
-        <v>0.9859586153098978</v>
+        <v>0.9859586153098976</v>
       </c>
       <c r="F5">
         <v>1.007162903224324</v>
@@ -553,13 +553,13 @@
         <v>1.045210405843857</v>
       </c>
       <c r="J5">
-        <v>1.019683075465773</v>
+        <v>1.019683075465774</v>
       </c>
       <c r="K5">
-        <v>1.028496631194295</v>
+        <v>1.028496631194296</v>
       </c>
       <c r="L5">
-        <v>0.9960005759786578</v>
+        <v>0.9960005759786573</v>
       </c>
       <c r="M5">
         <v>1.016953189124996</v>
@@ -573,13 +573,13 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.001083051832663</v>
+        <v>1.001083051832664</v>
       </c>
       <c r="D6">
         <v>1.019093101397377</v>
       </c>
       <c r="E6">
-        <v>0.9862120061329781</v>
+        <v>0.9862120061329775</v>
       </c>
       <c r="F6">
         <v>1.007476112524341</v>
@@ -597,7 +597,7 @@
         <v>1.028710698266083</v>
       </c>
       <c r="L6">
-        <v>0.9962124606538788</v>
+        <v>0.9962124606538783</v>
       </c>
       <c r="M6">
         <v>1.017225448431369</v>
@@ -617,7 +617,7 @@
         <v>1.017339677969952</v>
       </c>
       <c r="E7">
-        <v>0.9844621347101443</v>
+        <v>0.9844621347101441</v>
       </c>
       <c r="F7">
         <v>1.005312136186856</v>
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9889703318923062</v>
+        <v>0.988970331892306</v>
       </c>
       <c r="D8">
         <v>1.00977397660896</v>
       </c>
       <c r="E8">
-        <v>0.9769521715685807</v>
+        <v>0.9769521715685805</v>
       </c>
       <c r="F8">
-        <v>0.9959982313759638</v>
+        <v>0.995998231375964</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041107116929934</v>
+        <v>1.041107116929935</v>
       </c>
       <c r="J8">
         <v>1.010903392069825</v>
       </c>
       <c r="K8">
-        <v>1.020823161000757</v>
+        <v>1.020823161000756</v>
       </c>
       <c r="L8">
-        <v>0.9884536638611183</v>
+        <v>0.9884536638611181</v>
       </c>
       <c r="M8">
-        <v>1.007232683416061</v>
+        <v>1.007232683416062</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9703075436356944</v>
+        <v>0.9703075436356958</v>
       </c>
       <c r="D9">
-        <v>0.9954367392399803</v>
+        <v>0.9954367392399815</v>
       </c>
       <c r="E9">
-        <v>0.9628865865431684</v>
+        <v>0.9628865865431686</v>
       </c>
       <c r="F9">
-        <v>0.9784373003657958</v>
+        <v>0.9784373003657969</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.034475335751028</v>
       </c>
       <c r="J9">
-        <v>0.9969542217612402</v>
+        <v>0.9969542217612415</v>
       </c>
       <c r="K9">
-        <v>1.008604288593177</v>
+        <v>1.008604288593178</v>
       </c>
       <c r="L9">
-        <v>0.9766119412749256</v>
+        <v>0.9766119412749259</v>
       </c>
       <c r="M9">
-        <v>0.9918901813252087</v>
+        <v>0.9918901813252096</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9567907247000597</v>
+        <v>0.9567907247000612</v>
       </c>
       <c r="D10">
-        <v>0.9850772352492003</v>
+        <v>0.9850772352492021</v>
       </c>
       <c r="E10">
-        <v>0.9528472532331439</v>
+        <v>0.9528472532331449</v>
       </c>
       <c r="F10">
-        <v>0.9658085087951681</v>
+        <v>0.965808508795169</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.029594569974223</v>
+        <v>1.029594569974224</v>
       </c>
       <c r="J10">
-        <v>0.9868301542137358</v>
+        <v>0.9868301542137375</v>
       </c>
       <c r="K10">
-        <v>0.999721255389303</v>
+        <v>0.999721255389305</v>
       </c>
       <c r="L10">
-        <v>0.9681234576363099</v>
+        <v>0.968123457636311</v>
       </c>
       <c r="M10">
-        <v>0.9808238176549565</v>
+        <v>0.9808238176549577</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9506350862964393</v>
+        <v>0.9506350862964392</v>
       </c>
       <c r="D11">
-        <v>0.9803680353573183</v>
+        <v>0.9803680353573182</v>
       </c>
       <c r="E11">
-        <v>0.9483159728024573</v>
+        <v>0.9483159728024571</v>
       </c>
       <c r="F11">
-        <v>0.9600818963180506</v>
+        <v>0.9600818963180505</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -784,13 +784,13 @@
         <v>0.9822161483759123</v>
       </c>
       <c r="K11">
-        <v>0.9956699277931549</v>
+        <v>0.995669927793155</v>
       </c>
       <c r="L11">
-        <v>0.9642831437376341</v>
+        <v>0.9642831437376342</v>
       </c>
       <c r="M11">
-        <v>0.9757980262610807</v>
+        <v>0.9757980262610806</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9482983212937902</v>
+        <v>0.9482983212937898</v>
       </c>
       <c r="D12">
-        <v>0.9785819171238131</v>
+        <v>0.978581917123813</v>
       </c>
       <c r="E12">
-        <v>0.9466025002628882</v>
+        <v>0.9466025002628887</v>
       </c>
       <c r="F12">
-        <v>0.957912015567243</v>
+        <v>0.9579120155672433</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.026502434584235</v>
+        <v>1.026502434584234</v>
       </c>
       <c r="J12">
-        <v>0.9804642459448838</v>
+        <v>0.9804642459448832</v>
       </c>
       <c r="K12">
-        <v>0.9941312883060264</v>
+        <v>0.9941312883060258</v>
       </c>
       <c r="L12">
-        <v>0.9628295650879888</v>
+        <v>0.9628295650879891</v>
       </c>
       <c r="M12">
-        <v>0.9738925566421868</v>
+        <v>0.973892556642187</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9488019258402461</v>
+        <v>0.9488019258402448</v>
       </c>
       <c r="D13">
-        <v>0.9789667748169421</v>
+        <v>0.9789667748169407</v>
       </c>
       <c r="E13">
-        <v>0.946971466582371</v>
+        <v>0.9469714665823707</v>
       </c>
       <c r="F13">
-        <v>0.9583794672825264</v>
+        <v>0.9583794672825259</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.026686276116122</v>
       </c>
       <c r="J13">
-        <v>0.9808418183148693</v>
+        <v>0.9808418183148679</v>
       </c>
       <c r="K13">
-        <v>0.9944629141985168</v>
+        <v>0.9944629141985157</v>
       </c>
       <c r="L13">
-        <v>0.9631426312019252</v>
+        <v>0.9631426312019249</v>
       </c>
       <c r="M13">
-        <v>0.9743030980729835</v>
+        <v>0.974303098072983</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -880,31 +880,31 @@
         <v>0.9504429847243862</v>
       </c>
       <c r="D14">
-        <v>0.9802211682945644</v>
+        <v>0.9802211682945643</v>
       </c>
       <c r="E14">
-        <v>0.948174972644246</v>
+        <v>0.9481749726442465</v>
       </c>
       <c r="F14">
-        <v>0.9599034305702967</v>
+        <v>0.9599034305702969</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.027284948656157</v>
+        <v>1.027284948656156</v>
       </c>
       <c r="J14">
-        <v>0.9820721337618544</v>
+        <v>0.9820721337618541</v>
       </c>
       <c r="K14">
-        <v>0.9955434517783365</v>
+        <v>0.9955434517783364</v>
       </c>
       <c r="L14">
-        <v>0.9641635584488957</v>
+        <v>0.9641635584488962</v>
       </c>
       <c r="M14">
-        <v>0.9756413304658976</v>
+        <v>0.9756413304658977</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9514472760352103</v>
+        <v>0.9514472760352096</v>
       </c>
       <c r="D15">
-        <v>0.9809890422516644</v>
+        <v>0.9809890422516633</v>
       </c>
       <c r="E15">
-        <v>0.9489123838964862</v>
+        <v>0.9489123838964854</v>
       </c>
       <c r="F15">
-        <v>0.960836600118665</v>
+        <v>0.9608366001186639</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.027651015525942</v>
+        <v>1.027651015525941</v>
       </c>
       <c r="J15">
-        <v>0.9828250166536654</v>
+        <v>0.9828250166536648</v>
       </c>
       <c r="K15">
-        <v>0.9962046308424893</v>
+        <v>0.9962046308424886</v>
       </c>
       <c r="L15">
-        <v>0.9647889161521414</v>
+        <v>0.9647889161521405</v>
       </c>
       <c r="M15">
-        <v>0.9764606221826483</v>
+        <v>0.9764606221826474</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9571924814056523</v>
+        <v>0.9571924814056538</v>
       </c>
       <c r="D16">
-        <v>0.9853847869609429</v>
+        <v>0.9853847869609438</v>
       </c>
       <c r="E16">
-        <v>0.9531438781067573</v>
+        <v>0.9531438781067577</v>
       </c>
       <c r="F16">
-        <v>0.9661827984671582</v>
+        <v>0.9661827984671597</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.029740404187315</v>
       </c>
       <c r="J16">
-        <v>0.9871312354654956</v>
+        <v>0.9871312354654969</v>
       </c>
       <c r="K16">
-        <v>0.9999855641661785</v>
+        <v>0.9999855641661795</v>
       </c>
       <c r="L16">
-        <v>0.9683746610970725</v>
+        <v>0.9683746610970733</v>
       </c>
       <c r="M16">
-        <v>0.9811521444217511</v>
+        <v>0.9811521444217527</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9607120640059365</v>
+        <v>0.9607120640059366</v>
       </c>
       <c r="D17">
-        <v>0.9880800818847971</v>
+        <v>0.988080081884797</v>
       </c>
       <c r="E17">
-        <v>0.9557470886410518</v>
+        <v>0.9557470886410513</v>
       </c>
       <c r="F17">
-        <v>0.969464557993382</v>
+        <v>0.9694645579933819</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.031016103856192</v>
       </c>
       <c r="J17">
-        <v>0.9897684815186308</v>
+        <v>0.9897684815186312</v>
       </c>
       <c r="K17">
         <v>1.00230038903012</v>
       </c>
       <c r="L17">
-        <v>0.9705782264278474</v>
+        <v>0.970578226427847</v>
       </c>
       <c r="M17">
-        <v>0.9840300395684978</v>
+        <v>0.9840300395684975</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9627361234315533</v>
+        <v>0.9627361234315518</v>
       </c>
       <c r="D18">
-        <v>0.9896308896998968</v>
+        <v>0.989630889699895</v>
       </c>
       <c r="E18">
-        <v>0.9572479254332483</v>
+        <v>0.9572479254332479</v>
       </c>
       <c r="F18">
-        <v>0.9713541295672454</v>
+        <v>0.9713541295672445</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03174815168973</v>
+        <v>1.031748151689729</v>
       </c>
       <c r="J18">
-        <v>0.9912847888627245</v>
+        <v>0.9912847888627231</v>
       </c>
       <c r="K18">
-        <v>1.00363104054589</v>
+        <v>1.003631040545888</v>
       </c>
       <c r="L18">
-        <v>0.9718478089901625</v>
+        <v>0.9718478089901619</v>
       </c>
       <c r="M18">
-        <v>0.9856863531372839</v>
+        <v>0.9856863531372833</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,13 +1067,13 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9634215158576417</v>
+        <v>0.9634215158576408</v>
       </c>
       <c r="D19">
-        <v>0.9901561539579637</v>
+        <v>0.9901561539579634</v>
       </c>
       <c r="E19">
-        <v>0.9577567671756257</v>
+        <v>0.9577567671756263</v>
       </c>
       <c r="F19">
         <v>0.9719943594595752</v>
@@ -1085,16 +1085,16 @@
         <v>1.031995766066995</v>
       </c>
       <c r="J19">
-        <v>0.9917981840852188</v>
+        <v>0.9917981840852182</v>
       </c>
       <c r="K19">
         <v>1.004081527381354</v>
       </c>
       <c r="L19">
-        <v>0.9722781041498593</v>
+        <v>0.9722781041498598</v>
       </c>
       <c r="M19">
-        <v>0.986247427199984</v>
+        <v>0.9862474271999842</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9603374630077044</v>
+        <v>0.9603374630077033</v>
       </c>
       <c r="D20">
-        <v>0.9877931292686117</v>
+        <v>0.987793129268611</v>
       </c>
       <c r="E20">
-        <v>0.9554696245605089</v>
+        <v>0.9554696245605087</v>
       </c>
       <c r="F20">
-        <v>0.9691150299932774</v>
+        <v>0.9691150299932767</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.030880490977984</v>
       </c>
       <c r="J20">
-        <v>0.9894878242141607</v>
+        <v>0.9894878242141596</v>
       </c>
       <c r="K20">
-        <v>1.002054072409466</v>
+        <v>1.002054072409465</v>
       </c>
       <c r="L20">
-        <v>0.9703434467601281</v>
+        <v>0.9703434467601276</v>
       </c>
       <c r="M20">
-        <v>0.9837236005073483</v>
+        <v>0.9837236005073475</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9499611640977635</v>
+        <v>0.9499611640977632</v>
       </c>
       <c r="D21">
-        <v>0.9798528288770453</v>
+        <v>0.9798528288770451</v>
       </c>
       <c r="E21">
-        <v>0.9478214313885412</v>
+        <v>0.9478214313885409</v>
       </c>
       <c r="F21">
-        <v>0.9594558764819034</v>
+        <v>0.959455876481903</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.027109240249037</v>
+        <v>1.027109240249038</v>
       </c>
       <c r="J21">
-        <v>0.9817109174482278</v>
+        <v>0.9817109174482277</v>
       </c>
       <c r="K21">
-        <v>0.9952262197124742</v>
+        <v>0.995226219712474</v>
       </c>
       <c r="L21">
-        <v>0.9638636899573434</v>
+        <v>0.9638636899573432</v>
       </c>
       <c r="M21">
-        <v>0.9752483525377238</v>
+        <v>0.9752483525377237</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1184,10 +1184,10 @@
         <v>0.9431432966488561</v>
       </c>
       <c r="D22">
-        <v>0.974644857929742</v>
+        <v>0.9746448579297422</v>
       </c>
       <c r="E22">
-        <v>0.9428354826246197</v>
+        <v>0.9428354826246204</v>
       </c>
       <c r="F22">
         <v>0.9531329732752686</v>
@@ -1199,16 +1199,16 @@
         <v>1.024617450968214</v>
       </c>
       <c r="J22">
-        <v>0.976598979932584</v>
+        <v>0.9765989799325839</v>
       </c>
       <c r="K22">
-        <v>0.9907359131983435</v>
+        <v>0.9907359131983436</v>
       </c>
       <c r="L22">
-        <v>0.9596313072779845</v>
+        <v>0.9596313072779851</v>
       </c>
       <c r="M22">
-        <v>0.9696937816415563</v>
+        <v>0.9696937816415564</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,28 +1219,28 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9467872322136308</v>
+        <v>0.9467872322136301</v>
       </c>
       <c r="D23">
-        <v>0.9774273847971774</v>
+        <v>0.9774273847971768</v>
       </c>
       <c r="E23">
         <v>0.9454964232075853</v>
       </c>
       <c r="F23">
-        <v>0.9565100216012828</v>
+        <v>0.9565100216012826</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.025950473723034</v>
+        <v>1.025950473723033</v>
       </c>
       <c r="J23">
-        <v>0.9793312823288749</v>
+        <v>0.9793312823288741</v>
       </c>
       <c r="K23">
-        <v>0.9931361428948741</v>
+        <v>0.9931361428948734</v>
       </c>
       <c r="L23">
         <v>0.9618908572353925</v>
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9605068178856245</v>
+        <v>0.9605068178856255</v>
       </c>
       <c r="D24">
-        <v>0.9879228564181851</v>
+        <v>0.9879228564181854</v>
       </c>
       <c r="E24">
-        <v>0.9555950527394328</v>
+        <v>0.9555950527394335</v>
       </c>
       <c r="F24">
-        <v>0.9692730424516747</v>
+        <v>0.9692730424516758</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.030941805699531</v>
       </c>
       <c r="J24">
-        <v>0.9896147087562661</v>
+        <v>0.989614708756267</v>
       </c>
       <c r="K24">
         <v>1.002165432470218</v>
       </c>
       <c r="L24">
-        <v>0.9704495819902131</v>
+        <v>0.9704495819902136</v>
       </c>
       <c r="M24">
-        <v>0.9838621358256793</v>
+        <v>0.9838621358256804</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9753073391692381</v>
+        <v>0.9753073391692365</v>
       </c>
       <c r="D25">
-        <v>0.9992743780663795</v>
+        <v>0.9992743780663781</v>
       </c>
       <c r="E25">
         <v>0.9666313457605572</v>
       </c>
       <c r="F25">
-        <v>0.9831275991193607</v>
+        <v>0.9831275991193599</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036265608954533</v>
+        <v>1.036265608954531</v>
       </c>
       <c r="J25">
-        <v>1.000695275481494</v>
+        <v>1.000695275481493</v>
       </c>
       <c r="K25">
-        <v>1.011883968833927</v>
+        <v>1.011883968833925</v>
       </c>
       <c r="L25">
-        <v>0.9797707397306072</v>
+        <v>0.9797707397306074</v>
       </c>
       <c r="M25">
-        <v>0.9959936088074516</v>
+        <v>0.995993608807451</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_37/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_37/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.98635389484736</v>
+        <v>0.9863538948473597</v>
       </c>
       <c r="D2">
-        <v>1.007762114460581</v>
+        <v>1.00776211446058</v>
       </c>
       <c r="E2">
-        <v>0.9749657193620164</v>
+        <v>0.974965719362016</v>
       </c>
       <c r="F2">
-        <v>0.9935273854888815</v>
+        <v>0.993527385488881</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.040186321368982</v>
       </c>
       <c r="J2">
-        <v>1.008950562783677</v>
+        <v>1.008950562783676</v>
       </c>
       <c r="K2">
         <v>1.019114359611838</v>
       </c>
       <c r="L2">
-        <v>0.9867852016678675</v>
+        <v>0.9867852016678672</v>
       </c>
       <c r="M2">
-        <v>1.00507763676746</v>
+        <v>1.005077636767459</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,13 +459,13 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9939939931212288</v>
+        <v>0.9939939931212279</v>
       </c>
       <c r="D3">
-        <v>1.013638101729351</v>
+        <v>1.01363810172935</v>
       </c>
       <c r="E3">
-        <v>0.9807798023950849</v>
+        <v>0.980779802395085</v>
       </c>
       <c r="F3">
         <v>1.000750691561172</v>
@@ -474,10 +474,10 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042865648573916</v>
+        <v>1.042865648573915</v>
       </c>
       <c r="J3">
-        <v>1.014649737879515</v>
+        <v>1.014649737879513</v>
       </c>
       <c r="K3">
         <v>1.024099404457774</v>
@@ -486,7 +486,7 @@
         <v>0.9916646632376981</v>
       </c>
       <c r="M3">
-        <v>1.011373976151574</v>
+        <v>1.011373976151573</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,13 +497,13 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9987781442312702</v>
+        <v>0.9987781442312692</v>
       </c>
       <c r="D4">
-        <v>1.017319259807502</v>
+        <v>1.017319259807501</v>
       </c>
       <c r="E4">
-        <v>0.9844417792922262</v>
+        <v>0.9844417792922261</v>
       </c>
       <c r="F4">
         <v>1.00528694980655</v>
@@ -515,16 +515,16 @@
         <v>1.044527896707723</v>
       </c>
       <c r="J4">
-        <v>1.018213156930143</v>
+        <v>1.018213156930142</v>
       </c>
       <c r="K4">
-        <v>1.027213055536216</v>
+        <v>1.027213055536215</v>
       </c>
       <c r="L4">
         <v>0.9947316774828795</v>
       </c>
       <c r="M4">
-        <v>1.015321982069054</v>
+        <v>1.015321982069053</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,7 +541,7 @@
         <v>1.018839422723073</v>
       </c>
       <c r="E5">
-        <v>0.9859586153098976</v>
+        <v>0.9859586153098978</v>
       </c>
       <c r="F5">
         <v>1.007162903224324</v>
@@ -553,13 +553,13 @@
         <v>1.045210405843857</v>
       </c>
       <c r="J5">
-        <v>1.019683075465774</v>
+        <v>1.019683075465773</v>
       </c>
       <c r="K5">
-        <v>1.028496631194296</v>
+        <v>1.028496631194295</v>
       </c>
       <c r="L5">
-        <v>0.9960005759786573</v>
+        <v>0.9960005759786578</v>
       </c>
       <c r="M5">
         <v>1.016953189124996</v>
@@ -573,13 +573,13 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.001083051832664</v>
+        <v>1.001083051832663</v>
       </c>
       <c r="D6">
         <v>1.019093101397377</v>
       </c>
       <c r="E6">
-        <v>0.9862120061329775</v>
+        <v>0.9862120061329781</v>
       </c>
       <c r="F6">
         <v>1.007476112524341</v>
@@ -597,7 +597,7 @@
         <v>1.028710698266083</v>
       </c>
       <c r="L6">
-        <v>0.9962124606538783</v>
+        <v>0.9962124606538788</v>
       </c>
       <c r="M6">
         <v>1.017225448431369</v>
@@ -617,7 +617,7 @@
         <v>1.017339677969952</v>
       </c>
       <c r="E7">
-        <v>0.9844621347101441</v>
+        <v>0.9844621347101443</v>
       </c>
       <c r="F7">
         <v>1.005312136186856</v>
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.988970331892306</v>
+        <v>0.9889703318923062</v>
       </c>
       <c r="D8">
         <v>1.00977397660896</v>
       </c>
       <c r="E8">
-        <v>0.9769521715685805</v>
+        <v>0.9769521715685807</v>
       </c>
       <c r="F8">
-        <v>0.995998231375964</v>
+        <v>0.9959982313759638</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041107116929935</v>
+        <v>1.041107116929934</v>
       </c>
       <c r="J8">
         <v>1.010903392069825</v>
       </c>
       <c r="K8">
-        <v>1.020823161000756</v>
+        <v>1.020823161000757</v>
       </c>
       <c r="L8">
-        <v>0.9884536638611181</v>
+        <v>0.9884536638611183</v>
       </c>
       <c r="M8">
-        <v>1.007232683416062</v>
+        <v>1.007232683416061</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9703075436356958</v>
+        <v>0.9703075436356944</v>
       </c>
       <c r="D9">
-        <v>0.9954367392399815</v>
+        <v>0.9954367392399803</v>
       </c>
       <c r="E9">
-        <v>0.9628865865431686</v>
+        <v>0.9628865865431684</v>
       </c>
       <c r="F9">
-        <v>0.9784373003657969</v>
+        <v>0.9784373003657958</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.034475335751028</v>
       </c>
       <c r="J9">
-        <v>0.9969542217612415</v>
+        <v>0.9969542217612402</v>
       </c>
       <c r="K9">
-        <v>1.008604288593178</v>
+        <v>1.008604288593177</v>
       </c>
       <c r="L9">
-        <v>0.9766119412749259</v>
+        <v>0.9766119412749256</v>
       </c>
       <c r="M9">
-        <v>0.9918901813252096</v>
+        <v>0.9918901813252087</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9567907247000612</v>
+        <v>0.9567907247000597</v>
       </c>
       <c r="D10">
-        <v>0.9850772352492021</v>
+        <v>0.9850772352492003</v>
       </c>
       <c r="E10">
-        <v>0.9528472532331449</v>
+        <v>0.9528472532331439</v>
       </c>
       <c r="F10">
-        <v>0.965808508795169</v>
+        <v>0.9658085087951681</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.029594569974224</v>
+        <v>1.029594569974223</v>
       </c>
       <c r="J10">
-        <v>0.9868301542137375</v>
+        <v>0.9868301542137358</v>
       </c>
       <c r="K10">
-        <v>0.999721255389305</v>
+        <v>0.999721255389303</v>
       </c>
       <c r="L10">
-        <v>0.968123457636311</v>
+        <v>0.9681234576363099</v>
       </c>
       <c r="M10">
-        <v>0.9808238176549577</v>
+        <v>0.9808238176549565</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9506350862964392</v>
+        <v>0.9506350862964393</v>
       </c>
       <c r="D11">
-        <v>0.9803680353573182</v>
+        <v>0.9803680353573183</v>
       </c>
       <c r="E11">
-        <v>0.9483159728024571</v>
+        <v>0.9483159728024573</v>
       </c>
       <c r="F11">
-        <v>0.9600818963180505</v>
+        <v>0.9600818963180506</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -784,13 +784,13 @@
         <v>0.9822161483759123</v>
       </c>
       <c r="K11">
-        <v>0.995669927793155</v>
+        <v>0.9956699277931549</v>
       </c>
       <c r="L11">
-        <v>0.9642831437376342</v>
+        <v>0.9642831437376341</v>
       </c>
       <c r="M11">
-        <v>0.9757980262610806</v>
+        <v>0.9757980262610807</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9482983212937898</v>
+        <v>0.9482983212937902</v>
       </c>
       <c r="D12">
-        <v>0.978581917123813</v>
+        <v>0.9785819171238131</v>
       </c>
       <c r="E12">
-        <v>0.9466025002628887</v>
+        <v>0.9466025002628882</v>
       </c>
       <c r="F12">
-        <v>0.9579120155672433</v>
+        <v>0.957912015567243</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.026502434584234</v>
+        <v>1.026502434584235</v>
       </c>
       <c r="J12">
-        <v>0.9804642459448832</v>
+        <v>0.9804642459448838</v>
       </c>
       <c r="K12">
-        <v>0.9941312883060258</v>
+        <v>0.9941312883060264</v>
       </c>
       <c r="L12">
-        <v>0.9628295650879891</v>
+        <v>0.9628295650879888</v>
       </c>
       <c r="M12">
-        <v>0.973892556642187</v>
+        <v>0.9738925566421868</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9488019258402448</v>
+        <v>0.9488019258402461</v>
       </c>
       <c r="D13">
-        <v>0.9789667748169407</v>
+        <v>0.9789667748169421</v>
       </c>
       <c r="E13">
-        <v>0.9469714665823707</v>
+        <v>0.946971466582371</v>
       </c>
       <c r="F13">
-        <v>0.9583794672825259</v>
+        <v>0.9583794672825264</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.026686276116122</v>
       </c>
       <c r="J13">
-        <v>0.9808418183148679</v>
+        <v>0.9808418183148693</v>
       </c>
       <c r="K13">
-        <v>0.9944629141985157</v>
+        <v>0.9944629141985168</v>
       </c>
       <c r="L13">
-        <v>0.9631426312019249</v>
+        <v>0.9631426312019252</v>
       </c>
       <c r="M13">
-        <v>0.974303098072983</v>
+        <v>0.9743030980729835</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -880,31 +880,31 @@
         <v>0.9504429847243862</v>
       </c>
       <c r="D14">
-        <v>0.9802211682945643</v>
+        <v>0.9802211682945644</v>
       </c>
       <c r="E14">
-        <v>0.9481749726442465</v>
+        <v>0.948174972644246</v>
       </c>
       <c r="F14">
-        <v>0.9599034305702969</v>
+        <v>0.9599034305702967</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.027284948656156</v>
+        <v>1.027284948656157</v>
       </c>
       <c r="J14">
-        <v>0.9820721337618541</v>
+        <v>0.9820721337618544</v>
       </c>
       <c r="K14">
-        <v>0.9955434517783364</v>
+        <v>0.9955434517783365</v>
       </c>
       <c r="L14">
-        <v>0.9641635584488962</v>
+        <v>0.9641635584488957</v>
       </c>
       <c r="M14">
-        <v>0.9756413304658977</v>
+        <v>0.9756413304658976</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9514472760352096</v>
+        <v>0.9514472760352103</v>
       </c>
       <c r="D15">
-        <v>0.9809890422516633</v>
+        <v>0.9809890422516644</v>
       </c>
       <c r="E15">
-        <v>0.9489123838964854</v>
+        <v>0.9489123838964862</v>
       </c>
       <c r="F15">
-        <v>0.9608366001186639</v>
+        <v>0.960836600118665</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.027651015525941</v>
+        <v>1.027651015525942</v>
       </c>
       <c r="J15">
-        <v>0.9828250166536648</v>
+        <v>0.9828250166536654</v>
       </c>
       <c r="K15">
-        <v>0.9962046308424886</v>
+        <v>0.9962046308424893</v>
       </c>
       <c r="L15">
-        <v>0.9647889161521405</v>
+        <v>0.9647889161521414</v>
       </c>
       <c r="M15">
-        <v>0.9764606221826474</v>
+        <v>0.9764606221826483</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9571924814056538</v>
+        <v>0.9571924814056523</v>
       </c>
       <c r="D16">
-        <v>0.9853847869609438</v>
+        <v>0.9853847869609429</v>
       </c>
       <c r="E16">
-        <v>0.9531438781067577</v>
+        <v>0.9531438781067573</v>
       </c>
       <c r="F16">
-        <v>0.9661827984671597</v>
+        <v>0.9661827984671582</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.029740404187315</v>
       </c>
       <c r="J16">
-        <v>0.9871312354654969</v>
+        <v>0.9871312354654956</v>
       </c>
       <c r="K16">
-        <v>0.9999855641661795</v>
+        <v>0.9999855641661785</v>
       </c>
       <c r="L16">
-        <v>0.9683746610970733</v>
+        <v>0.9683746610970725</v>
       </c>
       <c r="M16">
-        <v>0.9811521444217527</v>
+        <v>0.9811521444217511</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9607120640059366</v>
+        <v>0.9607120640059365</v>
       </c>
       <c r="D17">
-        <v>0.988080081884797</v>
+        <v>0.9880800818847971</v>
       </c>
       <c r="E17">
-        <v>0.9557470886410513</v>
+        <v>0.9557470886410518</v>
       </c>
       <c r="F17">
-        <v>0.9694645579933819</v>
+        <v>0.969464557993382</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.031016103856192</v>
       </c>
       <c r="J17">
-        <v>0.9897684815186312</v>
+        <v>0.9897684815186308</v>
       </c>
       <c r="K17">
         <v>1.00230038903012</v>
       </c>
       <c r="L17">
-        <v>0.970578226427847</v>
+        <v>0.9705782264278474</v>
       </c>
       <c r="M17">
-        <v>0.9840300395684975</v>
+        <v>0.9840300395684978</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9627361234315518</v>
+        <v>0.9627361234315533</v>
       </c>
       <c r="D18">
-        <v>0.989630889699895</v>
+        <v>0.9896308896998968</v>
       </c>
       <c r="E18">
-        <v>0.9572479254332479</v>
+        <v>0.9572479254332483</v>
       </c>
       <c r="F18">
-        <v>0.9713541295672445</v>
+        <v>0.9713541295672454</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.031748151689729</v>
+        <v>1.03174815168973</v>
       </c>
       <c r="J18">
-        <v>0.9912847888627231</v>
+        <v>0.9912847888627245</v>
       </c>
       <c r="K18">
-        <v>1.003631040545888</v>
+        <v>1.00363104054589</v>
       </c>
       <c r="L18">
-        <v>0.9718478089901619</v>
+        <v>0.9718478089901625</v>
       </c>
       <c r="M18">
-        <v>0.9856863531372833</v>
+        <v>0.9856863531372839</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,13 +1067,13 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9634215158576408</v>
+        <v>0.9634215158576417</v>
       </c>
       <c r="D19">
-        <v>0.9901561539579634</v>
+        <v>0.9901561539579637</v>
       </c>
       <c r="E19">
-        <v>0.9577567671756263</v>
+        <v>0.9577567671756257</v>
       </c>
       <c r="F19">
         <v>0.9719943594595752</v>
@@ -1085,16 +1085,16 @@
         <v>1.031995766066995</v>
       </c>
       <c r="J19">
-        <v>0.9917981840852182</v>
+        <v>0.9917981840852188</v>
       </c>
       <c r="K19">
         <v>1.004081527381354</v>
       </c>
       <c r="L19">
-        <v>0.9722781041498598</v>
+        <v>0.9722781041498593</v>
       </c>
       <c r="M19">
-        <v>0.9862474271999842</v>
+        <v>0.986247427199984</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9603374630077033</v>
+        <v>0.9603374630077044</v>
       </c>
       <c r="D20">
-        <v>0.987793129268611</v>
+        <v>0.9877931292686117</v>
       </c>
       <c r="E20">
-        <v>0.9554696245605087</v>
+        <v>0.9554696245605089</v>
       </c>
       <c r="F20">
-        <v>0.9691150299932767</v>
+        <v>0.9691150299932774</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.030880490977984</v>
       </c>
       <c r="J20">
-        <v>0.9894878242141596</v>
+        <v>0.9894878242141607</v>
       </c>
       <c r="K20">
-        <v>1.002054072409465</v>
+        <v>1.002054072409466</v>
       </c>
       <c r="L20">
-        <v>0.9703434467601276</v>
+        <v>0.9703434467601281</v>
       </c>
       <c r="M20">
-        <v>0.9837236005073475</v>
+        <v>0.9837236005073483</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9499611640977632</v>
+        <v>0.9499611640977635</v>
       </c>
       <c r="D21">
-        <v>0.9798528288770451</v>
+        <v>0.9798528288770453</v>
       </c>
       <c r="E21">
-        <v>0.9478214313885409</v>
+        <v>0.9478214313885412</v>
       </c>
       <c r="F21">
-        <v>0.959455876481903</v>
+        <v>0.9594558764819034</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.027109240249038</v>
+        <v>1.027109240249037</v>
       </c>
       <c r="J21">
-        <v>0.9817109174482277</v>
+        <v>0.9817109174482278</v>
       </c>
       <c r="K21">
-        <v>0.995226219712474</v>
+        <v>0.9952262197124742</v>
       </c>
       <c r="L21">
-        <v>0.9638636899573432</v>
+        <v>0.9638636899573434</v>
       </c>
       <c r="M21">
-        <v>0.9752483525377237</v>
+        <v>0.9752483525377238</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1184,10 +1184,10 @@
         <v>0.9431432966488561</v>
       </c>
       <c r="D22">
-        <v>0.9746448579297422</v>
+        <v>0.974644857929742</v>
       </c>
       <c r="E22">
-        <v>0.9428354826246204</v>
+        <v>0.9428354826246197</v>
       </c>
       <c r="F22">
         <v>0.9531329732752686</v>
@@ -1199,16 +1199,16 @@
         <v>1.024617450968214</v>
       </c>
       <c r="J22">
-        <v>0.9765989799325839</v>
+        <v>0.976598979932584</v>
       </c>
       <c r="K22">
-        <v>0.9907359131983436</v>
+        <v>0.9907359131983435</v>
       </c>
       <c r="L22">
-        <v>0.9596313072779851</v>
+        <v>0.9596313072779845</v>
       </c>
       <c r="M22">
-        <v>0.9696937816415564</v>
+        <v>0.9696937816415563</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,28 +1219,28 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9467872322136301</v>
+        <v>0.9467872322136308</v>
       </c>
       <c r="D23">
-        <v>0.9774273847971768</v>
+        <v>0.9774273847971774</v>
       </c>
       <c r="E23">
         <v>0.9454964232075853</v>
       </c>
       <c r="F23">
-        <v>0.9565100216012826</v>
+        <v>0.9565100216012828</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.025950473723033</v>
+        <v>1.025950473723034</v>
       </c>
       <c r="J23">
-        <v>0.9793312823288741</v>
+        <v>0.9793312823288749</v>
       </c>
       <c r="K23">
-        <v>0.9931361428948734</v>
+        <v>0.9931361428948741</v>
       </c>
       <c r="L23">
         <v>0.9618908572353925</v>
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9605068178856255</v>
+        <v>0.9605068178856245</v>
       </c>
       <c r="D24">
-        <v>0.9879228564181854</v>
+        <v>0.9879228564181851</v>
       </c>
       <c r="E24">
-        <v>0.9555950527394335</v>
+        <v>0.9555950527394328</v>
       </c>
       <c r="F24">
-        <v>0.9692730424516758</v>
+        <v>0.9692730424516747</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.030941805699531</v>
       </c>
       <c r="J24">
-        <v>0.989614708756267</v>
+        <v>0.9896147087562661</v>
       </c>
       <c r="K24">
         <v>1.002165432470218</v>
       </c>
       <c r="L24">
-        <v>0.9704495819902136</v>
+        <v>0.9704495819902131</v>
       </c>
       <c r="M24">
-        <v>0.9838621358256804</v>
+        <v>0.9838621358256793</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9753073391692365</v>
+        <v>0.9753073391692381</v>
       </c>
       <c r="D25">
-        <v>0.9992743780663781</v>
+        <v>0.9992743780663795</v>
       </c>
       <c r="E25">
         <v>0.9666313457605572</v>
       </c>
       <c r="F25">
-        <v>0.9831275991193599</v>
+        <v>0.9831275991193607</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036265608954531</v>
+        <v>1.036265608954533</v>
       </c>
       <c r="J25">
-        <v>1.000695275481493</v>
+        <v>1.000695275481494</v>
       </c>
       <c r="K25">
-        <v>1.011883968833925</v>
+        <v>1.011883968833927</v>
       </c>
       <c r="L25">
-        <v>0.9797707397306074</v>
+        <v>0.9797707397306072</v>
       </c>
       <c r="M25">
-        <v>0.995993608807451</v>
+        <v>0.9959936088074516</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_37/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_37/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9863538948473597</v>
+        <v>0.9863710725858874</v>
       </c>
       <c r="D2">
-        <v>1.00776211446058</v>
+        <v>1.007776001996659</v>
       </c>
       <c r="E2">
-        <v>0.974965719362016</v>
+        <v>0.9749772060774518</v>
       </c>
       <c r="F2">
-        <v>0.993527385488881</v>
+        <v>0.9935403862711562</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040186321368982</v>
+        <v>1.040193590249942</v>
       </c>
       <c r="J2">
-        <v>1.008950562783676</v>
+        <v>1.008967206920033</v>
       </c>
       <c r="K2">
-        <v>1.019114359611838</v>
+        <v>1.019128057410742</v>
       </c>
       <c r="L2">
-        <v>0.9867852016678672</v>
+        <v>0.9867965177428205</v>
       </c>
       <c r="M2">
-        <v>1.005077636767459</v>
+        <v>1.00509045343549</v>
+      </c>
+      <c r="N2">
+        <v>1.007331130670939</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9939939931212279</v>
+        <v>0.9940054399380508</v>
       </c>
       <c r="D3">
-        <v>1.01363810172935</v>
+        <v>1.013647395161979</v>
       </c>
       <c r="E3">
-        <v>0.980779802395085</v>
+        <v>0.9807887720053171</v>
       </c>
       <c r="F3">
-        <v>1.000750691561172</v>
+        <v>1.000759712982996</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042865648573915</v>
+        <v>1.042870515931667</v>
       </c>
       <c r="J3">
-        <v>1.014649737879513</v>
+        <v>1.014660867483002</v>
       </c>
       <c r="K3">
-        <v>1.024099404457774</v>
+        <v>1.024108582931765</v>
       </c>
       <c r="L3">
-        <v>0.9916646632376981</v>
+        <v>0.9916735123607964</v>
       </c>
       <c r="M3">
-        <v>1.011373976151573</v>
+        <v>1.011382882360202</v>
+      </c>
+      <c r="N3">
+        <v>1.011322915021664</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9987781442312692</v>
+        <v>0.9987860696045189</v>
       </c>
       <c r="D4">
-        <v>1.017319259807501</v>
+        <v>1.017325723131965</v>
       </c>
       <c r="E4">
-        <v>0.9844417792922261</v>
+        <v>0.9844492200068564</v>
       </c>
       <c r="F4">
-        <v>1.00528694980655</v>
+        <v>1.005293535619875</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044527896707723</v>
+        <v>1.044531282584227</v>
       </c>
       <c r="J4">
-        <v>1.018213156930142</v>
+        <v>1.018220878902145</v>
       </c>
       <c r="K4">
-        <v>1.027213055536215</v>
+        <v>1.02721944410295</v>
       </c>
       <c r="L4">
-        <v>0.9947316774828795</v>
+        <v>0.9947390248220707</v>
       </c>
       <c r="M4">
-        <v>1.015321982069053</v>
+        <v>1.015328489431202</v>
+      </c>
+      <c r="N4">
+        <v>1.013816048148616</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.000753439038544</v>
+        <v>1.000759924618193</v>
       </c>
       <c r="D5">
-        <v>1.018839422723073</v>
+        <v>1.018844727374156</v>
       </c>
       <c r="E5">
-        <v>0.9859586153098978</v>
+        <v>0.9859654351932637</v>
       </c>
       <c r="F5">
-        <v>1.007162903224324</v>
+        <v>1.007168495388907</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045210405843857</v>
+        <v>1.045213184700069</v>
       </c>
       <c r="J5">
-        <v>1.019683075465773</v>
+        <v>1.019689400003331</v>
       </c>
       <c r="K5">
-        <v>1.028496631194295</v>
+        <v>1.028501876242044</v>
       </c>
       <c r="L5">
-        <v>0.9960005759786578</v>
+        <v>0.9960073127541883</v>
       </c>
       <c r="M5">
-        <v>1.016953189124996</v>
+        <v>1.01695871664331</v>
+      </c>
+      <c r="N5">
+        <v>1.014843796219973</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.001083051832663</v>
+        <v>1.001089297936489</v>
       </c>
       <c r="D6">
-        <v>1.019093101397377</v>
+        <v>1.019098213244585</v>
       </c>
       <c r="E6">
-        <v>0.9862120061329781</v>
+        <v>0.9862187230078733</v>
       </c>
       <c r="F6">
-        <v>1.007476112524341</v>
+        <v>1.007481539544335</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045324068428816</v>
+        <v>1.045326746248059</v>
       </c>
       <c r="J6">
-        <v>1.019928275441541</v>
+        <v>1.019934367314557</v>
       </c>
       <c r="K6">
-        <v>1.028710698266083</v>
+        <v>1.02871575295776</v>
       </c>
       <c r="L6">
-        <v>0.9962124606538788</v>
+        <v>0.9962190960826015</v>
       </c>
       <c r="M6">
-        <v>1.017225448431369</v>
+        <v>1.017230813032146</v>
+      </c>
+      <c r="N6">
+        <v>1.015015196650259</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9988046767328443</v>
+        <v>0.9988125827129434</v>
       </c>
       <c r="D7">
-        <v>1.017339677969952</v>
+        <v>1.017346125693685</v>
       </c>
       <c r="E7">
-        <v>0.9844621347101443</v>
+        <v>0.9844695670455282</v>
       </c>
       <c r="F7">
-        <v>1.005312136186856</v>
+        <v>1.00531870860779</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044537079461634</v>
+        <v>1.044540457166958</v>
       </c>
       <c r="J7">
-        <v>1.018232906597555</v>
+        <v>1.018240609763019</v>
       </c>
       <c r="K7">
-        <v>1.02723030478023</v>
+        <v>1.027236677955326</v>
       </c>
       <c r="L7">
-        <v>0.9947487115670254</v>
+        <v>0.9947560506684257</v>
       </c>
       <c r="M7">
-        <v>1.015343888363964</v>
+        <v>1.015350382524395</v>
+      </c>
+      <c r="N7">
+        <v>1.013829859559214</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9889703318923062</v>
+        <v>0.9889855315095247</v>
       </c>
       <c r="D8">
-        <v>1.00977397660896</v>
+        <v>1.009786280079281</v>
       </c>
       <c r="E8">
-        <v>0.9769521715685807</v>
+        <v>0.9769627856703651</v>
       </c>
       <c r="F8">
-        <v>0.9959982313759638</v>
+        <v>0.9960098564989988</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041107116929934</v>
+        <v>1.041113558204142</v>
       </c>
       <c r="J8">
-        <v>1.010903392069825</v>
+        <v>1.010918137151663</v>
       </c>
       <c r="K8">
-        <v>1.020823161000757</v>
+        <v>1.020835301838329</v>
       </c>
       <c r="L8">
-        <v>0.9884536638611183</v>
+        <v>0.9884641254736486</v>
       </c>
       <c r="M8">
-        <v>1.007232683416061</v>
+        <v>1.007244149474265</v>
+      </c>
+      <c r="N8">
+        <v>1.008699488035672</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9703075436356944</v>
+        <v>0.9703372432001095</v>
       </c>
       <c r="D9">
-        <v>0.9954367392399803</v>
+        <v>0.99546061216473</v>
       </c>
       <c r="E9">
-        <v>0.9628865865431684</v>
+        <v>0.9629036760655926</v>
       </c>
       <c r="F9">
-        <v>0.9784373003657958</v>
+        <v>0.9784590575212213</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034475335751028</v>
+        <v>1.034487811811632</v>
       </c>
       <c r="J9">
-        <v>0.9969542217612402</v>
+        <v>0.9969827798729769</v>
       </c>
       <c r="K9">
-        <v>1.008604288593177</v>
+        <v>1.008627769628592</v>
       </c>
       <c r="L9">
-        <v>0.9766119412749256</v>
+        <v>0.9766287250878146</v>
       </c>
       <c r="M9">
-        <v>0.9918901813252087</v>
+        <v>0.9919115651020507</v>
+      </c>
+      <c r="N9">
+        <v>0.9989141436433493</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9567907247000597</v>
+        <v>0.95683156492606</v>
       </c>
       <c r="D10">
-        <v>0.9850772352492003</v>
+        <v>0.9851099290064624</v>
       </c>
       <c r="E10">
-        <v>0.9528472532331439</v>
+        <v>0.9528694186175641</v>
       </c>
       <c r="F10">
-        <v>0.9658085087951681</v>
+        <v>0.9658381196644198</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.029594569974223</v>
+        <v>1.029611633721809</v>
       </c>
       <c r="J10">
-        <v>0.9868301542137358</v>
+        <v>0.9868691569055229</v>
       </c>
       <c r="K10">
-        <v>0.999721255389303</v>
+        <v>0.9997533352894001</v>
       </c>
       <c r="L10">
-        <v>0.9681234576363099</v>
+        <v>0.9681451688646346</v>
       </c>
       <c r="M10">
-        <v>0.9808238176549565</v>
+        <v>0.9808528430212957</v>
+      </c>
+      <c r="N10">
+        <v>0.9917988974996254</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9506350862964393</v>
+        <v>0.9506812061224637</v>
       </c>
       <c r="D11">
-        <v>0.9803680353573183</v>
+        <v>0.980404887934586</v>
       </c>
       <c r="E11">
-        <v>0.9483159728024573</v>
+        <v>0.948340566206013</v>
       </c>
       <c r="F11">
-        <v>0.9600818963180506</v>
+        <v>0.960115247473241</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.027354988472628</v>
+        <v>1.027374211783141</v>
       </c>
       <c r="J11">
-        <v>0.9822161483759123</v>
+        <v>0.982260050329135</v>
       </c>
       <c r="K11">
-        <v>0.9956699277931549</v>
+        <v>0.9957060483508401</v>
       </c>
       <c r="L11">
-        <v>0.9642831437376341</v>
+        <v>0.9643072037841959</v>
       </c>
       <c r="M11">
-        <v>0.9757980262610807</v>
+        <v>0.9758306773919401</v>
+      </c>
+      <c r="N11">
+        <v>0.9885533899824933</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9482983212937902</v>
+        <v>0.9483464820336547</v>
       </c>
       <c r="D12">
-        <v>0.9785819171238131</v>
+        <v>0.9786203736194036</v>
       </c>
       <c r="E12">
-        <v>0.9466025002628882</v>
+        <v>0.9466280354580788</v>
       </c>
       <c r="F12">
-        <v>0.957912015567243</v>
+        <v>0.9579468155099382</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.026502434584235</v>
+        <v>1.026522490228148</v>
       </c>
       <c r="J12">
-        <v>0.9804642459448838</v>
+        <v>0.9805100331909933</v>
       </c>
       <c r="K12">
-        <v>0.9941312883060264</v>
+        <v>0.9941689649674673</v>
       </c>
       <c r="L12">
-        <v>0.9628295650879888</v>
+        <v>0.9628545348396369</v>
       </c>
       <c r="M12">
-        <v>0.9738925566421868</v>
+        <v>0.9739266099285752</v>
+      </c>
+      <c r="N12">
+        <v>0.9873207181452177</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9488019258402461</v>
+        <v>0.9488496449754857</v>
       </c>
       <c r="D13">
-        <v>0.9789667748169421</v>
+        <v>0.9790048844407411</v>
       </c>
       <c r="E13">
-        <v>0.946971466582371</v>
+        <v>0.9469967978560951</v>
       </c>
       <c r="F13">
-        <v>0.9583794672825264</v>
+        <v>0.9584139536086612</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.026686276116122</v>
+        <v>1.026706151779867</v>
       </c>
       <c r="J13">
-        <v>0.9808418183148693</v>
+        <v>0.9808871980331809</v>
       </c>
       <c r="K13">
-        <v>0.9944629141985168</v>
+        <v>0.9945002544333668</v>
       </c>
       <c r="L13">
-        <v>0.9631426312019252</v>
+        <v>0.9631674040433406</v>
       </c>
       <c r="M13">
-        <v>0.9743030980729835</v>
+        <v>0.9743368479435547</v>
+      </c>
+      <c r="N13">
+        <v>0.9875864016295257</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9504429847243862</v>
+        <v>0.9504892715499985</v>
       </c>
       <c r="D14">
-        <v>0.9802211682945644</v>
+        <v>0.9802581521924717</v>
       </c>
       <c r="E14">
-        <v>0.948174972644246</v>
+        <v>0.9481996430475365</v>
       </c>
       <c r="F14">
-        <v>0.9599034305702967</v>
+        <v>0.9599369002141314</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.027284948656157</v>
+        <v>1.027304240124864</v>
       </c>
       <c r="J14">
-        <v>0.9820721337618544</v>
+        <v>0.9821161901601433</v>
       </c>
       <c r="K14">
-        <v>0.9955434517783365</v>
+        <v>0.9955796997883424</v>
       </c>
       <c r="L14">
-        <v>0.9641635584488957</v>
+        <v>0.9641876929001186</v>
       </c>
       <c r="M14">
-        <v>0.9756413304658976</v>
+        <v>0.9756740963188407</v>
+      </c>
+      <c r="N14">
+        <v>0.9884520659841455</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9514472760352103</v>
+        <v>0.9514926913275106</v>
       </c>
       <c r="D15">
-        <v>0.9809890422516644</v>
+        <v>0.9810253406626955</v>
       </c>
       <c r="E15">
-        <v>0.9489123838964862</v>
+        <v>0.9489366525832172</v>
       </c>
       <c r="F15">
-        <v>0.960836600118665</v>
+        <v>0.960869451515455</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.027651015525942</v>
+        <v>1.027669951190593</v>
       </c>
       <c r="J15">
-        <v>0.9828250166536654</v>
+        <v>0.9828682666853197</v>
       </c>
       <c r="K15">
-        <v>0.9962046308424893</v>
+        <v>0.9962402134662726</v>
       </c>
       <c r="L15">
-        <v>0.9647889161521414</v>
+        <v>0.9648126623698314</v>
       </c>
       <c r="M15">
-        <v>0.9764606221826483</v>
+        <v>0.9764927893486264</v>
+      </c>
+      <c r="N15">
+        <v>0.9889817548026746</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9571924814056523</v>
+        <v>0.9572329817607305</v>
       </c>
       <c r="D16">
-        <v>0.9853847869609429</v>
+        <v>0.9854172125210739</v>
       </c>
       <c r="E16">
-        <v>0.9531438781067573</v>
+        <v>0.9531658876325015</v>
       </c>
       <c r="F16">
-        <v>0.9661827984671582</v>
+        <v>0.9662121689440339</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.029740404187315</v>
+        <v>1.029757328595839</v>
       </c>
       <c r="J16">
-        <v>0.9871312354654956</v>
+        <v>0.9871699216657152</v>
       </c>
       <c r="K16">
-        <v>0.9999855641661785</v>
+        <v>1.000017383197359</v>
       </c>
       <c r="L16">
-        <v>0.9683746610970725</v>
+        <v>0.9683962213742685</v>
       </c>
       <c r="M16">
-        <v>0.9811521444217511</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9811809364632595</v>
+      </c>
+      <c r="N16">
+        <v>0.9920106251182609</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9607120640059365</v>
+        <v>0.9607496106669259</v>
       </c>
       <c r="D17">
-        <v>0.9880800818847971</v>
+        <v>0.9881101742339377</v>
       </c>
       <c r="E17">
-        <v>0.9557470886410518</v>
+        <v>0.9557677461212962</v>
       </c>
       <c r="F17">
-        <v>0.969464557993382</v>
+        <v>0.9694918413497856</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.031016103856192</v>
+        <v>1.031031815688529</v>
       </c>
       <c r="J17">
-        <v>0.9897684815186308</v>
+        <v>0.9898044115483612</v>
       </c>
       <c r="K17">
-        <v>1.00230038903012</v>
+        <v>1.002329937089221</v>
       </c>
       <c r="L17">
-        <v>0.9705782264278474</v>
+        <v>0.9705984763198054</v>
       </c>
       <c r="M17">
-        <v>0.9840300395684978</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9840568043438301</v>
+      </c>
+      <c r="N17">
+        <v>0.9938648939460506</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9627361234315533</v>
+        <v>0.9627719903329508</v>
       </c>
       <c r="D18">
-        <v>0.9896308896998968</v>
+        <v>0.9896596532385987</v>
       </c>
       <c r="E18">
-        <v>0.9572479254332483</v>
+        <v>0.9572678160815369</v>
       </c>
       <c r="F18">
-        <v>0.9713541295672454</v>
+        <v>0.9713802276517168</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03174815168973</v>
+        <v>1.031763172623348</v>
       </c>
       <c r="J18">
-        <v>0.9912847888627245</v>
+        <v>0.9913191469246293</v>
       </c>
       <c r="K18">
-        <v>1.00363104054589</v>
+        <v>1.003659294017484</v>
       </c>
       <c r="L18">
-        <v>0.9718478089901625</v>
+        <v>0.9718673149431147</v>
       </c>
       <c r="M18">
-        <v>0.9856863531372839</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9857119654191515</v>
+      </c>
+      <c r="N18">
+        <v>0.9949307608906858</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9634215158576417</v>
+        <v>0.9634568170026369</v>
       </c>
       <c r="D19">
-        <v>0.9901561539579637</v>
+        <v>0.9901844696310587</v>
       </c>
       <c r="E19">
-        <v>0.9577567671756257</v>
+        <v>0.9577763999050225</v>
       </c>
       <c r="F19">
-        <v>0.9719943594595752</v>
+        <v>0.9720200586135738</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.031995766066995</v>
+        <v>1.032010554086022</v>
       </c>
       <c r="J19">
-        <v>0.9917981840852188</v>
+        <v>0.9918320119528244</v>
       </c>
       <c r="K19">
-        <v>1.004081527381354</v>
+        <v>1.004109344320216</v>
       </c>
       <c r="L19">
-        <v>0.9722781041498593</v>
+        <v>0.9722973597627405</v>
       </c>
       <c r="M19">
-        <v>0.986247427199984</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9862726513845547</v>
+      </c>
+      <c r="N19">
+        <v>0.9952915995753951</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9603374630077044</v>
+        <v>0.9603753220412374</v>
       </c>
       <c r="D20">
-        <v>0.9877931292686117</v>
+        <v>0.9878234685738383</v>
       </c>
       <c r="E20">
-        <v>0.9554696245605089</v>
+        <v>0.9554904248129967</v>
       </c>
       <c r="F20">
-        <v>0.9691150299932774</v>
+        <v>0.9691425339009518</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030880490977984</v>
+        <v>1.030896331186828</v>
       </c>
       <c r="J20">
-        <v>0.9894878242141607</v>
+        <v>0.9895240462077145</v>
       </c>
       <c r="K20">
-        <v>1.002054072409466</v>
+        <v>1.002083860966158</v>
       </c>
       <c r="L20">
-        <v>0.9703434467601281</v>
+        <v>0.9703638351028833</v>
       </c>
       <c r="M20">
-        <v>0.9837236005073483</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9837505796373134</v>
+      </c>
+      <c r="N20">
+        <v>0.9936675884354574</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9499611640977635</v>
+        <v>0.9500078703956163</v>
       </c>
       <c r="D21">
-        <v>0.9798528288770453</v>
+        <v>0.9798901425665022</v>
       </c>
       <c r="E21">
-        <v>0.9478214313885412</v>
+        <v>0.9478462952514668</v>
       </c>
       <c r="F21">
-        <v>0.9594558764819034</v>
+        <v>0.9594896437946354</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.027109240249037</v>
+        <v>1.027128702877852</v>
       </c>
       <c r="J21">
-        <v>0.9817109174482278</v>
+        <v>0.981755361642997</v>
       </c>
       <c r="K21">
-        <v>0.9952262197124742</v>
+        <v>0.9952627877626894</v>
       </c>
       <c r="L21">
-        <v>0.9638636899573434</v>
+        <v>0.963888011325852</v>
       </c>
       <c r="M21">
-        <v>0.9752483525377238</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9752814065599552</v>
+      </c>
+      <c r="N21">
+        <v>0.9881979200011908</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9431432966488561</v>
+        <v>0.9431960349945079</v>
       </c>
       <c r="D22">
-        <v>0.974644857929742</v>
+        <v>0.9746869042508329</v>
       </c>
       <c r="E22">
-        <v>0.9428354826246197</v>
+        <v>0.9428631358851146</v>
       </c>
       <c r="F22">
-        <v>0.9531329732752686</v>
+        <v>0.9531710283433796</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.024617450968214</v>
+        <v>1.024639368476791</v>
       </c>
       <c r="J22">
-        <v>0.976598979932584</v>
+        <v>0.9766489784713376</v>
       </c>
       <c r="K22">
-        <v>0.9907359131983435</v>
+        <v>0.9907770682366444</v>
       </c>
       <c r="L22">
-        <v>0.9596313072779845</v>
+        <v>0.9596583202225929</v>
       </c>
       <c r="M22">
-        <v>0.9696937816415563</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.969730980743241</v>
+      </c>
+      <c r="N22">
+        <v>0.9846003913096797</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9467872322136308</v>
+        <v>0.9468367238985836</v>
       </c>
       <c r="D23">
-        <v>0.9774273847971774</v>
+        <v>0.9774668861300518</v>
       </c>
       <c r="E23">
-        <v>0.9454964232075853</v>
+        <v>0.9455225734503786</v>
       </c>
       <c r="F23">
-        <v>0.9565100216012828</v>
+        <v>0.9565457671881036</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.025950473723034</v>
+        <v>1.025971071417146</v>
       </c>
       <c r="J23">
-        <v>0.9793312823288749</v>
+        <v>0.9793782964699626</v>
       </c>
       <c r="K23">
-        <v>0.9931361428948741</v>
+        <v>0.9931748325841997</v>
       </c>
       <c r="L23">
-        <v>0.9618908572353925</v>
+        <v>0.9619164206765639</v>
       </c>
       <c r="M23">
-        <v>0.9726610839046593</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.972696051723109</v>
+      </c>
+      <c r="N23">
+        <v>0.9865234419973425</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9605068178856245</v>
+        <v>0.9605445356391642</v>
       </c>
       <c r="D24">
-        <v>0.9879228564181851</v>
+        <v>0.9879530840359576</v>
       </c>
       <c r="E24">
-        <v>0.9555950527394328</v>
+        <v>0.9556157884123396</v>
       </c>
       <c r="F24">
-        <v>0.9692730424516747</v>
+        <v>0.9693004466031218</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.030941805699531</v>
+        <v>1.030957587850259</v>
       </c>
       <c r="J24">
-        <v>0.9896147087562661</v>
+        <v>0.9896507987143981</v>
       </c>
       <c r="K24">
-        <v>1.002165432470218</v>
+        <v>1.002195112264155</v>
       </c>
       <c r="L24">
-        <v>0.9704495819902131</v>
+        <v>0.9704699077103786</v>
       </c>
       <c r="M24">
-        <v>0.9838621358256793</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.983889018005954</v>
+      </c>
+      <c r="N24">
+        <v>0.9937567906310666</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9753073391692381</v>
+        <v>0.9753330610940628</v>
       </c>
       <c r="D25">
-        <v>0.9992743780663795</v>
+        <v>0.9992950870572845</v>
       </c>
       <c r="E25">
-        <v>0.9666313457605572</v>
+        <v>0.9666466420855728</v>
       </c>
       <c r="F25">
-        <v>0.9831275991193607</v>
+        <v>0.9831465661018013</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036265608954533</v>
+        <v>1.036276436803319</v>
       </c>
       <c r="J25">
-        <v>1.000695275481494</v>
+        <v>1.000720069133682</v>
       </c>
       <c r="K25">
-        <v>1.011883968833927</v>
+        <v>1.011904355756008</v>
       </c>
       <c r="L25">
-        <v>0.9797707397306072</v>
+        <v>0.9797857769794982</v>
       </c>
       <c r="M25">
-        <v>0.9959936088074516</v>
+        <v>0.9960122682402504</v>
+      </c>
+      <c r="N25">
+        <v>1.001540838999997</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_37/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_37/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9863710725858874</v>
+        <v>1.013612320277246</v>
       </c>
       <c r="D2">
-        <v>1.007776001996659</v>
+        <v>1.033643747879027</v>
       </c>
       <c r="E2">
-        <v>0.9749772060774518</v>
+        <v>1.026774816257023</v>
       </c>
       <c r="F2">
-        <v>0.9935403862711562</v>
+        <v>1.036702426482127</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040193590249942</v>
+        <v>1.053593985301791</v>
       </c>
       <c r="J2">
-        <v>1.008967206920033</v>
+        <v>1.035393374567721</v>
       </c>
       <c r="K2">
-        <v>1.019128057410742</v>
+        <v>1.044653455470585</v>
       </c>
       <c r="L2">
-        <v>0.9867965177428205</v>
+        <v>1.037873324089484</v>
       </c>
       <c r="M2">
-        <v>1.00509045343549</v>
+        <v>1.047673065067404</v>
       </c>
       <c r="N2">
-        <v>1.007331130670939</v>
+        <v>1.036863751920887</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9940054399380508</v>
+        <v>1.021158704103816</v>
       </c>
       <c r="D3">
-        <v>1.013647395161979</v>
+        <v>1.039606342298504</v>
       </c>
       <c r="E3">
-        <v>0.9807887720053171</v>
+        <v>1.032843448537048</v>
       </c>
       <c r="F3">
-        <v>1.000759712982996</v>
+        <v>1.043237035093493</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042870515931667</v>
+        <v>1.056134728258776</v>
       </c>
       <c r="J3">
-        <v>1.014660867483002</v>
+        <v>1.041088722147701</v>
       </c>
       <c r="K3">
-        <v>1.024108582931765</v>
+        <v>1.049756343011787</v>
       </c>
       <c r="L3">
-        <v>0.9916735123607964</v>
+        <v>1.043072654212992</v>
       </c>
       <c r="M3">
-        <v>1.011382882360202</v>
+        <v>1.053345037510683</v>
       </c>
       <c r="N3">
-        <v>1.011322915021664</v>
+        <v>1.042567187547696</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9987860696045189</v>
+        <v>1.025895668985103</v>
       </c>
       <c r="D4">
-        <v>1.017325723131965</v>
+        <v>1.043351430851838</v>
       </c>
       <c r="E4">
-        <v>0.9844492200068564</v>
+        <v>1.03666575685021</v>
       </c>
       <c r="F4">
-        <v>1.005293535619875</v>
+        <v>1.04734838664255</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044531282584227</v>
+        <v>1.057714225537974</v>
       </c>
       <c r="J4">
-        <v>1.018220878902145</v>
+        <v>1.044659381617073</v>
       </c>
       <c r="K4">
-        <v>1.02721944410295</v>
+        <v>1.052953349215891</v>
       </c>
       <c r="L4">
-        <v>0.9947390248220707</v>
+        <v>1.04634091636881</v>
       </c>
       <c r="M4">
-        <v>1.015328489431202</v>
+        <v>1.056907066124449</v>
       </c>
       <c r="N4">
-        <v>1.013816048148616</v>
+        <v>1.046142917763075</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.000759924618193</v>
+        <v>1.027854063959715</v>
       </c>
       <c r="D5">
-        <v>1.018844727374156</v>
+        <v>1.044900188741039</v>
       </c>
       <c r="E5">
-        <v>0.9859654351932637</v>
+        <v>1.038248965132838</v>
       </c>
       <c r="F5">
-        <v>1.007168495388907</v>
+        <v>1.049050285541776</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045213184700069</v>
+        <v>1.058363473298001</v>
       </c>
       <c r="J5">
-        <v>1.019689400003331</v>
+        <v>1.046134470474478</v>
       </c>
       <c r="K5">
-        <v>1.028501876242044</v>
+        <v>1.054273514557892</v>
       </c>
       <c r="L5">
-        <v>0.9960073127541883</v>
+        <v>1.047693083628938</v>
       </c>
       <c r="M5">
-        <v>1.01695871664331</v>
+        <v>1.058379995351741</v>
       </c>
       <c r="N5">
-        <v>1.014843796219973</v>
+        <v>1.047620101415853</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.001089297936489</v>
+        <v>1.028181003888438</v>
       </c>
       <c r="D6">
-        <v>1.019098213244585</v>
+        <v>1.045158764904534</v>
       </c>
       <c r="E6">
-        <v>0.9862187230078733</v>
+        <v>1.038513440226071</v>
       </c>
       <c r="F6">
-        <v>1.007481539544335</v>
+        <v>1.049334528237533</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045326746248059</v>
+        <v>1.058471637204653</v>
       </c>
       <c r="J6">
-        <v>1.019934367314557</v>
+        <v>1.046380657945655</v>
       </c>
       <c r="K6">
-        <v>1.02871575295776</v>
+        <v>1.054493811867815</v>
       </c>
       <c r="L6">
-        <v>0.9962190960826015</v>
+        <v>1.047918872198749</v>
       </c>
       <c r="M6">
-        <v>1.017230813032146</v>
+        <v>1.058625904002687</v>
       </c>
       <c r="N6">
-        <v>1.015015196650259</v>
+        <v>1.047866638501477</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9988125827129434</v>
+        <v>1.025921964475597</v>
       </c>
       <c r="D7">
-        <v>1.017346125693685</v>
+        <v>1.043372224556082</v>
       </c>
       <c r="E7">
-        <v>0.9844695670455282</v>
+        <v>1.036687003164574</v>
       </c>
       <c r="F7">
-        <v>1.00531870860779</v>
+        <v>1.047371229794771</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044540457166958</v>
+        <v>1.05772295801174</v>
       </c>
       <c r="J7">
-        <v>1.018240609763019</v>
+        <v>1.044679192259383</v>
       </c>
       <c r="K7">
-        <v>1.027236677955326</v>
+        <v>1.052971081480118</v>
       </c>
       <c r="L7">
-        <v>0.9947560506684257</v>
+        <v>1.046359068295935</v>
       </c>
       <c r="M7">
-        <v>1.015350382524395</v>
+        <v>1.056926842245532</v>
       </c>
       <c r="N7">
-        <v>1.013829859559214</v>
+        <v>1.04616275653877</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9889855315095247</v>
+        <v>1.016194117402604</v>
       </c>
       <c r="D8">
-        <v>1.009786280079281</v>
+        <v>1.035683135309969</v>
       </c>
       <c r="E8">
-        <v>0.9769627856703651</v>
+        <v>1.028848210986664</v>
       </c>
       <c r="F8">
-        <v>0.9960098564989988</v>
+        <v>1.03893598613927</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041113558204142</v>
+        <v>1.054466428804506</v>
       </c>
       <c r="J8">
-        <v>1.010918137151663</v>
+        <v>1.037342769229529</v>
       </c>
       <c r="K8">
-        <v>1.020835301838329</v>
+        <v>1.046400512177275</v>
       </c>
       <c r="L8">
-        <v>0.9884641254736486</v>
+        <v>1.039651094721315</v>
       </c>
       <c r="M8">
-        <v>1.007244149474265</v>
+        <v>1.049613160641514</v>
       </c>
       <c r="N8">
-        <v>1.008699488035672</v>
+        <v>1.038815914946714</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9703372432001095</v>
+        <v>0.9978371428162314</v>
       </c>
       <c r="D9">
-        <v>0.99546061216473</v>
+        <v>1.021198059762388</v>
       </c>
       <c r="E9">
-        <v>0.9629036760655926</v>
+        <v>1.014169036917527</v>
       </c>
       <c r="F9">
-        <v>0.9784590575212213</v>
+        <v>1.023102042789453</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034487811811632</v>
+        <v>1.04820010289952</v>
       </c>
       <c r="J9">
-        <v>0.9969827798729769</v>
+        <v>1.023466509010234</v>
       </c>
       <c r="K9">
-        <v>1.008627769628592</v>
+        <v>1.033956326874644</v>
       </c>
       <c r="L9">
-        <v>0.9766287250878146</v>
+        <v>1.027036339344483</v>
       </c>
       <c r="M9">
-        <v>0.9919115651020507</v>
+        <v>1.035831103986403</v>
       </c>
       <c r="N9">
-        <v>0.9989141436433493</v>
+        <v>1.024919948846278</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.95683156492606</v>
+        <v>0.9846294868466323</v>
       </c>
       <c r="D10">
-        <v>0.9851099290064624</v>
+        <v>1.010802594961909</v>
       </c>
       <c r="E10">
-        <v>0.9528694186175641</v>
+        <v>1.003697249013709</v>
       </c>
       <c r="F10">
-        <v>0.9658381196644198</v>
+        <v>1.011777592704204</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.029611633721809</v>
+        <v>1.043614661374545</v>
       </c>
       <c r="J10">
-        <v>0.9868691569055229</v>
+        <v>1.013466494736547</v>
       </c>
       <c r="K10">
-        <v>0.9997533352894001</v>
+        <v>1.02497950653007</v>
       </c>
       <c r="L10">
-        <v>0.9681451688646346</v>
+        <v>1.018000067824811</v>
       </c>
       <c r="M10">
-        <v>0.9808528430212957</v>
+        <v>1.025937406001689</v>
       </c>
       <c r="N10">
-        <v>0.9917988974996254</v>
+        <v>1.014905733405305</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9506812061224637</v>
+        <v>0.9786402587611385</v>
       </c>
       <c r="D11">
-        <v>0.980404887934586</v>
+        <v>1.006097347188689</v>
       </c>
       <c r="E11">
-        <v>0.948340566206013</v>
+        <v>0.998973259206323</v>
       </c>
       <c r="F11">
-        <v>0.960115247473241</v>
+        <v>1.006661269975251</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.027374211783141</v>
+        <v>1.04151849039361</v>
       </c>
       <c r="J11">
-        <v>0.982260050329135</v>
+        <v>1.008929439427915</v>
       </c>
       <c r="K11">
-        <v>0.9957060483508401</v>
+        <v>1.020905185306256</v>
       </c>
       <c r="L11">
-        <v>0.9643072037841959</v>
+        <v>1.013914564364886</v>
       </c>
       <c r="M11">
-        <v>0.9758306773919401</v>
+        <v>1.021458648427666</v>
       </c>
       <c r="N11">
-        <v>0.9885533899824933</v>
+        <v>1.010362234957727</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9483464820336547</v>
+        <v>0.9763710136876839</v>
       </c>
       <c r="D12">
-        <v>0.9786203736194036</v>
+        <v>1.004316139712803</v>
       </c>
       <c r="E12">
-        <v>0.9466280354580788</v>
+        <v>0.9971874161140013</v>
       </c>
       <c r="F12">
-        <v>0.9579468155099382</v>
+        <v>1.00472587508639</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.026522490228148</v>
+        <v>1.040721886665845</v>
       </c>
       <c r="J12">
-        <v>0.9805100331909933</v>
+        <v>1.007210188119966</v>
       </c>
       <c r="K12">
-        <v>0.9941689649674673</v>
+        <v>1.0193611138435</v>
       </c>
       <c r="L12">
-        <v>0.9628545348396369</v>
+        <v>1.012368699898173</v>
       </c>
       <c r="M12">
-        <v>0.9739266099285752</v>
+        <v>1.0197630914237</v>
       </c>
       <c r="N12">
-        <v>0.9873207181452177</v>
+        <v>1.008640542115719</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9488496449754857</v>
+        <v>0.9768598616185387</v>
       </c>
       <c r="D13">
-        <v>0.9790048844407411</v>
+        <v>1.00469977882722</v>
       </c>
       <c r="E13">
-        <v>0.9469967978560951</v>
+        <v>0.9975719411689922</v>
       </c>
       <c r="F13">
-        <v>0.9584139536086612</v>
+        <v>1.005142658587235</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.026706151779867</v>
+        <v>1.04089359904015</v>
       </c>
       <c r="J13">
-        <v>0.9808871980331809</v>
+        <v>1.007580561987486</v>
       </c>
       <c r="K13">
-        <v>0.9945002544333668</v>
+        <v>1.019693755688185</v>
       </c>
       <c r="L13">
-        <v>0.9631674040433406</v>
+        <v>1.012701616441299</v>
       </c>
       <c r="M13">
-        <v>0.9743368479435547</v>
+        <v>1.020128286951424</v>
       </c>
       <c r="N13">
-        <v>0.9875864016295257</v>
+        <v>1.009011441956614</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9504892715499985</v>
+        <v>0.9784536166075573</v>
       </c>
       <c r="D14">
-        <v>0.9802581521924717</v>
+        <v>1.005950812471046</v>
       </c>
       <c r="E14">
-        <v>0.9481996430475365</v>
+        <v>0.9988262927309286</v>
       </c>
       <c r="F14">
-        <v>0.9599369002141314</v>
+        <v>1.006502021655461</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.027304240124864</v>
+        <v>1.041453018486088</v>
       </c>
       <c r="J14">
-        <v>0.9821161901601433</v>
+        <v>1.00878803699257</v>
       </c>
       <c r="K14">
-        <v>0.9955796997883424</v>
+        <v>1.020778193823965</v>
       </c>
       <c r="L14">
-        <v>0.9641876929001186</v>
+        <v>1.013787375416443</v>
       </c>
       <c r="M14">
-        <v>0.9756740963188407</v>
+        <v>1.021319161701075</v>
       </c>
       <c r="N14">
-        <v>0.9884520659841455</v>
+        <v>1.010220631714704</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9514926913275106</v>
+        <v>0.9794295462295771</v>
       </c>
       <c r="D15">
-        <v>0.9810253406626955</v>
+        <v>1.006717089668275</v>
       </c>
       <c r="E15">
-        <v>0.9489366525832172</v>
+        <v>0.9995949282079371</v>
       </c>
       <c r="F15">
-        <v>0.960869451515455</v>
+        <v>1.00733484050471</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.027669951190593</v>
+        <v>1.041795267060047</v>
       </c>
       <c r="J15">
-        <v>0.9828682666853197</v>
+        <v>1.009527405589625</v>
       </c>
       <c r="K15">
-        <v>0.9962402134662726</v>
+        <v>1.021442203663853</v>
       </c>
       <c r="L15">
-        <v>0.9648126623698314</v>
+        <v>1.014452517520453</v>
       </c>
       <c r="M15">
-        <v>0.9764927893486264</v>
+        <v>1.022048579092059</v>
       </c>
       <c r="N15">
-        <v>0.9889817548026746</v>
+        <v>1.010961050299974</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9572329817607305</v>
+        <v>0.9850209510846664</v>
       </c>
       <c r="D16">
-        <v>0.9854172125210739</v>
+        <v>1.011110336758552</v>
       </c>
       <c r="E16">
-        <v>0.9531658876325015</v>
+        <v>1.004006550503694</v>
       </c>
       <c r="F16">
-        <v>0.9662121689440339</v>
+        <v>1.012112416259768</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.029757328595839</v>
+        <v>1.043751333314154</v>
       </c>
       <c r="J16">
-        <v>0.9871699216657152</v>
+        <v>1.013763005148397</v>
       </c>
       <c r="K16">
-        <v>1.000017383197359</v>
+        <v>1.025245749691196</v>
       </c>
       <c r="L16">
-        <v>0.9683962213742685</v>
+        <v>1.018267374034473</v>
       </c>
       <c r="M16">
-        <v>0.9811809364632595</v>
+        <v>1.026230321908929</v>
       </c>
       <c r="N16">
-        <v>0.9920106251182609</v>
+        <v>1.01520266489595</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9607496106669259</v>
+        <v>0.9884532970660675</v>
       </c>
       <c r="D17">
-        <v>0.9881101742339377</v>
+        <v>1.01380961867804</v>
       </c>
       <c r="E17">
-        <v>0.9557677461212962</v>
+        <v>1.006721304842425</v>
       </c>
       <c r="F17">
-        <v>0.9694918413497856</v>
+        <v>1.015050301957297</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.031031815688529</v>
+        <v>1.044947786974161</v>
       </c>
       <c r="J17">
-        <v>0.9898044115483612</v>
+        <v>1.016362545477955</v>
       </c>
       <c r="K17">
-        <v>1.002329937089221</v>
+        <v>1.02757977158337</v>
       </c>
       <c r="L17">
-        <v>0.9705984763198054</v>
+        <v>1.020612502701826</v>
       </c>
       <c r="M17">
-        <v>0.9840568043438301</v>
+        <v>1.028799492359594</v>
       </c>
       <c r="N17">
-        <v>0.9938648939460506</v>
+        <v>1.017805896870947</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9627719903329508</v>
+        <v>0.9904295490009388</v>
       </c>
       <c r="D18">
-        <v>0.9896596532385987</v>
+        <v>1.015364596082877</v>
       </c>
       <c r="E18">
-        <v>0.9572678160815369</v>
+        <v>1.008286674041686</v>
       </c>
       <c r="F18">
-        <v>0.9713802276517168</v>
+        <v>1.01674361464571</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.031763172623348</v>
+        <v>1.045635083958642</v>
       </c>
       <c r="J18">
-        <v>0.9913191469246293</v>
+        <v>1.017859056704227</v>
       </c>
       <c r="K18">
-        <v>1.003659294017484</v>
+        <v>1.028923284158577</v>
       </c>
       <c r="L18">
-        <v>0.9718673149431147</v>
+        <v>1.021963885490964</v>
       </c>
       <c r="M18">
-        <v>0.9857119654191515</v>
+        <v>1.030279457572793</v>
       </c>
       <c r="N18">
-        <v>0.9949307608906858</v>
+        <v>1.019304533314812</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9634568170026369</v>
+        <v>0.9910991399176834</v>
       </c>
       <c r="D19">
-        <v>0.9901844696310587</v>
+        <v>1.015891581097068</v>
       </c>
       <c r="E19">
-        <v>0.9577763999050225</v>
+        <v>1.008817429350114</v>
       </c>
       <c r="F19">
-        <v>0.9720200586135738</v>
+        <v>1.017317631103165</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032010554086022</v>
+        <v>1.045867679643053</v>
       </c>
       <c r="J19">
-        <v>0.9918320119528244</v>
+        <v>1.018366058976382</v>
       </c>
       <c r="K19">
-        <v>1.004109344320216</v>
+        <v>1.029378426025034</v>
       </c>
       <c r="L19">
-        <v>0.9722973597627405</v>
+        <v>1.022421942158772</v>
       </c>
       <c r="M19">
-        <v>0.9862726513845547</v>
+        <v>1.030781010722801</v>
       </c>
       <c r="N19">
-        <v>0.9952915995753951</v>
+        <v>1.019812255588348</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9603753220412374</v>
+        <v>0.9880877321759692</v>
       </c>
       <c r="D20">
-        <v>0.9878234685738383</v>
+        <v>1.013522044220865</v>
       </c>
       <c r="E20">
-        <v>0.9554904248129967</v>
+        <v>1.006431927761568</v>
       </c>
       <c r="F20">
-        <v>0.9691425339009518</v>
+        <v>1.014737215450028</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030896331186828</v>
+        <v>1.044820521888333</v>
       </c>
       <c r="J20">
-        <v>0.9895240462077145</v>
+        <v>1.016085702603865</v>
       </c>
       <c r="K20">
-        <v>1.002083860966158</v>
+        <v>1.027331220189082</v>
       </c>
       <c r="L20">
-        <v>0.9703638351028833</v>
+        <v>1.020362614530445</v>
       </c>
       <c r="M20">
-        <v>0.9837505796373134</v>
+        <v>1.028525785721065</v>
       </c>
       <c r="N20">
-        <v>0.9936675884354574</v>
+        <v>1.017528660848222</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9500078703956163</v>
+        <v>0.9779855607796142</v>
       </c>
       <c r="D21">
-        <v>0.9798901425665022</v>
+        <v>1.005583362748172</v>
       </c>
       <c r="E21">
-        <v>0.9478462952514668</v>
+        <v>0.9984578001885631</v>
       </c>
       <c r="F21">
-        <v>0.9594896437946354</v>
+        <v>1.006102714387287</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.027128702877852</v>
+        <v>1.041288791989793</v>
       </c>
       <c r="J21">
-        <v>0.981755361642997</v>
+        <v>1.008433429057344</v>
       </c>
       <c r="K21">
-        <v>0.9952627877626894</v>
+        <v>1.020459723096564</v>
       </c>
       <c r="L21">
-        <v>0.963888011325852</v>
+        <v>1.013468449040734</v>
       </c>
       <c r="M21">
-        <v>0.9752814065599552</v>
+        <v>1.020969384069198</v>
       </c>
       <c r="N21">
-        <v>0.9881979200011908</v>
+        <v>1.009865520195537</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9431960349945079</v>
+        <v>0.9713736152376861</v>
       </c>
       <c r="D22">
-        <v>0.9746869042508329</v>
+        <v>1.000396669188117</v>
       </c>
       <c r="E22">
-        <v>0.9428631358851146</v>
+        <v>0.9932623880427112</v>
       </c>
       <c r="F22">
-        <v>0.9531710283433796</v>
+        <v>1.000469776345735</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.024639368476791</v>
+        <v>1.038963337026891</v>
       </c>
       <c r="J22">
-        <v>0.9766489784713376</v>
+        <v>1.003423774417793</v>
       </c>
       <c r="K22">
-        <v>0.9907770682366444</v>
+        <v>1.015960272078</v>
       </c>
       <c r="L22">
-        <v>0.9596583202225929</v>
+        <v>1.008968510473473</v>
       </c>
       <c r="M22">
-        <v>0.969730980743241</v>
+        <v>1.016031932615948</v>
       </c>
       <c r="N22">
-        <v>0.9846003913096797</v>
+        <v>1.004848751271782</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9468367238985836</v>
+        <v>0.974904883866212</v>
       </c>
       <c r="D23">
-        <v>0.9774668861300518</v>
+        <v>1.003165794925134</v>
       </c>
       <c r="E23">
-        <v>0.9455225734503786</v>
+        <v>0.9960347825827812</v>
       </c>
       <c r="F23">
-        <v>0.9565457671881036</v>
+        <v>1.003476357294793</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.025971071417146</v>
+        <v>1.040206556032693</v>
       </c>
       <c r="J23">
-        <v>0.9793782964699626</v>
+        <v>1.006099360254764</v>
       </c>
       <c r="K23">
-        <v>0.9931748325841997</v>
+        <v>1.018363432526076</v>
       </c>
       <c r="L23">
-        <v>0.9619164206765639</v>
+        <v>1.01137055916866</v>
       </c>
       <c r="M23">
-        <v>0.972696051723109</v>
+        <v>1.018668037212851</v>
       </c>
       <c r="N23">
-        <v>0.9865234419973425</v>
+        <v>1.007528136747535</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9605445356391642</v>
+        <v>0.9882529945793914</v>
       </c>
       <c r="D24">
-        <v>0.9879530840359576</v>
+        <v>1.013652046692382</v>
       </c>
       <c r="E24">
-        <v>0.9556157884123396</v>
+        <v>1.006562740549928</v>
       </c>
       <c r="F24">
-        <v>0.9693004466031218</v>
+        <v>1.014878748296728</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.030957587850259</v>
+        <v>1.044878060078446</v>
       </c>
       <c r="J24">
-        <v>0.9896507987143981</v>
+        <v>1.016210856822111</v>
       </c>
       <c r="K24">
-        <v>1.002195112264155</v>
+        <v>1.027443584940269</v>
       </c>
       <c r="L24">
-        <v>0.9704699077103786</v>
+        <v>1.020475579025472</v>
       </c>
       <c r="M24">
-        <v>0.983889018005954</v>
+        <v>1.028649519214036</v>
       </c>
       <c r="N24">
-        <v>0.9937567906310666</v>
+        <v>1.017653992799813</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9753330610940628</v>
+        <v>1.002741504573936</v>
       </c>
       <c r="D25">
-        <v>0.9992950870572845</v>
+        <v>1.025064227832153</v>
       </c>
       <c r="E25">
-        <v>0.9666466420855728</v>
+        <v>1.018076540991949</v>
       </c>
       <c r="F25">
-        <v>0.9831465661018013</v>
+        <v>1.027321623283678</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036276436803319</v>
+        <v>1.049887743502147</v>
       </c>
       <c r="J25">
-        <v>1.000720069133682</v>
+        <v>1.027176957087796</v>
       </c>
       <c r="K25">
-        <v>1.011904355756008</v>
+        <v>1.037285526111035</v>
       </c>
       <c r="L25">
-        <v>0.9797857769794982</v>
+        <v>1.030400576238875</v>
       </c>
       <c r="M25">
-        <v>0.9960122682402504</v>
+        <v>1.039510110706858</v>
       </c>
       <c r="N25">
-        <v>1.001540838999997</v>
+        <v>1.028635666185705</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_37/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_37/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.013612320277246</v>
+        <v>1.0087521759357</v>
       </c>
       <c r="D2">
-        <v>1.033643747879027</v>
+        <v>1.024393946090598</v>
       </c>
       <c r="E2">
-        <v>1.026774816257023</v>
+        <v>1.009783016208794</v>
       </c>
       <c r="F2">
-        <v>1.036702426482127</v>
+        <v>1.014698504608865</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.053593985301791</v>
+        <v>1.044673371576419</v>
       </c>
       <c r="J2">
-        <v>1.035393374567721</v>
+        <v>1.030674225422089</v>
       </c>
       <c r="K2">
-        <v>1.044653455470585</v>
+        <v>1.035523581621809</v>
       </c>
       <c r="L2">
-        <v>1.037873324089484</v>
+        <v>1.021107720038312</v>
       </c>
       <c r="M2">
-        <v>1.047673065067404</v>
+        <v>1.025956794545626</v>
       </c>
       <c r="N2">
-        <v>1.036863751920887</v>
+        <v>1.013919796404295</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.021158704103816</v>
+        <v>1.013545307771975</v>
       </c>
       <c r="D3">
-        <v>1.039606342298504</v>
+        <v>1.027950107018612</v>
       </c>
       <c r="E3">
-        <v>1.032843448537048</v>
+        <v>1.015549724863358</v>
       </c>
       <c r="F3">
-        <v>1.043237035093493</v>
+        <v>1.020818301193441</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.056134728258776</v>
+        <v>1.046128698338322</v>
       </c>
       <c r="J3">
-        <v>1.041088722147701</v>
+        <v>1.033673403547291</v>
       </c>
       <c r="K3">
-        <v>1.049756343011787</v>
+        <v>1.038237427709278</v>
       </c>
       <c r="L3">
-        <v>1.043072654212992</v>
+        <v>1.025987436163614</v>
       </c>
       <c r="M3">
-        <v>1.053345037510683</v>
+        <v>1.031191561076416</v>
       </c>
       <c r="N3">
-        <v>1.042567187547696</v>
+        <v>1.014934350181371</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.025895668985103</v>
+        <v>1.016575477500856</v>
       </c>
       <c r="D4">
-        <v>1.043351430851838</v>
+        <v>1.030200555107569</v>
       </c>
       <c r="E4">
-        <v>1.03666575685021</v>
+        <v>1.019200425604421</v>
       </c>
       <c r="F4">
-        <v>1.04734838664255</v>
+        <v>1.0246920774761</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.057714225537974</v>
+        <v>1.047038923755559</v>
       </c>
       <c r="J4">
-        <v>1.044659381617073</v>
+        <v>1.035564478821284</v>
       </c>
       <c r="K4">
-        <v>1.052953349215891</v>
+        <v>1.039947653409751</v>
       </c>
       <c r="L4">
-        <v>1.04634091636881</v>
+        <v>1.029072512347154</v>
       </c>
       <c r="M4">
-        <v>1.056907066124449</v>
+        <v>1.034501351963564</v>
       </c>
       <c r="N4">
-        <v>1.046142917763075</v>
+        <v>1.015573877892687</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.027854063959715</v>
+        <v>1.017832951884204</v>
       </c>
       <c r="D5">
-        <v>1.044900188741039</v>
+        <v>1.031134950884047</v>
       </c>
       <c r="E5">
-        <v>1.038248965132838</v>
+        <v>1.020716733538407</v>
       </c>
       <c r="F5">
-        <v>1.049050285541776</v>
+        <v>1.026300932493071</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.058363473298001</v>
+        <v>1.047414262978383</v>
       </c>
       <c r="J5">
-        <v>1.046134470474478</v>
+        <v>1.036348025336822</v>
       </c>
       <c r="K5">
-        <v>1.054273514557892</v>
+        <v>1.040656028167925</v>
       </c>
       <c r="L5">
-        <v>1.047693083628938</v>
+        <v>1.030352896069872</v>
       </c>
       <c r="M5">
-        <v>1.058379995351741</v>
+        <v>1.035875051839308</v>
       </c>
       <c r="N5">
-        <v>1.047620101415853</v>
+        <v>1.015838811269266</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.028181003888438</v>
+        <v>1.018043143675007</v>
       </c>
       <c r="D6">
-        <v>1.045158764904534</v>
+        <v>1.031291166361379</v>
       </c>
       <c r="E6">
-        <v>1.038513440226071</v>
+        <v>1.020970271285883</v>
       </c>
       <c r="F6">
-        <v>1.049334528237533</v>
+        <v>1.02656993856501</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.058471637204653</v>
+        <v>1.047476860852301</v>
       </c>
       <c r="J6">
-        <v>1.046380657945655</v>
+        <v>1.036478925646479</v>
       </c>
       <c r="K6">
-        <v>1.054493811867815</v>
+        <v>1.040774355762687</v>
       </c>
       <c r="L6">
-        <v>1.047918872198749</v>
+        <v>1.030566926878485</v>
       </c>
       <c r="M6">
-        <v>1.058625904002687</v>
+        <v>1.036104684559141</v>
       </c>
       <c r="N6">
-        <v>1.047866638501477</v>
+        <v>1.015883068426574</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.025921964475597</v>
+        <v>1.01659234356265</v>
       </c>
       <c r="D7">
-        <v>1.043372224556082</v>
+        <v>1.030213085945182</v>
       </c>
       <c r="E7">
-        <v>1.036687003164574</v>
+        <v>1.019220757938314</v>
       </c>
       <c r="F7">
-        <v>1.047371229794771</v>
+        <v>1.024713651202952</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.05772295801174</v>
+        <v>1.047043967542943</v>
       </c>
       <c r="J7">
-        <v>1.044679192259383</v>
+        <v>1.035574993116985</v>
       </c>
       <c r="K7">
-        <v>1.052971081480118</v>
+        <v>1.039957159948296</v>
       </c>
       <c r="L7">
-        <v>1.046359068295935</v>
+        <v>1.029089685086937</v>
       </c>
       <c r="M7">
-        <v>1.056926842245532</v>
+        <v>1.034519776069073</v>
       </c>
       <c r="N7">
-        <v>1.04616275653877</v>
+        <v>1.015577433190878</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.016194117402604</v>
+        <v>1.010387212965564</v>
       </c>
       <c r="D8">
-        <v>1.035683135309969</v>
+        <v>1.025606514895326</v>
       </c>
       <c r="E8">
-        <v>1.028848210986664</v>
+        <v>1.011749171113134</v>
       </c>
       <c r="F8">
-        <v>1.03893598613927</v>
+        <v>1.016785140558661</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.054466428804506</v>
+        <v>1.045171854763283</v>
       </c>
       <c r="J8">
-        <v>1.037342769229529</v>
+        <v>1.031698335791372</v>
       </c>
       <c r="K8">
-        <v>1.046400512177275</v>
+        <v>1.036450450706113</v>
       </c>
       <c r="L8">
-        <v>1.039651094721315</v>
+        <v>1.022772310011894</v>
       </c>
       <c r="M8">
-        <v>1.049613160641514</v>
+        <v>1.027742447013</v>
       </c>
       <c r="N8">
-        <v>1.038815914946714</v>
+        <v>1.014266264603029</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9978371428162314</v>
+        <v>0.9988749935952796</v>
       </c>
       <c r="D9">
-        <v>1.021198059762388</v>
+        <v>1.017080884388193</v>
       </c>
       <c r="E9">
-        <v>1.014169036917527</v>
+        <v>0.9979221246449742</v>
       </c>
       <c r="F9">
-        <v>1.023102042789453</v>
+        <v>1.002108803712871</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04820010289952</v>
+        <v>1.041621629956761</v>
       </c>
       <c r="J9">
-        <v>1.023466509010234</v>
+        <v>1.024467541381497</v>
       </c>
       <c r="K9">
-        <v>1.033956326874644</v>
+        <v>1.029902784134161</v>
       </c>
       <c r="L9">
-        <v>1.027036339344483</v>
+        <v>1.011049004126464</v>
       </c>
       <c r="M9">
-        <v>1.035831103986403</v>
+        <v>1.01516775945282</v>
       </c>
       <c r="N9">
-        <v>1.024919948846278</v>
+        <v>1.011819433617831</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9846294868466323</v>
+        <v>0.9907634714829989</v>
       </c>
       <c r="D10">
-        <v>1.010802594961909</v>
+        <v>1.011091696693878</v>
       </c>
       <c r="E10">
-        <v>1.003697249013709</v>
+        <v>0.9881946340194776</v>
       </c>
       <c r="F10">
-        <v>1.011777592704204</v>
+        <v>0.9917811772175139</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.043614661374545</v>
+        <v>1.03907024793671</v>
       </c>
       <c r="J10">
-        <v>1.013466494736547</v>
+        <v>1.019348407449304</v>
       </c>
       <c r="K10">
-        <v>1.02497950653007</v>
+        <v>1.025263533906833</v>
       </c>
       <c r="L10">
-        <v>1.018000067824811</v>
+        <v>1.002780360337729</v>
       </c>
       <c r="M10">
-        <v>1.025937406001689</v>
+        <v>1.006300427757881</v>
       </c>
       <c r="N10">
-        <v>1.014905733405305</v>
+        <v>1.010086664113623</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9786402587611385</v>
+        <v>0.9871356193006152</v>
       </c>
       <c r="D11">
-        <v>1.006097347188689</v>
+        <v>1.008418238420532</v>
       </c>
       <c r="E11">
-        <v>0.998973259206323</v>
+        <v>0.983845488747649</v>
       </c>
       <c r="F11">
-        <v>1.006661269975251</v>
+        <v>0.9871630480430001</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.04151849039361</v>
+        <v>1.037917836633723</v>
       </c>
       <c r="J11">
-        <v>1.008929439427915</v>
+        <v>1.017053540166037</v>
       </c>
       <c r="K11">
-        <v>1.020905185306256</v>
+        <v>1.023183126293972</v>
       </c>
       <c r="L11">
-        <v>1.013914564364886</v>
+        <v>0.9990786240847768</v>
       </c>
       <c r="M11">
-        <v>1.021458648427666</v>
+        <v>1.002331179951247</v>
       </c>
       <c r="N11">
-        <v>1.010362234957727</v>
+        <v>1.009309831699384</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9763710136876839</v>
+        <v>0.9857696048641946</v>
       </c>
       <c r="D12">
-        <v>1.004316139712803</v>
+        <v>1.007412449245439</v>
       </c>
       <c r="E12">
-        <v>0.9971874161140013</v>
+        <v>0.9822078981132737</v>
       </c>
       <c r="F12">
-        <v>1.00472587508639</v>
+        <v>0.9854240733963444</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040721886665845</v>
+        <v>1.037482259567491</v>
       </c>
       <c r="J12">
-        <v>1.007210188119966</v>
+        <v>1.016188674265282</v>
       </c>
       <c r="K12">
-        <v>1.0193611138435</v>
+        <v>1.022399003065003</v>
       </c>
       <c r="L12">
-        <v>1.012368699898173</v>
+        <v>0.9976840938110166</v>
       </c>
       <c r="M12">
-        <v>1.0197630914237</v>
+        <v>1.00083595630227</v>
       </c>
       <c r="N12">
-        <v>1.008640542115719</v>
+        <v>1.00901706674674</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9768598616185387</v>
+        <v>0.9860634742948742</v>
       </c>
       <c r="D13">
-        <v>1.00469977882722</v>
+        <v>1.007628783418248</v>
       </c>
       <c r="E13">
-        <v>0.9975719411689922</v>
+        <v>0.9825601941774503</v>
       </c>
       <c r="F13">
-        <v>1.005142658587235</v>
+        <v>0.9857981849882265</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.04089359904015</v>
+        <v>1.037576038785731</v>
       </c>
       <c r="J13">
-        <v>1.007580561987486</v>
+        <v>1.016374766130566</v>
       </c>
       <c r="K13">
-        <v>1.019693755688185</v>
+        <v>1.022567724969418</v>
       </c>
       <c r="L13">
-        <v>1.012701616441299</v>
+        <v>0.9979841318751073</v>
       </c>
       <c r="M13">
-        <v>1.020128286951424</v>
+        <v>1.001157654954354</v>
       </c>
       <c r="N13">
-        <v>1.009011441956614</v>
+        <v>1.009080060441718</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9784536166075573</v>
+        <v>0.9870230876612571</v>
       </c>
       <c r="D14">
-        <v>1.005950812471046</v>
+        <v>1.008335363962774</v>
       </c>
       <c r="E14">
-        <v>0.9988262927309286</v>
+        <v>0.9837105856815699</v>
       </c>
       <c r="F14">
-        <v>1.006502021655461</v>
+        <v>0.9870197951777911</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041453018486088</v>
+        <v>1.037881987310674</v>
       </c>
       <c r="J14">
-        <v>1.00878803699257</v>
+        <v>1.016982308283697</v>
       </c>
       <c r="K14">
-        <v>1.020778193823965</v>
+        <v>1.023118546041599</v>
       </c>
       <c r="L14">
-        <v>1.013787375416443</v>
+        <v>0.9989637583933072</v>
       </c>
       <c r="M14">
-        <v>1.021319161701075</v>
+        <v>1.002208018512585</v>
       </c>
       <c r="N14">
-        <v>1.010220631714704</v>
+        <v>1.009285719030546</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9794295462295771</v>
+        <v>0.9876118548934933</v>
       </c>
       <c r="D15">
-        <v>1.006717089668275</v>
+        <v>1.008768999998005</v>
       </c>
       <c r="E15">
-        <v>0.9995949282079371</v>
+        <v>0.9844163999699984</v>
       </c>
       <c r="F15">
-        <v>1.00733484050471</v>
+        <v>0.9877692914865767</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041795267060047</v>
+        <v>1.038069484442639</v>
       </c>
       <c r="J15">
-        <v>1.009527405589625</v>
+        <v>1.017354963532844</v>
       </c>
       <c r="K15">
-        <v>1.021442203663853</v>
+        <v>1.023456399595597</v>
       </c>
       <c r="L15">
-        <v>1.014452517520453</v>
+        <v>0.9995647081306368</v>
       </c>
       <c r="M15">
-        <v>1.022048579092059</v>
+        <v>1.002852373094954</v>
       </c>
       <c r="N15">
-        <v>1.010961050299974</v>
+        <v>1.009411866396375</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9850209510846664</v>
+        <v>0.9910017134463448</v>
       </c>
       <c r="D16">
-        <v>1.011110336758552</v>
+        <v>1.011267378131724</v>
       </c>
       <c r="E16">
-        <v>1.004006550503694</v>
+        <v>0.988480256993898</v>
       </c>
       <c r="F16">
-        <v>1.012112416259768</v>
+        <v>0.9920844511841395</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.043751333314154</v>
+        <v>1.039145695639184</v>
       </c>
       <c r="J16">
-        <v>1.013763005148397</v>
+        <v>1.019499003729709</v>
       </c>
       <c r="K16">
-        <v>1.025245749691196</v>
+        <v>1.025400044432271</v>
       </c>
       <c r="L16">
-        <v>1.018267374034473</v>
+        <v>1.003023366575841</v>
       </c>
       <c r="M16">
-        <v>1.026230321908929</v>
+        <v>1.006561006466882</v>
       </c>
       <c r="N16">
-        <v>1.01520266489595</v>
+        <v>1.010137641850683</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9884532970660675</v>
+        <v>0.993096399483653</v>
       </c>
       <c r="D17">
-        <v>1.01380961867804</v>
+        <v>1.01281261420747</v>
       </c>
       <c r="E17">
-        <v>1.006721304842425</v>
+        <v>0.9909916709387412</v>
       </c>
       <c r="F17">
-        <v>1.015050301957297</v>
+        <v>0.9947509902510561</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044947786974161</v>
+        <v>1.039807772327161</v>
       </c>
       <c r="J17">
-        <v>1.016362545477955</v>
+        <v>1.020822482523802</v>
       </c>
       <c r="K17">
-        <v>1.02757977158337</v>
+        <v>1.026599660475715</v>
       </c>
       <c r="L17">
-        <v>1.020612502701826</v>
+        <v>1.005159514175443</v>
       </c>
       <c r="M17">
-        <v>1.028799492359594</v>
+        <v>1.008851683850198</v>
       </c>
       <c r="N17">
-        <v>1.017805896870947</v>
+        <v>1.010585642903089</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9904295490009388</v>
+        <v>0.9943071295716903</v>
       </c>
       <c r="D18">
-        <v>1.015364596082877</v>
+        <v>1.013706246980177</v>
       </c>
       <c r="E18">
-        <v>1.008286674041686</v>
+        <v>0.9924434207625186</v>
       </c>
       <c r="F18">
-        <v>1.01674361464571</v>
+        <v>0.9962923491909405</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.045635083958642</v>
+        <v>1.040189379335869</v>
       </c>
       <c r="J18">
-        <v>1.017859056704227</v>
+        <v>1.021586945393051</v>
       </c>
       <c r="K18">
-        <v>1.028923284158577</v>
+        <v>1.027292513696411</v>
       </c>
       <c r="L18">
-        <v>1.021963885490964</v>
+        <v>1.006393878024535</v>
       </c>
       <c r="M18">
-        <v>1.030279457572793</v>
+        <v>1.010175389897602</v>
       </c>
       <c r="N18">
-        <v>1.019304533314812</v>
+        <v>1.010844410858218</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9910991399176834</v>
+        <v>0.9947181127647888</v>
       </c>
       <c r="D19">
-        <v>1.015891581097068</v>
+        <v>1.014009671166817</v>
       </c>
       <c r="E19">
-        <v>1.008817429350114</v>
+        <v>0.9929362495162632</v>
       </c>
       <c r="F19">
-        <v>1.017317631103165</v>
+        <v>0.9968155872214099</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.045867679643053</v>
+        <v>1.04031873261367</v>
       </c>
       <c r="J19">
-        <v>1.018366058976382</v>
+        <v>1.021846355475661</v>
       </c>
       <c r="K19">
-        <v>1.029378426025034</v>
+        <v>1.02752761250583</v>
       </c>
       <c r="L19">
-        <v>1.022421942158772</v>
+        <v>1.006812831886913</v>
       </c>
       <c r="M19">
-        <v>1.030781010722801</v>
+        <v>1.010624675174759</v>
       </c>
       <c r="N19">
-        <v>1.019812255588348</v>
+        <v>1.010932219253823</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9880877321759692</v>
+        <v>0.9928728117357188</v>
       </c>
       <c r="D20">
-        <v>1.013522044220865</v>
+        <v>1.012647624065532</v>
       </c>
       <c r="E20">
-        <v>1.006431927761568</v>
+        <v>0.9907235871890222</v>
       </c>
       <c r="F20">
-        <v>1.014737215450028</v>
+        <v>0.99446635401589</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044820521888333</v>
+        <v>1.039737213094255</v>
       </c>
       <c r="J20">
-        <v>1.016085702603865</v>
+        <v>1.020681266353009</v>
       </c>
       <c r="K20">
-        <v>1.027331220189082</v>
+        <v>1.026471667113379</v>
       </c>
       <c r="L20">
-        <v>1.020362614530445</v>
+        <v>1.00493153620693</v>
       </c>
       <c r="M20">
-        <v>1.028525785721065</v>
+        <v>1.008607208846719</v>
       </c>
       <c r="N20">
-        <v>1.017528660848222</v>
+        <v>1.010537841304405</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9779855607796142</v>
+        <v>0.986741024701374</v>
       </c>
       <c r="D21">
-        <v>1.005583362748172</v>
+        <v>1.008127651536376</v>
       </c>
       <c r="E21">
-        <v>0.9984578001885631</v>
+        <v>0.983372447805184</v>
       </c>
       <c r="F21">
-        <v>1.006102714387287</v>
+        <v>0.9866607266518291</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041288791989793</v>
+        <v>1.037792103753342</v>
       </c>
       <c r="J21">
-        <v>1.008433429057344</v>
+        <v>1.01680375181945</v>
       </c>
       <c r="K21">
-        <v>1.020459723096564</v>
+        <v>1.022956661942236</v>
       </c>
       <c r="L21">
-        <v>1.013468449040734</v>
+        <v>0.9986758333301323</v>
       </c>
       <c r="M21">
-        <v>1.020969384069198</v>
+        <v>1.00189930051977</v>
       </c>
       <c r="N21">
-        <v>1.009865520195537</v>
+        <v>1.009225275987645</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9713736152376861</v>
+        <v>0.982778248861202</v>
       </c>
       <c r="D22">
-        <v>1.000396669188117</v>
+        <v>1.005211612362261</v>
       </c>
       <c r="E22">
-        <v>0.9932623880427112</v>
+        <v>0.9786216239924741</v>
       </c>
       <c r="F22">
-        <v>1.000469776345735</v>
+        <v>0.9816155777529381</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038963337026891</v>
+        <v>1.036525424084431</v>
       </c>
       <c r="J22">
-        <v>1.003423774417793</v>
+        <v>1.014293383713555</v>
       </c>
       <c r="K22">
-        <v>1.015960272078</v>
+        <v>1.020680528386998</v>
       </c>
       <c r="L22">
-        <v>1.008968510473473</v>
+        <v>0.9946288294143115</v>
       </c>
       <c r="M22">
-        <v>1.016031932615948</v>
+        <v>0.9975602481228322</v>
       </c>
       <c r="N22">
-        <v>1.004848751271782</v>
+        <v>1.008375500353812</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.974904883866212</v>
+        <v>0.9848895769317378</v>
       </c>
       <c r="D23">
-        <v>1.003165794925134</v>
+        <v>1.006764743127635</v>
       </c>
       <c r="E23">
-        <v>0.9960347825827812</v>
+        <v>0.9811528903333344</v>
       </c>
       <c r="F23">
-        <v>1.003476357294793</v>
+        <v>0.984303720100873</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040206556032693</v>
+        <v>1.037201187563868</v>
       </c>
       <c r="J23">
-        <v>1.006099360254764</v>
+        <v>1.015631289851514</v>
       </c>
       <c r="K23">
-        <v>1.018363432526076</v>
+        <v>1.021893635102255</v>
       </c>
       <c r="L23">
-        <v>1.01137055916866</v>
+        <v>0.9967854785476239</v>
       </c>
       <c r="M23">
-        <v>1.018668037212851</v>
+        <v>0.9998724804871115</v>
       </c>
       <c r="N23">
-        <v>1.007528136747535</v>
+        <v>1.008828387789512</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9882529945793914</v>
+        <v>0.9929738755264464</v>
       </c>
       <c r="D24">
-        <v>1.013652046692382</v>
+        <v>1.012722199681637</v>
       </c>
       <c r="E24">
-        <v>1.006562740549928</v>
+        <v>0.990844763113755</v>
       </c>
       <c r="F24">
-        <v>1.014878748296728</v>
+        <v>0.9945950119858729</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.044878060078446</v>
+        <v>1.039769109873878</v>
       </c>
       <c r="J24">
-        <v>1.016210856822111</v>
+        <v>1.020745098987963</v>
       </c>
       <c r="K24">
-        <v>1.027443584940269</v>
+        <v>1.026529522966613</v>
       </c>
       <c r="L24">
-        <v>1.020475579025472</v>
+        <v>1.005034585434726</v>
       </c>
       <c r="M24">
-        <v>1.028649519214036</v>
+        <v>1.00871771481709</v>
       </c>
       <c r="N24">
-        <v>1.017653992799813</v>
+        <v>1.010559448632562</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.002741504573936</v>
+        <v>1.001924396841497</v>
       </c>
       <c r="D25">
-        <v>1.025064227832153</v>
+        <v>1.019336387447302</v>
       </c>
       <c r="E25">
-        <v>1.018076540991949</v>
+        <v>1.001581453458792</v>
       </c>
       <c r="F25">
-        <v>1.027321623283678</v>
+        <v>1.005993341881909</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.049887743502147</v>
+        <v>1.04257076168682</v>
       </c>
       <c r="J25">
-        <v>1.027176957087796</v>
+        <v>1.026387170464493</v>
       </c>
       <c r="K25">
-        <v>1.037285526111035</v>
+        <v>1.03164176746938</v>
       </c>
       <c r="L25">
-        <v>1.030400576238875</v>
+        <v>1.014155268905494</v>
       </c>
       <c r="M25">
-        <v>1.039510110706858</v>
+        <v>1.018499325968505</v>
       </c>
       <c r="N25">
-        <v>1.028635666185705</v>
+        <v>1.012469127465348</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_37/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_37/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.0087521759357</v>
+        <v>1.036089337857949</v>
       </c>
       <c r="D2">
-        <v>1.024393946090598</v>
+        <v>1.039309648881025</v>
       </c>
       <c r="E2">
-        <v>1.009783016208794</v>
+        <v>1.053419385321489</v>
       </c>
       <c r="F2">
-        <v>1.014698504608865</v>
+        <v>1.05928091977823</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044673371576419</v>
+        <v>1.037403139914726</v>
       </c>
       <c r="J2">
-        <v>1.030674225422089</v>
+        <v>1.041199557182038</v>
       </c>
       <c r="K2">
-        <v>1.035523581621809</v>
+        <v>1.04209520192853</v>
       </c>
       <c r="L2">
-        <v>1.021107720038312</v>
+        <v>1.056165405659929</v>
       </c>
       <c r="M2">
-        <v>1.025956794545626</v>
+        <v>1.062010852647899</v>
       </c>
       <c r="N2">
-        <v>1.013919796404295</v>
+        <v>1.017655052853154</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.013545307771975</v>
+        <v>1.037068240035294</v>
       </c>
       <c r="D3">
-        <v>1.027950107018612</v>
+        <v>1.040051552434897</v>
       </c>
       <c r="E3">
-        <v>1.015549724863358</v>
+        <v>1.054709362022901</v>
       </c>
       <c r="F3">
-        <v>1.020818301193441</v>
+        <v>1.060648669849264</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046128698338322</v>
+        <v>1.037642384563777</v>
       </c>
       <c r="J3">
-        <v>1.033673403547291</v>
+        <v>1.041822130433109</v>
       </c>
       <c r="K3">
-        <v>1.038237427709278</v>
+        <v>1.042647477839179</v>
       </c>
       <c r="L3">
-        <v>1.025987436163614</v>
+        <v>1.057267202047382</v>
       </c>
       <c r="M3">
-        <v>1.031191561076416</v>
+        <v>1.063191400853644</v>
       </c>
       <c r="N3">
-        <v>1.014934350181371</v>
+        <v>1.017864042599253</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.016575477500856</v>
+        <v>1.037701482891451</v>
       </c>
       <c r="D4">
-        <v>1.030200555107569</v>
+        <v>1.040531421692203</v>
       </c>
       <c r="E4">
-        <v>1.019200425604421</v>
+        <v>1.055544677315297</v>
       </c>
       <c r="F4">
-        <v>1.0246920774761</v>
+        <v>1.061534354414416</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047038923755559</v>
+        <v>1.037795929093145</v>
       </c>
       <c r="J4">
-        <v>1.035564478821284</v>
+        <v>1.042224204596821</v>
       </c>
       <c r="K4">
-        <v>1.039947653409751</v>
+        <v>1.04300398064436</v>
       </c>
       <c r="L4">
-        <v>1.029072512347154</v>
+        <v>1.057980199996508</v>
       </c>
       <c r="M4">
-        <v>1.034501351963564</v>
+        <v>1.063955415319629</v>
       </c>
       <c r="N4">
-        <v>1.015573877892687</v>
+        <v>1.017998949110545</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.017832951884204</v>
+        <v>1.037967657066368</v>
       </c>
       <c r="D5">
-        <v>1.031134950884047</v>
+        <v>1.040733112251284</v>
       </c>
       <c r="E5">
-        <v>1.020716733538407</v>
+        <v>1.055895992814217</v>
       </c>
       <c r="F5">
-        <v>1.026300932493071</v>
+        <v>1.061906855947168</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047414262978383</v>
+        <v>1.037860176781898</v>
       </c>
       <c r="J5">
-        <v>1.036348025336822</v>
+        <v>1.042393051592916</v>
       </c>
       <c r="K5">
-        <v>1.040656028167925</v>
+        <v>1.043153649118083</v>
       </c>
       <c r="L5">
-        <v>1.030352896069872</v>
+        <v>1.058279960857732</v>
       </c>
       <c r="M5">
-        <v>1.035875051839308</v>
+        <v>1.064276637621561</v>
       </c>
       <c r="N5">
-        <v>1.015838811269266</v>
+        <v>1.018055586187207</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.018043143675007</v>
+        <v>1.038012346473947</v>
       </c>
       <c r="D6">
-        <v>1.031291166361379</v>
+        <v>1.040766974242961</v>
       </c>
       <c r="E6">
-        <v>1.020970271285883</v>
+        <v>1.055954989023101</v>
       </c>
       <c r="F6">
-        <v>1.02656993856501</v>
+        <v>1.061969410019797</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047476860852301</v>
+        <v>1.037870946513197</v>
       </c>
       <c r="J6">
-        <v>1.036478925646479</v>
+        <v>1.042421390896799</v>
       </c>
       <c r="K6">
-        <v>1.040774355762687</v>
+        <v>1.043178767067627</v>
       </c>
       <c r="L6">
-        <v>1.030566926878485</v>
+        <v>1.058330293043157</v>
       </c>
       <c r="M6">
-        <v>1.036104684559141</v>
+        <v>1.064330574104392</v>
       </c>
       <c r="N6">
-        <v>1.015883068426574</v>
+        <v>1.018065091247094</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.01659234356265</v>
+        <v>1.037705039685218</v>
       </c>
       <c r="D7">
-        <v>1.030213085945182</v>
+        <v>1.04053411687461</v>
       </c>
       <c r="E7">
-        <v>1.019220757938314</v>
+        <v>1.05554937102249</v>
       </c>
       <c r="F7">
-        <v>1.024713651202952</v>
+        <v>1.061539331167914</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047043967542943</v>
+        <v>1.03779678876241</v>
       </c>
       <c r="J7">
-        <v>1.035574993116985</v>
+        <v>1.042226461465601</v>
       </c>
       <c r="K7">
-        <v>1.039957159948296</v>
+        <v>1.043005981328827</v>
       </c>
       <c r="L7">
-        <v>1.029089685086937</v>
+        <v>1.057984205348776</v>
       </c>
       <c r="M7">
-        <v>1.034519776069073</v>
+        <v>1.063959707385309</v>
       </c>
       <c r="N7">
-        <v>1.015577433190878</v>
+        <v>1.017999706203053</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.010387212965564</v>
+        <v>1.036420198188244</v>
       </c>
       <c r="D8">
-        <v>1.025606514895326</v>
+        <v>1.039560418092276</v>
       </c>
       <c r="E8">
-        <v>1.011749171113134</v>
+        <v>1.053855212993155</v>
       </c>
       <c r="F8">
-        <v>1.016785140558661</v>
+        <v>1.059743022122398</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045171854763283</v>
+        <v>1.037484255151097</v>
       </c>
       <c r="J8">
-        <v>1.031698335791372</v>
+        <v>1.041410118603275</v>
       </c>
       <c r="K8">
-        <v>1.036450450706113</v>
+        <v>1.042282023396732</v>
       </c>
       <c r="L8">
-        <v>1.022772310011894</v>
+        <v>1.056537751076314</v>
       </c>
       <c r="M8">
-        <v>1.027742447013</v>
+        <v>1.062409800438624</v>
       </c>
       <c r="N8">
-        <v>1.014266264603029</v>
+        <v>1.017725748910384</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9988749935952796</v>
+        <v>1.034154817256346</v>
       </c>
       <c r="D9">
-        <v>1.017080884388193</v>
+        <v>1.037843188917965</v>
       </c>
       <c r="E9">
-        <v>0.9979221246449742</v>
+        <v>1.050874507030245</v>
       </c>
       <c r="F9">
-        <v>1.002108803712871</v>
+        <v>1.056582651360197</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041621629956761</v>
+        <v>1.036923865091811</v>
       </c>
       <c r="J9">
-        <v>1.024467541381497</v>
+        <v>1.039965705771661</v>
       </c>
       <c r="K9">
-        <v>1.029902784134161</v>
+        <v>1.040999765676715</v>
       </c>
       <c r="L9">
-        <v>1.011049004126464</v>
+        <v>1.053989313702043</v>
       </c>
       <c r="M9">
-        <v>1.01516775945282</v>
+        <v>1.059679516084175</v>
       </c>
       <c r="N9">
-        <v>1.011819433617831</v>
+        <v>1.017240525043884</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9907634714829989</v>
+        <v>1.032643659741064</v>
       </c>
       <c r="D10">
-        <v>1.011091696693878</v>
+        <v>1.03669742460331</v>
       </c>
       <c r="E10">
-        <v>0.9881946340194776</v>
+        <v>1.048890351345536</v>
       </c>
       <c r="F10">
-        <v>0.9917811772175139</v>
+        <v>1.05447894087683</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03907024793671</v>
+        <v>1.036543778903068</v>
       </c>
       <c r="J10">
-        <v>1.019348407449304</v>
+        <v>1.038998790339216</v>
       </c>
       <c r="K10">
-        <v>1.025263533906833</v>
+        <v>1.040140533211052</v>
       </c>
       <c r="L10">
-        <v>1.002780360337729</v>
+        <v>1.052290517699641</v>
       </c>
       <c r="M10">
-        <v>1.006300427757881</v>
+        <v>1.057859790060707</v>
       </c>
       <c r="N10">
-        <v>1.010086664113623</v>
+        <v>1.016915382323346</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9871356193006152</v>
+        <v>1.031989093896061</v>
       </c>
       <c r="D11">
-        <v>1.008418238420532</v>
+        <v>1.036201077191979</v>
       </c>
       <c r="E11">
-        <v>0.983845488747649</v>
+        <v>1.048031869400178</v>
       </c>
       <c r="F11">
-        <v>0.9871630480430001</v>
+        <v>1.053568741656891</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037917836633723</v>
+        <v>1.036377658250555</v>
       </c>
       <c r="J11">
-        <v>1.017053540166037</v>
+        <v>1.038579162380044</v>
       </c>
       <c r="K11">
-        <v>1.023183126293972</v>
+        <v>1.03976743548073</v>
       </c>
       <c r="L11">
-        <v>0.9990786240847768</v>
+        <v>1.05155493451037</v>
       </c>
       <c r="M11">
-        <v>1.002331179951247</v>
+        <v>1.057071913978466</v>
       </c>
       <c r="N11">
-        <v>1.009309831699384</v>
+        <v>1.016774198899066</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9857696048641946</v>
+        <v>1.031745924813914</v>
       </c>
       <c r="D12">
-        <v>1.007412449245439</v>
+        <v>1.036016678369952</v>
       </c>
       <c r="E12">
-        <v>0.9822078981132737</v>
+        <v>1.047713089252632</v>
       </c>
       <c r="F12">
-        <v>0.9854240733963444</v>
+        <v>1.053230758915578</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037482259567491</v>
+        <v>1.036315722161957</v>
       </c>
       <c r="J12">
-        <v>1.016188674265282</v>
+        <v>1.038423151432315</v>
       </c>
       <c r="K12">
-        <v>1.022399003065003</v>
+        <v>1.039628693504289</v>
       </c>
       <c r="L12">
-        <v>0.9976840938110166</v>
+        <v>1.051281705002516</v>
       </c>
       <c r="M12">
-        <v>1.00083595630227</v>
+        <v>1.056779271134341</v>
       </c>
       <c r="N12">
-        <v>1.00901706674674</v>
+        <v>1.016721697848346</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9860634742948742</v>
+        <v>1.031798086961234</v>
       </c>
       <c r="D13">
-        <v>1.007628783418248</v>
+        <v>1.036056234044344</v>
       </c>
       <c r="E13">
-        <v>0.9825601941774503</v>
+        <v>1.047781464269154</v>
       </c>
       <c r="F13">
-        <v>0.9857981849882265</v>
+        <v>1.053303252615949</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037576038785731</v>
+        <v>1.03632901813809</v>
       </c>
       <c r="J13">
-        <v>1.016374766130566</v>
+        <v>1.038456622758071</v>
       </c>
       <c r="K13">
-        <v>1.022567724969418</v>
+        <v>1.039658461227122</v>
       </c>
       <c r="L13">
-        <v>0.9979841318751073</v>
+        <v>1.051340313746674</v>
       </c>
       <c r="M13">
-        <v>1.001157654954354</v>
+        <v>1.056842043627163</v>
       </c>
       <c r="N13">
-        <v>1.009080060441718</v>
+        <v>1.016732962182317</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9870230876612571</v>
+        <v>1.031968994163675</v>
       </c>
       <c r="D14">
-        <v>1.008335363962774</v>
+        <v>1.036185835405026</v>
       </c>
       <c r="E14">
-        <v>0.9837105856815699</v>
+        <v>1.048005516943344</v>
       </c>
       <c r="F14">
-        <v>0.9870197951777911</v>
+        <v>1.053540801755259</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037881987310674</v>
+        <v>1.036372543316251</v>
       </c>
       <c r="J14">
-        <v>1.016982308283697</v>
+        <v>1.038566269372947</v>
       </c>
       <c r="K14">
-        <v>1.023118546041599</v>
+        <v>1.039755970225483</v>
       </c>
       <c r="L14">
-        <v>0.9989637583933072</v>
+        <v>1.051532349310187</v>
       </c>
       <c r="M14">
-        <v>1.002208018512585</v>
+        <v>1.057047723850377</v>
       </c>
       <c r="N14">
-        <v>1.009285719030546</v>
+        <v>1.016769860354186</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9876118548934933</v>
+        <v>1.032074291189362</v>
       </c>
       <c r="D15">
-        <v>1.008768999998005</v>
+        <v>1.036265682679257</v>
       </c>
       <c r="E15">
-        <v>0.9844163999699984</v>
+        <v>1.048143576138458</v>
       </c>
       <c r="F15">
-        <v>0.9877692914865767</v>
+        <v>1.053687177558872</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038069484442639</v>
+        <v>1.036399329941745</v>
       </c>
       <c r="J15">
-        <v>1.017354963532844</v>
+        <v>1.038633807392474</v>
       </c>
       <c r="K15">
-        <v>1.023456399595597</v>
+        <v>1.039816027952381</v>
       </c>
       <c r="L15">
-        <v>0.9995647081306368</v>
+        <v>1.051650668540459</v>
       </c>
       <c r="M15">
-        <v>1.002852373094954</v>
+        <v>1.057174451405737</v>
       </c>
       <c r="N15">
-        <v>1.009411866396375</v>
+        <v>1.016792586686436</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9910017134463448</v>
+        <v>1.032687096350342</v>
       </c>
       <c r="D16">
-        <v>1.011267378131724</v>
+        <v>1.036730360858519</v>
       </c>
       <c r="E16">
-        <v>0.988480256993898</v>
+        <v>1.048947339881724</v>
       </c>
       <c r="F16">
-        <v>0.9920844511841395</v>
+        <v>1.05453936277715</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039145695639184</v>
+        <v>1.0365547713211</v>
       </c>
       <c r="J16">
-        <v>1.019499003729709</v>
+        <v>1.039026619697103</v>
       </c>
       <c r="K16">
-        <v>1.025400044432271</v>
+        <v>1.040165272477959</v>
       </c>
       <c r="L16">
-        <v>1.003023366575841</v>
+        <v>1.052339335889498</v>
       </c>
       <c r="M16">
-        <v>1.006561006466882</v>
+        <v>1.057912080242216</v>
       </c>
       <c r="N16">
-        <v>1.010137641850683</v>
+        <v>1.016924743893191</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.993096399483653</v>
+        <v>1.033071432385404</v>
       </c>
       <c r="D17">
-        <v>1.01281261420747</v>
+        <v>1.037021781503955</v>
       </c>
       <c r="E17">
-        <v>0.9909916709387412</v>
+        <v>1.049451697425255</v>
       </c>
       <c r="F17">
-        <v>0.9947509902510561</v>
+        <v>1.055074107334013</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039807772327161</v>
+        <v>1.036651863076159</v>
       </c>
       <c r="J17">
-        <v>1.020822482523802</v>
+        <v>1.039272766792538</v>
       </c>
       <c r="K17">
-        <v>1.026599660475715</v>
+        <v>1.040384064756554</v>
       </c>
       <c r="L17">
-        <v>1.005159514175443</v>
+        <v>1.052771318986596</v>
       </c>
       <c r="M17">
-        <v>1.008851683850198</v>
+        <v>1.058374794464949</v>
       </c>
       <c r="N17">
-        <v>1.010585642903089</v>
+        <v>1.017007537022225</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9943071295716903</v>
+        <v>1.033295587443783</v>
       </c>
       <c r="D18">
-        <v>1.013706246980177</v>
+        <v>1.037191740609784</v>
       </c>
       <c r="E18">
-        <v>0.9924434207625186</v>
+        <v>1.049745945512504</v>
       </c>
       <c r="F18">
-        <v>0.9962923491909405</v>
+        <v>1.055386084555873</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040189379335869</v>
+        <v>1.036708346386347</v>
       </c>
       <c r="J18">
-        <v>1.021586945393051</v>
+        <v>1.039416248847245</v>
       </c>
       <c r="K18">
-        <v>1.027292513696411</v>
+        <v>1.040511581818568</v>
       </c>
       <c r="L18">
-        <v>1.006393878024535</v>
+        <v>1.053023288209213</v>
       </c>
       <c r="M18">
-        <v>1.010175389897602</v>
+        <v>1.058644695447848</v>
       </c>
       <c r="N18">
-        <v>1.010844410858218</v>
+        <v>1.017055790790343</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9947181127647888</v>
+        <v>1.033372014867075</v>
       </c>
       <c r="D19">
-        <v>1.014009671166817</v>
+        <v>1.037249688593983</v>
       </c>
       <c r="E19">
-        <v>0.9929362495162632</v>
+        <v>1.049846287583688</v>
       </c>
       <c r="F19">
-        <v>0.9968155872214099</v>
+        <v>1.055492472639187</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.04031873261367</v>
+        <v>1.036727580518512</v>
       </c>
       <c r="J19">
-        <v>1.021846355475661</v>
+        <v>1.039465157024141</v>
       </c>
       <c r="K19">
-        <v>1.02752761250583</v>
+        <v>1.040555044747299</v>
       </c>
       <c r="L19">
-        <v>1.006812831886913</v>
+        <v>1.053109203402621</v>
       </c>
       <c r="M19">
-        <v>1.010624675174759</v>
+        <v>1.058736726065055</v>
       </c>
       <c r="N19">
-        <v>1.010932219253823</v>
+        <v>1.017072237621289</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9928728117357188</v>
+        <v>1.033030199008308</v>
       </c>
       <c r="D20">
-        <v>1.012647624065532</v>
+        <v>1.036990517060989</v>
       </c>
       <c r="E20">
-        <v>0.9907235871890222</v>
+        <v>1.049397577942293</v>
       </c>
       <c r="F20">
-        <v>0.99446635401589</v>
+        <v>1.055016727105714</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039737213094255</v>
+        <v>1.036641461427003</v>
       </c>
       <c r="J20">
-        <v>1.020681266353009</v>
+        <v>1.0392463669916</v>
       </c>
       <c r="K20">
-        <v>1.026471667113379</v>
+        <v>1.040360600838656</v>
       </c>
       <c r="L20">
-        <v>1.00493153620693</v>
+        <v>1.05272497122212</v>
       </c>
       <c r="M20">
-        <v>1.008607208846719</v>
+        <v>1.058325148836901</v>
       </c>
       <c r="N20">
-        <v>1.010537841304405</v>
+        <v>1.016998658039873</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.986741024701374</v>
+        <v>1.031918667199367</v>
       </c>
       <c r="D21">
-        <v>1.008127651536376</v>
+        <v>1.036147671950848</v>
       </c>
       <c r="E21">
-        <v>0.983372447805184</v>
+        <v>1.047939536322266</v>
       </c>
       <c r="F21">
-        <v>0.9866607266518291</v>
+        <v>1.053470846555379</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037792103753342</v>
+        <v>1.036359732626069</v>
       </c>
       <c r="J21">
-        <v>1.01680375181945</v>
+        <v>1.038533985110858</v>
       </c>
       <c r="K21">
-        <v>1.022956661942236</v>
+        <v>1.039727260585787</v>
       </c>
       <c r="L21">
-        <v>0.9986758333301323</v>
+        <v>1.051475799672483</v>
       </c>
       <c r="M21">
-        <v>1.00189930051977</v>
+        <v>1.056987155908903</v>
       </c>
       <c r="N21">
-        <v>1.009225275987645</v>
+        <v>1.016758996397369</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.982778248861202</v>
+        <v>1.031219605050613</v>
       </c>
       <c r="D22">
-        <v>1.005211612362261</v>
+        <v>1.035617549319045</v>
       </c>
       <c r="E22">
-        <v>0.9786216239924741</v>
+        <v>1.047023375026882</v>
       </c>
       <c r="F22">
-        <v>0.9816155777529381</v>
+        <v>1.052499500799463</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036525424084431</v>
+        <v>1.036181259270041</v>
       </c>
       <c r="J22">
-        <v>1.014293383713555</v>
+        <v>1.038085258167812</v>
       </c>
       <c r="K22">
-        <v>1.020680528386998</v>
+        <v>1.039328146865662</v>
       </c>
       <c r="L22">
-        <v>0.9946288294143115</v>
+        <v>1.050690388159935</v>
       </c>
       <c r="M22">
-        <v>0.9975602481228322</v>
+        <v>1.056145960022433</v>
       </c>
       <c r="N22">
-        <v>1.008375500353812</v>
+        <v>1.016607968873618</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9848895769317378</v>
+        <v>1.03159021003248</v>
       </c>
       <c r="D23">
-        <v>1.006764743127635</v>
+        <v>1.035898595485177</v>
       </c>
       <c r="E23">
-        <v>0.9811528903333344</v>
+        <v>1.047508996512603</v>
       </c>
       <c r="F23">
-        <v>0.984303720100873</v>
+        <v>1.053014372541334</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037201187563868</v>
+        <v>1.03627599831768</v>
       </c>
       <c r="J23">
-        <v>1.015631289851514</v>
+        <v>1.038323214978652</v>
       </c>
       <c r="K23">
-        <v>1.021893635102255</v>
+        <v>1.039539810613406</v>
       </c>
       <c r="L23">
-        <v>0.9967854785476239</v>
+        <v>1.051106751123513</v>
       </c>
       <c r="M23">
-        <v>0.9998724804871115</v>
+        <v>1.056591889553308</v>
       </c>
       <c r="N23">
-        <v>1.008828387789512</v>
+        <v>1.016688063900821</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9929738755264464</v>
+        <v>1.033048830663218</v>
       </c>
       <c r="D24">
-        <v>1.012722199681637</v>
+        <v>1.037004644183765</v>
       </c>
       <c r="E24">
-        <v>0.990844763113755</v>
+        <v>1.049422032006051</v>
       </c>
       <c r="F24">
-        <v>0.9945950119858729</v>
+        <v>1.055042654544747</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039769109873878</v>
+        <v>1.036646161943819</v>
       </c>
       <c r="J24">
-        <v>1.020745098987963</v>
+        <v>1.039258296207493</v>
       </c>
       <c r="K24">
-        <v>1.026529522966613</v>
+        <v>1.040371203484433</v>
       </c>
       <c r="L24">
-        <v>1.005034585434726</v>
+        <v>1.05274591377887</v>
       </c>
       <c r="M24">
-        <v>1.00871771481709</v>
+        <v>1.058347581535171</v>
       </c>
       <c r="N24">
-        <v>1.010559448632562</v>
+        <v>1.01700267018738</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.001924396841497</v>
+        <v>1.034740630901951</v>
       </c>
       <c r="D25">
-        <v>1.019336387447302</v>
+        <v>1.03828730241986</v>
       </c>
       <c r="E25">
-        <v>1.001581453458792</v>
+        <v>1.051644556462878</v>
       </c>
       <c r="F25">
-        <v>1.005993341881909</v>
+        <v>1.05739910894708</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04257076168682</v>
+        <v>1.037069884195212</v>
       </c>
       <c r="J25">
-        <v>1.026387170464493</v>
+        <v>1.04033982158551</v>
       </c>
       <c r="K25">
-        <v>1.03164176746938</v>
+        <v>1.041332035281523</v>
       </c>
       <c r="L25">
-        <v>1.014155268905494</v>
+        <v>1.054648109446786</v>
       </c>
       <c r="M25">
-        <v>1.018499325968505</v>
+        <v>1.060385270441289</v>
       </c>
       <c r="N25">
-        <v>1.012469127465348</v>
+        <v>1.017366259991485</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_37/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_37/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.036089337857949</v>
+        <v>1.0087521759357</v>
       </c>
       <c r="D2">
-        <v>1.039309648881025</v>
+        <v>1.024393946090598</v>
       </c>
       <c r="E2">
-        <v>1.053419385321489</v>
+        <v>1.009783016208794</v>
       </c>
       <c r="F2">
-        <v>1.05928091977823</v>
+        <v>1.014698504608866</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037403139914726</v>
+        <v>1.04467337157642</v>
       </c>
       <c r="J2">
-        <v>1.041199557182038</v>
+        <v>1.030674225422089</v>
       </c>
       <c r="K2">
-        <v>1.04209520192853</v>
+        <v>1.035523581621809</v>
       </c>
       <c r="L2">
-        <v>1.056165405659929</v>
+        <v>1.021107720038312</v>
       </c>
       <c r="M2">
-        <v>1.062010852647899</v>
+        <v>1.025956794545626</v>
       </c>
       <c r="N2">
-        <v>1.017655052853154</v>
+        <v>1.013919796404295</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.037068240035294</v>
+        <v>1.013545307771975</v>
       </c>
       <c r="D3">
-        <v>1.040051552434897</v>
+        <v>1.027950107018611</v>
       </c>
       <c r="E3">
-        <v>1.054709362022901</v>
+        <v>1.015549724863358</v>
       </c>
       <c r="F3">
-        <v>1.060648669849264</v>
+        <v>1.020818301193441</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.037642384563777</v>
+        <v>1.046128698338322</v>
       </c>
       <c r="J3">
-        <v>1.041822130433109</v>
+        <v>1.033673403547291</v>
       </c>
       <c r="K3">
-        <v>1.042647477839179</v>
+        <v>1.038237427709277</v>
       </c>
       <c r="L3">
-        <v>1.057267202047382</v>
+        <v>1.025987436163614</v>
       </c>
       <c r="M3">
-        <v>1.063191400853644</v>
+        <v>1.031191561076416</v>
       </c>
       <c r="N3">
-        <v>1.017864042599253</v>
+        <v>1.014934350181371</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.037701482891451</v>
+        <v>1.016575477500857</v>
       </c>
       <c r="D4">
-        <v>1.040531421692203</v>
+        <v>1.03020055510757</v>
       </c>
       <c r="E4">
-        <v>1.055544677315297</v>
+        <v>1.019200425604421</v>
       </c>
       <c r="F4">
-        <v>1.061534354414416</v>
+        <v>1.0246920774761</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.037795929093145</v>
+        <v>1.04703892375556</v>
       </c>
       <c r="J4">
-        <v>1.042224204596821</v>
+        <v>1.035564478821285</v>
       </c>
       <c r="K4">
-        <v>1.04300398064436</v>
+        <v>1.039947653409752</v>
       </c>
       <c r="L4">
-        <v>1.057980199996508</v>
+        <v>1.029072512347154</v>
       </c>
       <c r="M4">
-        <v>1.063955415319629</v>
+        <v>1.034501351963564</v>
       </c>
       <c r="N4">
-        <v>1.017998949110545</v>
+        <v>1.015573877892687</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.037967657066368</v>
+        <v>1.017832951884203</v>
       </c>
       <c r="D5">
-        <v>1.040733112251284</v>
+        <v>1.031134950884046</v>
       </c>
       <c r="E5">
-        <v>1.055895992814217</v>
+        <v>1.020716733538406</v>
       </c>
       <c r="F5">
-        <v>1.061906855947168</v>
+        <v>1.026300932493071</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.037860176781898</v>
+        <v>1.047414262978383</v>
       </c>
       <c r="J5">
-        <v>1.042393051592916</v>
+        <v>1.036348025336821</v>
       </c>
       <c r="K5">
-        <v>1.043153649118083</v>
+        <v>1.040656028167925</v>
       </c>
       <c r="L5">
-        <v>1.058279960857732</v>
+        <v>1.030352896069872</v>
       </c>
       <c r="M5">
-        <v>1.064276637621561</v>
+        <v>1.035875051839308</v>
       </c>
       <c r="N5">
-        <v>1.018055586187207</v>
+        <v>1.015838811269266</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.038012346473947</v>
+        <v>1.018043143675005</v>
       </c>
       <c r="D6">
-        <v>1.040766974242961</v>
+        <v>1.031291166361379</v>
       </c>
       <c r="E6">
-        <v>1.055954989023101</v>
+        <v>1.020970271285883</v>
       </c>
       <c r="F6">
-        <v>1.061969410019797</v>
+        <v>1.02656993856501</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.037870946513197</v>
+        <v>1.047476860852301</v>
       </c>
       <c r="J6">
-        <v>1.042421390896799</v>
+        <v>1.036478925646479</v>
       </c>
       <c r="K6">
-        <v>1.043178767067627</v>
+        <v>1.040774355762686</v>
       </c>
       <c r="L6">
-        <v>1.058330293043157</v>
+        <v>1.030566926878485</v>
       </c>
       <c r="M6">
-        <v>1.064330574104392</v>
+        <v>1.036104684559141</v>
       </c>
       <c r="N6">
-        <v>1.018065091247094</v>
+        <v>1.015883068426574</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.037705039685218</v>
+        <v>1.01659234356265</v>
       </c>
       <c r="D7">
-        <v>1.04053411687461</v>
+        <v>1.030213085945182</v>
       </c>
       <c r="E7">
-        <v>1.05554937102249</v>
+        <v>1.019220757938314</v>
       </c>
       <c r="F7">
-        <v>1.061539331167914</v>
+        <v>1.024713651202952</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.03779678876241</v>
+        <v>1.047043967542943</v>
       </c>
       <c r="J7">
-        <v>1.042226461465601</v>
+        <v>1.035574993116985</v>
       </c>
       <c r="K7">
-        <v>1.043005981328827</v>
+        <v>1.039957159948296</v>
       </c>
       <c r="L7">
-        <v>1.057984205348776</v>
+        <v>1.029089685086938</v>
       </c>
       <c r="M7">
-        <v>1.063959707385309</v>
+        <v>1.034519776069073</v>
       </c>
       <c r="N7">
-        <v>1.017999706203053</v>
+        <v>1.015577433190878</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.036420198188244</v>
+        <v>1.010387212965564</v>
       </c>
       <c r="D8">
-        <v>1.039560418092276</v>
+        <v>1.025606514895326</v>
       </c>
       <c r="E8">
-        <v>1.053855212993155</v>
+        <v>1.011749171113133</v>
       </c>
       <c r="F8">
-        <v>1.059743022122398</v>
+        <v>1.01678514055866</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037484255151097</v>
+        <v>1.045171854763283</v>
       </c>
       <c r="J8">
-        <v>1.041410118603275</v>
+        <v>1.031698335791372</v>
       </c>
       <c r="K8">
-        <v>1.042282023396732</v>
+        <v>1.036450450706113</v>
       </c>
       <c r="L8">
-        <v>1.056537751076314</v>
+        <v>1.022772310011894</v>
       </c>
       <c r="M8">
-        <v>1.062409800438624</v>
+        <v>1.027742447012999</v>
       </c>
       <c r="N8">
-        <v>1.017725748910384</v>
+        <v>1.014266264603029</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.034154817256346</v>
+        <v>0.9988749935952803</v>
       </c>
       <c r="D9">
-        <v>1.037843188917965</v>
+        <v>1.017080884388193</v>
       </c>
       <c r="E9">
-        <v>1.050874507030245</v>
+        <v>0.9979221246449749</v>
       </c>
       <c r="F9">
-        <v>1.056582651360197</v>
+        <v>1.002108803712872</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036923865091811</v>
+        <v>1.041621629956761</v>
       </c>
       <c r="J9">
-        <v>1.039965705771661</v>
+        <v>1.024467541381498</v>
       </c>
       <c r="K9">
-        <v>1.040999765676715</v>
+        <v>1.029902784134162</v>
       </c>
       <c r="L9">
-        <v>1.053989313702043</v>
+        <v>1.011049004126465</v>
       </c>
       <c r="M9">
-        <v>1.059679516084175</v>
+        <v>1.015167759452821</v>
       </c>
       <c r="N9">
-        <v>1.017240525043884</v>
+        <v>1.011819433617831</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.032643659741064</v>
+        <v>0.9907634714829994</v>
       </c>
       <c r="D10">
-        <v>1.03669742460331</v>
+        <v>1.011091696693879</v>
       </c>
       <c r="E10">
-        <v>1.048890351345536</v>
+        <v>0.9881946340194777</v>
       </c>
       <c r="F10">
-        <v>1.05447894087683</v>
+        <v>0.9917811772175138</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036543778903068</v>
+        <v>1.03907024793671</v>
       </c>
       <c r="J10">
-        <v>1.038998790339216</v>
+        <v>1.019348407449304</v>
       </c>
       <c r="K10">
-        <v>1.040140533211052</v>
+        <v>1.025263533906833</v>
       </c>
       <c r="L10">
-        <v>1.052290517699641</v>
+        <v>1.002780360337729</v>
       </c>
       <c r="M10">
-        <v>1.057859790060707</v>
+        <v>1.006300427757881</v>
       </c>
       <c r="N10">
-        <v>1.016915382323346</v>
+        <v>1.010086664113624</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.031989093896061</v>
+        <v>0.9871356193006141</v>
       </c>
       <c r="D11">
-        <v>1.036201077191979</v>
+        <v>1.008418238420531</v>
       </c>
       <c r="E11">
-        <v>1.048031869400178</v>
+        <v>0.9838454887476489</v>
       </c>
       <c r="F11">
-        <v>1.053568741656891</v>
+        <v>0.9871630480429999</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036377658250555</v>
+        <v>1.037917836633723</v>
       </c>
       <c r="J11">
-        <v>1.038579162380044</v>
+        <v>1.017053540166036</v>
       </c>
       <c r="K11">
-        <v>1.03976743548073</v>
+        <v>1.023183126293971</v>
       </c>
       <c r="L11">
-        <v>1.05155493451037</v>
+        <v>0.999078624084777</v>
       </c>
       <c r="M11">
-        <v>1.057071913978466</v>
+        <v>1.002331179951247</v>
       </c>
       <c r="N11">
-        <v>1.016774198899066</v>
+        <v>1.009309831699384</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.031745924813914</v>
+        <v>0.9857696048641941</v>
       </c>
       <c r="D12">
-        <v>1.036016678369952</v>
+        <v>1.007412449245439</v>
       </c>
       <c r="E12">
-        <v>1.047713089252632</v>
+        <v>0.9822078981132732</v>
       </c>
       <c r="F12">
-        <v>1.053230758915578</v>
+        <v>0.9854240733963439</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036315722161957</v>
+        <v>1.037482259567491</v>
       </c>
       <c r="J12">
-        <v>1.038423151432315</v>
+        <v>1.016188674265281</v>
       </c>
       <c r="K12">
-        <v>1.039628693504289</v>
+        <v>1.022399003065003</v>
       </c>
       <c r="L12">
-        <v>1.051281705002516</v>
+        <v>0.9976840938110162</v>
       </c>
       <c r="M12">
-        <v>1.056779271134341</v>
+        <v>1.000835956302269</v>
       </c>
       <c r="N12">
-        <v>1.016721697848346</v>
+        <v>1.00901706674674</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.031798086961234</v>
+        <v>0.986063474294874</v>
       </c>
       <c r="D13">
-        <v>1.036056234044344</v>
+        <v>1.007628783418248</v>
       </c>
       <c r="E13">
-        <v>1.047781464269154</v>
+        <v>0.9825601941774494</v>
       </c>
       <c r="F13">
-        <v>1.053303252615949</v>
+        <v>0.9857981849882255</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03632901813809</v>
+        <v>1.037576038785731</v>
       </c>
       <c r="J13">
-        <v>1.038456622758071</v>
+        <v>1.016374766130566</v>
       </c>
       <c r="K13">
-        <v>1.039658461227122</v>
+        <v>1.022567724969418</v>
       </c>
       <c r="L13">
-        <v>1.051340313746674</v>
+        <v>0.9979841318751064</v>
       </c>
       <c r="M13">
-        <v>1.056842043627163</v>
+        <v>1.001157654954353</v>
       </c>
       <c r="N13">
-        <v>1.016732962182317</v>
+        <v>1.009080060441717</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.031968994163675</v>
+        <v>0.9870230876612578</v>
       </c>
       <c r="D14">
-        <v>1.036185835405026</v>
+        <v>1.008335363962775</v>
       </c>
       <c r="E14">
-        <v>1.048005516943344</v>
+        <v>0.9837105856815701</v>
       </c>
       <c r="F14">
-        <v>1.053540801755259</v>
+        <v>0.9870197951777917</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036372543316251</v>
+        <v>1.037881987310674</v>
       </c>
       <c r="J14">
-        <v>1.038566269372947</v>
+        <v>1.016982308283698</v>
       </c>
       <c r="K14">
-        <v>1.039755970225483</v>
+        <v>1.0231185460416</v>
       </c>
       <c r="L14">
-        <v>1.051532349310187</v>
+        <v>0.9989637583933074</v>
       </c>
       <c r="M14">
-        <v>1.057047723850377</v>
+        <v>1.002208018512585</v>
       </c>
       <c r="N14">
-        <v>1.016769860354186</v>
+        <v>1.009285719030546</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.032074291189362</v>
+        <v>0.987611854893492</v>
       </c>
       <c r="D15">
-        <v>1.036265682679257</v>
+        <v>1.008768999998004</v>
       </c>
       <c r="E15">
-        <v>1.048143576138458</v>
+        <v>0.9844163999699982</v>
       </c>
       <c r="F15">
-        <v>1.053687177558872</v>
+        <v>0.9877692914865763</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036399329941745</v>
+        <v>1.038069484442638</v>
       </c>
       <c r="J15">
-        <v>1.038633807392474</v>
+        <v>1.017354963532843</v>
       </c>
       <c r="K15">
-        <v>1.039816027952381</v>
+        <v>1.023456399595596</v>
       </c>
       <c r="L15">
-        <v>1.051650668540459</v>
+        <v>0.9995647081306366</v>
       </c>
       <c r="M15">
-        <v>1.057174451405737</v>
+        <v>1.002852373094954</v>
       </c>
       <c r="N15">
-        <v>1.016792586686436</v>
+        <v>1.009411866396374</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.032687096350342</v>
+        <v>0.991001713446344</v>
       </c>
       <c r="D16">
-        <v>1.036730360858519</v>
+        <v>1.011267378131723</v>
       </c>
       <c r="E16">
-        <v>1.048947339881724</v>
+        <v>0.9884802569938975</v>
       </c>
       <c r="F16">
-        <v>1.05453936277715</v>
+        <v>0.9920844511841389</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.0365547713211</v>
+        <v>1.039145695639183</v>
       </c>
       <c r="J16">
-        <v>1.039026619697103</v>
+        <v>1.019499003729708</v>
       </c>
       <c r="K16">
-        <v>1.040165272477959</v>
+        <v>1.02540004443227</v>
       </c>
       <c r="L16">
-        <v>1.052339335889498</v>
+        <v>1.00302336657584</v>
       </c>
       <c r="M16">
-        <v>1.057912080242216</v>
+        <v>1.006561006466882</v>
       </c>
       <c r="N16">
-        <v>1.016924743893191</v>
+        <v>1.010137641850683</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.033071432385404</v>
+        <v>0.9930963994836535</v>
       </c>
       <c r="D17">
-        <v>1.037021781503955</v>
+        <v>1.012812614207471</v>
       </c>
       <c r="E17">
-        <v>1.049451697425255</v>
+        <v>0.9909916709387414</v>
       </c>
       <c r="F17">
-        <v>1.055074107334013</v>
+        <v>0.9947509902510566</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036651863076159</v>
+        <v>1.039807772327162</v>
       </c>
       <c r="J17">
-        <v>1.039272766792538</v>
+        <v>1.020822482523803</v>
       </c>
       <c r="K17">
-        <v>1.040384064756554</v>
+        <v>1.026599660475715</v>
       </c>
       <c r="L17">
-        <v>1.052771318986596</v>
+        <v>1.005159514175443</v>
       </c>
       <c r="M17">
-        <v>1.058374794464949</v>
+        <v>1.008851683850198</v>
       </c>
       <c r="N17">
-        <v>1.017007537022225</v>
+        <v>1.010585642903089</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.033295587443783</v>
+        <v>0.9943071295716909</v>
       </c>
       <c r="D18">
-        <v>1.037191740609784</v>
+        <v>1.013706246980177</v>
       </c>
       <c r="E18">
-        <v>1.049745945512504</v>
+        <v>0.9924434207625191</v>
       </c>
       <c r="F18">
-        <v>1.055386084555873</v>
+        <v>0.9962923491909411</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036708346386347</v>
+        <v>1.040189379335869</v>
       </c>
       <c r="J18">
-        <v>1.039416248847245</v>
+        <v>1.021586945393052</v>
       </c>
       <c r="K18">
-        <v>1.040511581818568</v>
+        <v>1.027292513696412</v>
       </c>
       <c r="L18">
-        <v>1.053023288209213</v>
+        <v>1.006393878024536</v>
       </c>
       <c r="M18">
-        <v>1.058644695447848</v>
+        <v>1.010175389897602</v>
       </c>
       <c r="N18">
-        <v>1.017055790790343</v>
+        <v>1.010844410858219</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.033372014867075</v>
+        <v>0.9947181127647893</v>
       </c>
       <c r="D19">
-        <v>1.037249688593983</v>
+        <v>1.014009671166818</v>
       </c>
       <c r="E19">
-        <v>1.049846287583688</v>
+        <v>0.992936249516264</v>
       </c>
       <c r="F19">
-        <v>1.055492472639187</v>
+        <v>0.9968155872214109</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036727580518512</v>
+        <v>1.04031873261367</v>
       </c>
       <c r="J19">
-        <v>1.039465157024141</v>
+        <v>1.021846355475661</v>
       </c>
       <c r="K19">
-        <v>1.040555044747299</v>
+        <v>1.02752761250583</v>
       </c>
       <c r="L19">
-        <v>1.053109203402621</v>
+        <v>1.006812831886914</v>
       </c>
       <c r="M19">
-        <v>1.058736726065055</v>
+        <v>1.010624675174759</v>
       </c>
       <c r="N19">
-        <v>1.017072237621289</v>
+        <v>1.010932219253823</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.033030199008308</v>
+        <v>0.9928728117357202</v>
       </c>
       <c r="D20">
-        <v>1.036990517060989</v>
+        <v>1.012647624065534</v>
       </c>
       <c r="E20">
-        <v>1.049397577942293</v>
+        <v>0.9907235871890236</v>
       </c>
       <c r="F20">
-        <v>1.055016727105714</v>
+        <v>0.994466354015892</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036641461427003</v>
+        <v>1.039737213094255</v>
       </c>
       <c r="J20">
-        <v>1.0392463669916</v>
+        <v>1.02068126635301</v>
       </c>
       <c r="K20">
-        <v>1.040360600838656</v>
+        <v>1.02647166711338</v>
       </c>
       <c r="L20">
-        <v>1.05272497122212</v>
+        <v>1.004931536206931</v>
       </c>
       <c r="M20">
-        <v>1.058325148836901</v>
+        <v>1.008607208846721</v>
       </c>
       <c r="N20">
-        <v>1.016998658039873</v>
+        <v>1.010537841304405</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.031918667199367</v>
+        <v>0.986741024701375</v>
       </c>
       <c r="D21">
-        <v>1.036147671950848</v>
+        <v>1.008127651536376</v>
       </c>
       <c r="E21">
-        <v>1.047939536322266</v>
+        <v>0.983372447805185</v>
       </c>
       <c r="F21">
-        <v>1.053470846555379</v>
+        <v>0.98666072665183</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036359732626069</v>
+        <v>1.037792103753342</v>
       </c>
       <c r="J21">
-        <v>1.038533985110858</v>
+        <v>1.016803751819451</v>
       </c>
       <c r="K21">
-        <v>1.039727260585787</v>
+        <v>1.022956661942237</v>
       </c>
       <c r="L21">
-        <v>1.051475799672483</v>
+        <v>0.9986758333301332</v>
       </c>
       <c r="M21">
-        <v>1.056987155908903</v>
+        <v>1.001899300519771</v>
       </c>
       <c r="N21">
-        <v>1.016758996397369</v>
+        <v>1.009225275987645</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.031219605050613</v>
+        <v>0.9827782488612016</v>
       </c>
       <c r="D22">
-        <v>1.035617549319045</v>
+        <v>1.005211612362261</v>
       </c>
       <c r="E22">
-        <v>1.047023375026882</v>
+        <v>0.978621623992475</v>
       </c>
       <c r="F22">
-        <v>1.052499500799463</v>
+        <v>0.9816155777529393</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036181259270041</v>
+        <v>1.036525424084431</v>
       </c>
       <c r="J22">
-        <v>1.038085258167812</v>
+        <v>1.014293383713555</v>
       </c>
       <c r="K22">
-        <v>1.039328146865662</v>
+        <v>1.020680528386998</v>
       </c>
       <c r="L22">
-        <v>1.050690388159935</v>
+        <v>0.9946288294143123</v>
       </c>
       <c r="M22">
-        <v>1.056145960022433</v>
+        <v>0.9975602481228332</v>
       </c>
       <c r="N22">
-        <v>1.016607968873618</v>
+        <v>1.008375500353812</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.03159021003248</v>
+        <v>0.9848895769317375</v>
       </c>
       <c r="D23">
-        <v>1.035898595485177</v>
+        <v>1.006764743127634</v>
       </c>
       <c r="E23">
-        <v>1.047508996512603</v>
+        <v>0.9811528903333347</v>
       </c>
       <c r="F23">
-        <v>1.053014372541334</v>
+        <v>0.9843037201008731</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03627599831768</v>
+        <v>1.037201187563868</v>
       </c>
       <c r="J23">
-        <v>1.038323214978652</v>
+        <v>1.015631289851514</v>
       </c>
       <c r="K23">
-        <v>1.039539810613406</v>
+        <v>1.021893635102255</v>
       </c>
       <c r="L23">
-        <v>1.051106751123513</v>
+        <v>0.996785478547624</v>
       </c>
       <c r="M23">
-        <v>1.056591889553308</v>
+        <v>0.9998724804871114</v>
       </c>
       <c r="N23">
-        <v>1.016688063900821</v>
+        <v>1.008828387789512</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.033048830663218</v>
+        <v>0.9929738755264459</v>
       </c>
       <c r="D24">
-        <v>1.037004644183765</v>
+        <v>1.012722199681636</v>
       </c>
       <c r="E24">
-        <v>1.049422032006051</v>
+        <v>0.9908447631137545</v>
       </c>
       <c r="F24">
-        <v>1.055042654544747</v>
+        <v>0.9945950119858722</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036646161943819</v>
+        <v>1.039769109873877</v>
       </c>
       <c r="J24">
-        <v>1.039258296207493</v>
+        <v>1.020745098987962</v>
       </c>
       <c r="K24">
-        <v>1.040371203484433</v>
+        <v>1.026529522966612</v>
       </c>
       <c r="L24">
-        <v>1.05274591377887</v>
+        <v>1.005034585434725</v>
       </c>
       <c r="M24">
-        <v>1.058347581535171</v>
+        <v>1.008717714817089</v>
       </c>
       <c r="N24">
-        <v>1.01700267018738</v>
+        <v>1.010559448632562</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.034740630901951</v>
+        <v>1.001924396841496</v>
       </c>
       <c r="D25">
-        <v>1.03828730241986</v>
+        <v>1.019336387447301</v>
       </c>
       <c r="E25">
-        <v>1.051644556462878</v>
+        <v>1.001581453458792</v>
       </c>
       <c r="F25">
-        <v>1.05739910894708</v>
+        <v>1.005993341881909</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037069884195212</v>
+        <v>1.042570761686819</v>
       </c>
       <c r="J25">
-        <v>1.04033982158551</v>
+        <v>1.026387170464492</v>
       </c>
       <c r="K25">
-        <v>1.041332035281523</v>
+        <v>1.031641767469379</v>
       </c>
       <c r="L25">
-        <v>1.054648109446786</v>
+        <v>1.014155268905494</v>
       </c>
       <c r="M25">
-        <v>1.060385270441289</v>
+        <v>1.018499325968504</v>
       </c>
       <c r="N25">
-        <v>1.017366259991485</v>
+        <v>1.012469127465348</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_37/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_37/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.0087521759357</v>
+        <v>1.00214524428019</v>
       </c>
       <c r="D2">
-        <v>1.024393946090598</v>
+        <v>1.026696114420329</v>
       </c>
       <c r="E2">
-        <v>1.009783016208794</v>
+        <v>1.025202925122887</v>
       </c>
       <c r="F2">
-        <v>1.014698504608866</v>
+        <v>1.033280909630021</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04467337157642</v>
+        <v>1.050066037423493</v>
       </c>
       <c r="J2">
-        <v>1.030674225422089</v>
+        <v>1.024261980237998</v>
       </c>
       <c r="K2">
-        <v>1.035523581621809</v>
+        <v>1.037795648317531</v>
       </c>
       <c r="L2">
-        <v>1.021107720038312</v>
+        <v>1.03632196367492</v>
       </c>
       <c r="M2">
-        <v>1.025956794545626</v>
+        <v>1.04429527099922</v>
       </c>
       <c r="N2">
-        <v>1.013919796404295</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.012075578515368</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.043629119639968</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.037795064928859</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.013545307771975</v>
+        <v>1.00560383287899</v>
       </c>
       <c r="D3">
-        <v>1.027950107018611</v>
+        <v>1.029052756963529</v>
       </c>
       <c r="E3">
-        <v>1.015549724863358</v>
+        <v>1.02816981162242</v>
       </c>
       <c r="F3">
-        <v>1.020818301193441</v>
+        <v>1.035972125021309</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046128698338322</v>
+        <v>1.050769930068225</v>
       </c>
       <c r="J3">
-        <v>1.033673403547291</v>
+        <v>1.02594288881327</v>
       </c>
       <c r="K3">
-        <v>1.038237427709277</v>
+        <v>1.039326922402356</v>
       </c>
       <c r="L3">
-        <v>1.025987436163614</v>
+        <v>1.038454508318873</v>
       </c>
       <c r="M3">
-        <v>1.031191561076416</v>
+        <v>1.046164529532773</v>
       </c>
       <c r="N3">
-        <v>1.014934350181371</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.012636074508771</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.045108504554956</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.038875143116369</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,81 +539,105 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.016575477500857</v>
+        <v>1.007803277737623</v>
       </c>
       <c r="D4">
-        <v>1.03020055510757</v>
+        <v>1.030552943450378</v>
       </c>
       <c r="E4">
-        <v>1.019200425604421</v>
+        <v>1.030065967353607</v>
       </c>
       <c r="F4">
-        <v>1.0246920774761</v>
+        <v>1.037690174116583</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04703892375556</v>
+        <v>1.0512036863125</v>
       </c>
       <c r="J4">
-        <v>1.035564478821285</v>
+        <v>1.027009459440552</v>
       </c>
       <c r="K4">
-        <v>1.039947653409752</v>
+        <v>1.040296092069383</v>
       </c>
       <c r="L4">
-        <v>1.029072512347154</v>
+        <v>1.039814575037232</v>
       </c>
       <c r="M4">
-        <v>1.034501351963564</v>
+        <v>1.047354035976521</v>
       </c>
       <c r="N4">
-        <v>1.015573877892687</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.012991778870341</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.046049912578392</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.039561326408786</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C5">
-        <v>1.017832951884203</v>
+        <v>1.008721261459128</v>
       </c>
       <c r="D5">
-        <v>1.031134950884046</v>
+        <v>1.031180902820009</v>
       </c>
       <c r="E5">
-        <v>1.020716733538406</v>
+        <v>1.030859418158732</v>
       </c>
       <c r="F5">
-        <v>1.026300932493071</v>
+        <v>1.038408937797475</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047414262978383</v>
+        <v>1.051382457536241</v>
       </c>
       <c r="J5">
-        <v>1.036348025336821</v>
+        <v>1.027455149657177</v>
       </c>
       <c r="K5">
-        <v>1.040656028167925</v>
+        <v>1.040701478817873</v>
       </c>
       <c r="L5">
-        <v>1.030352896069872</v>
+        <v>1.0403835023579</v>
       </c>
       <c r="M5">
-        <v>1.035875051839308</v>
+        <v>1.047851340576635</v>
       </c>
       <c r="N5">
-        <v>1.015838811269266</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.013140683600863</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.046443492720752</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.039855141039338</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.018043143675005</v>
+        <v>1.008877674846351</v>
       </c>
       <c r="D6">
-        <v>1.031291166361379</v>
+        <v>1.031289742780646</v>
       </c>
       <c r="E6">
-        <v>1.020970271285883</v>
+        <v>1.030994529986202</v>
       </c>
       <c r="F6">
-        <v>1.02656993856501</v>
+        <v>1.038531676306732</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047476860852301</v>
+        <v>1.051414076289967</v>
       </c>
       <c r="J6">
-        <v>1.036478925646479</v>
+        <v>1.027532427366729</v>
       </c>
       <c r="K6">
-        <v>1.040774355762686</v>
+        <v>1.0407729476404</v>
       </c>
       <c r="L6">
-        <v>1.030566926878485</v>
+        <v>1.040480941648193</v>
       </c>
       <c r="M6">
-        <v>1.036104684559141</v>
+        <v>1.04793691361998</v>
       </c>
       <c r="N6">
-        <v>1.015883068426574</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.013166809977818</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.046511217491491</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.039914421405051</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.01659234356265</v>
+        <v>1.007823066180818</v>
       </c>
       <c r="D7">
-        <v>1.030213085945182</v>
+        <v>1.030571335187263</v>
       </c>
       <c r="E7">
-        <v>1.019220757938314</v>
+        <v>1.030082509743336</v>
       </c>
       <c r="F7">
-        <v>1.024713651202952</v>
+        <v>1.037706128178008</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047043967542943</v>
+        <v>1.051211170264466</v>
       </c>
       <c r="J7">
-        <v>1.035574993116985</v>
+        <v>1.027022733959951</v>
       </c>
       <c r="K7">
-        <v>1.039957159948296</v>
+        <v>1.04031139530336</v>
       </c>
       <c r="L7">
-        <v>1.029089685086938</v>
+        <v>1.039828047599811</v>
       </c>
       <c r="M7">
-        <v>1.034519776069073</v>
+        <v>1.047366958251328</v>
       </c>
       <c r="N7">
-        <v>1.015577433190878</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.012997048318373</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.046060139614462</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.039592263726288</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.010387212965564</v>
+        <v>1.003331398326469</v>
       </c>
       <c r="D8">
-        <v>1.025606514895326</v>
+        <v>1.027509875215142</v>
       </c>
       <c r="E8">
-        <v>1.011749171113133</v>
+        <v>1.026217901003158</v>
       </c>
       <c r="F8">
-        <v>1.01678514055866</v>
+        <v>1.034203030897916</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045171854763283</v>
+        <v>1.050314609090899</v>
       </c>
       <c r="J8">
-        <v>1.031698335791372</v>
+        <v>1.024843403184488</v>
       </c>
       <c r="K8">
-        <v>1.036450450706113</v>
+        <v>1.038329668131531</v>
       </c>
       <c r="L8">
-        <v>1.022772310011894</v>
+        <v>1.037054069585913</v>
       </c>
       <c r="M8">
-        <v>1.027742447012999</v>
+        <v>1.044938804842668</v>
       </c>
       <c r="N8">
-        <v>1.014266264603029</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.012270525478482</v>
+      </c>
+      <c r="O8">
+        <v>1.029999999999999</v>
+      </c>
+      <c r="P8">
+        <v>1.044138431153075</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.038195586337283</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9988749935952803</v>
+        <v>0.995098166251865</v>
       </c>
       <c r="D9">
-        <v>1.017080884388193</v>
+        <v>1.021904612923359</v>
       </c>
       <c r="E9">
-        <v>0.9979221246449749</v>
+        <v>1.019210841996991</v>
       </c>
       <c r="F9">
-        <v>1.002108803712872</v>
+        <v>1.027835209181351</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041621629956761</v>
+        <v>1.048558127136886</v>
       </c>
       <c r="J9">
-        <v>1.024467541381498</v>
+        <v>1.020825216329744</v>
       </c>
       <c r="K9">
-        <v>1.029902784134162</v>
+        <v>1.0346520257443</v>
       </c>
       <c r="L9">
-        <v>1.011049004126465</v>
+        <v>1.031999740408292</v>
       </c>
       <c r="M9">
-        <v>1.015167759452821</v>
+        <v>1.040492263828856</v>
       </c>
       <c r="N9">
-        <v>1.011819433617831</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.010930078288938</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.040619301205278</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.035592065163329</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9907634714829994</v>
+        <v>0.9894282012275176</v>
       </c>
       <c r="D10">
-        <v>1.011091696693879</v>
+        <v>1.018075327061723</v>
       </c>
       <c r="E10">
-        <v>0.9881946340194777</v>
+        <v>1.014491866144002</v>
       </c>
       <c r="F10">
-        <v>0.9917811772175138</v>
+        <v>1.02355768598624</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03907024793671</v>
+        <v>1.047293832619601</v>
       </c>
       <c r="J10">
-        <v>1.019348407449304</v>
+        <v>1.018067631370258</v>
       </c>
       <c r="K10">
-        <v>1.025263533906833</v>
+        <v>1.032125718958728</v>
       </c>
       <c r="L10">
-        <v>1.002780360337729</v>
+        <v>1.028604304045873</v>
       </c>
       <c r="M10">
-        <v>1.006300427757881</v>
+        <v>1.037514238852999</v>
       </c>
       <c r="N10">
-        <v>1.010086664113624</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.010014127430019</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.038313839285594</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.033822644807736</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9871356193006141</v>
+        <v>0.9872442431153131</v>
       </c>
       <c r="D11">
-        <v>1.008418238420531</v>
+        <v>1.016746530584879</v>
       </c>
       <c r="E11">
-        <v>0.9838454887476489</v>
+        <v>1.013113707383776</v>
       </c>
       <c r="F11">
-        <v>0.9871630480429999</v>
+        <v>1.022470999302489</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037917836633723</v>
+        <v>1.046901948067973</v>
       </c>
       <c r="J11">
-        <v>1.017053540166036</v>
+        <v>1.017157475983442</v>
       </c>
       <c r="K11">
-        <v>1.023183126293971</v>
+        <v>1.031359394350552</v>
       </c>
       <c r="L11">
-        <v>0.999078624084777</v>
+        <v>1.027792484465375</v>
       </c>
       <c r="M11">
-        <v>1.002331179951247</v>
+        <v>1.036981233012134</v>
       </c>
       <c r="N11">
-        <v>1.009309831699384</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.009740334459099</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.038328309038317</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.033313733555799</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9857696048641941</v>
+        <v>0.986537454482089</v>
       </c>
       <c r="D12">
-        <v>1.007412449245439</v>
+        <v>1.016371582817657</v>
       </c>
       <c r="E12">
-        <v>0.9822078981132732</v>
+        <v>1.012850336976822</v>
       </c>
       <c r="F12">
-        <v>0.9854240733963439</v>
+        <v>1.022352196727751</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037482259567491</v>
+        <v>1.04681465889404</v>
       </c>
       <c r="J12">
-        <v>1.016188674265281</v>
+        <v>1.016922707445872</v>
       </c>
       <c r="K12">
-        <v>1.022399003065003</v>
+        <v>1.031191709802477</v>
       </c>
       <c r="L12">
-        <v>0.9976840938110162</v>
+        <v>1.027735417471113</v>
       </c>
       <c r="M12">
-        <v>1.000835956302269</v>
+        <v>1.037063337497287</v>
       </c>
       <c r="N12">
-        <v>1.00901706674674</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.009684286492393</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.03871966197112</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.033195174658988</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.986063474294874</v>
+        <v>0.9869313771254277</v>
       </c>
       <c r="D13">
-        <v>1.007628783418248</v>
+        <v>1.016719923545354</v>
       </c>
       <c r="E13">
-        <v>0.9825601941774494</v>
+        <v>1.01343917157948</v>
       </c>
       <c r="F13">
-        <v>0.9857981849882255</v>
+        <v>1.022988069691135</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037576038785731</v>
+        <v>1.046968908054311</v>
       </c>
       <c r="J13">
-        <v>1.016374766130566</v>
+        <v>1.017204624426796</v>
       </c>
       <c r="K13">
-        <v>1.022567724969418</v>
+        <v>1.031490673954087</v>
       </c>
       <c r="L13">
-        <v>0.9979841318751064</v>
+        <v>1.028270164218078</v>
       </c>
       <c r="M13">
-        <v>1.001157654954353</v>
+        <v>1.03764511856617</v>
       </c>
       <c r="N13">
-        <v>1.009080060441717</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.009797431182164</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.039456313512949</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.033404054767261</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9870230876612578</v>
+        <v>0.9877064523756025</v>
       </c>
       <c r="D14">
-        <v>1.008335363962775</v>
+        <v>1.017292282568165</v>
       </c>
       <c r="E14">
-        <v>0.9837105856815701</v>
+        <v>1.014236344229768</v>
       </c>
       <c r="F14">
-        <v>0.9870197951777917</v>
+        <v>1.02377469462315</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037881987310674</v>
+        <v>1.047186396155853</v>
       </c>
       <c r="J14">
-        <v>1.016982308283698</v>
+        <v>1.017636152898608</v>
       </c>
       <c r="K14">
-        <v>1.0231185460416</v>
+        <v>1.031911848445952</v>
       </c>
       <c r="L14">
-        <v>0.9989637583933074</v>
+        <v>1.028911310359969</v>
       </c>
       <c r="M14">
-        <v>1.002208018512585</v>
+        <v>1.038278163436124</v>
       </c>
       <c r="N14">
-        <v>1.009285719030546</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.009953395533191</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.04013000649346</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.033703267838925</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.987611854893492</v>
+        <v>0.9881381175956625</v>
       </c>
       <c r="D15">
-        <v>1.008768999998004</v>
+        <v>1.017595152957513</v>
       </c>
       <c r="E15">
-        <v>0.9844163999699982</v>
+        <v>1.014625832545494</v>
       </c>
       <c r="F15">
-        <v>0.9877692914865763</v>
+        <v>1.024142837899178</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038069484442638</v>
+        <v>1.047295018852246</v>
       </c>
       <c r="J15">
-        <v>1.017354963532843</v>
+        <v>1.01785869632793</v>
       </c>
       <c r="K15">
-        <v>1.023456399595596</v>
+        <v>1.0321225792466</v>
       </c>
       <c r="L15">
-        <v>0.9995647081306366</v>
+        <v>1.029206673636792</v>
       </c>
       <c r="M15">
-        <v>1.002852373094954</v>
+        <v>1.038553897604295</v>
       </c>
       <c r="N15">
-        <v>1.009411866396374</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.010030226706298</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.040385472165575</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.033858144977406</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.991001713446344</v>
+        <v>0.9904638748657975</v>
       </c>
       <c r="D16">
-        <v>1.011267378131723</v>
+        <v>1.019156689456133</v>
       </c>
       <c r="E16">
-        <v>0.9884802569938975</v>
+        <v>1.016519460898375</v>
       </c>
       <c r="F16">
-        <v>0.9920844511841389</v>
+        <v>1.025857574363157</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039145695639183</v>
+        <v>1.047822144272645</v>
       </c>
       <c r="J16">
-        <v>1.019499003729708</v>
+        <v>1.018983004669678</v>
       </c>
       <c r="K16">
-        <v>1.02540004443227</v>
+        <v>1.033152780650481</v>
       </c>
       <c r="L16">
-        <v>1.00302336657584</v>
+        <v>1.03056090116727</v>
       </c>
       <c r="M16">
-        <v>1.006561006466882</v>
+        <v>1.039739791831991</v>
       </c>
       <c r="N16">
-        <v>1.010137641850683</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.010400359114187</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.041284098348447</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.034589709477369</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9930963994836535</v>
+        <v>0.9918435770507016</v>
       </c>
       <c r="D17">
-        <v>1.012812614207471</v>
+        <v>1.020055458032563</v>
       </c>
       <c r="E17">
-        <v>0.9909916709387414</v>
+        <v>1.017554747273127</v>
       </c>
       <c r="F17">
-        <v>0.9947509902510566</v>
+        <v>1.02675747823919</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039807772327162</v>
+        <v>1.048108999959955</v>
       </c>
       <c r="J17">
-        <v>1.020822482523803</v>
+        <v>1.019618843622394</v>
       </c>
       <c r="K17">
-        <v>1.026599660475715</v>
+        <v>1.033720748648375</v>
       </c>
       <c r="L17">
-        <v>1.005159514175443</v>
+        <v>1.031261823490038</v>
       </c>
       <c r="M17">
-        <v>1.008851683850198</v>
+        <v>1.040312071977164</v>
       </c>
       <c r="N17">
-        <v>1.010585642903089</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.010602349828822</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.041607468457134</v>
+      </c>
+      <c r="Q17">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="R17">
+        <v>1.034993877840392</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9943071295716909</v>
+        <v>0.9925325261442376</v>
       </c>
       <c r="D18">
-        <v>1.013706246980177</v>
+        <v>1.020451959460031</v>
       </c>
       <c r="E18">
-        <v>0.9924434207625191</v>
+        <v>1.017916190961915</v>
       </c>
       <c r="F18">
-        <v>0.9962923491909411</v>
+        <v>1.027001745351542</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040189379335869</v>
+        <v>1.048210575661843</v>
       </c>
       <c r="J18">
-        <v>1.021586945393052</v>
+        <v>1.01988064460832</v>
       </c>
       <c r="K18">
-        <v>1.027292513696412</v>
+        <v>1.03392676283252</v>
       </c>
       <c r="L18">
-        <v>1.006393878024536</v>
+        <v>1.031432671360054</v>
       </c>
       <c r="M18">
-        <v>1.010175389897602</v>
+        <v>1.040370120814562</v>
       </c>
       <c r="N18">
-        <v>1.010844410858219</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.010672872972942</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.041415799616955</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.035127881326094</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9947181127647893</v>
+        <v>0.9925994574586233</v>
       </c>
       <c r="D19">
-        <v>1.014009671166818</v>
+        <v>1.020401204769553</v>
       </c>
       <c r="E19">
-        <v>0.992936249516264</v>
+        <v>1.017665656785566</v>
       </c>
       <c r="F19">
-        <v>0.9968155872214109</v>
+        <v>1.026652513940351</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.04031873261367</v>
+        <v>1.048150867799844</v>
       </c>
       <c r="J19">
-        <v>1.021846355475661</v>
+        <v>1.019808712295816</v>
       </c>
       <c r="K19">
-        <v>1.02752761250583</v>
+        <v>1.033814133058554</v>
       </c>
       <c r="L19">
-        <v>1.006812831886914</v>
+        <v>1.031123322564307</v>
       </c>
       <c r="M19">
-        <v>1.010624675174759</v>
+        <v>1.039964355396917</v>
       </c>
       <c r="N19">
-        <v>1.010932219253823</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.010628361295913</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.040769646364097</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.035054653682053</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9928728117357202</v>
+        <v>0.9909153978872727</v>
       </c>
       <c r="D20">
-        <v>1.012647624065534</v>
+        <v>1.019090635261929</v>
       </c>
       <c r="E20">
-        <v>0.9907235871890236</v>
+        <v>1.015727761150611</v>
       </c>
       <c r="F20">
-        <v>0.994466354015892</v>
+        <v>1.024681241689516</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039737213094255</v>
+        <v>1.047638782300254</v>
       </c>
       <c r="J20">
-        <v>1.02068126635301</v>
+        <v>1.018801063880517</v>
       </c>
       <c r="K20">
-        <v>1.02647166711338</v>
+        <v>1.032805904371698</v>
       </c>
       <c r="L20">
-        <v>1.004931536206931</v>
+        <v>1.02949958176503</v>
       </c>
       <c r="M20">
-        <v>1.008607208846721</v>
+        <v>1.038303553922639</v>
       </c>
       <c r="N20">
-        <v>1.010537841304405</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.010260283394842</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.038927947945047</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.034345722346694</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.986741024701375</v>
+        <v>0.9865975441428039</v>
       </c>
       <c r="D21">
-        <v>1.008127651536376</v>
+        <v>1.016149747749272</v>
       </c>
       <c r="E21">
-        <v>0.983372447805185</v>
+        <v>1.012071545606364</v>
       </c>
       <c r="F21">
-        <v>0.98666072665183</v>
+        <v>1.021330927376619</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037792103753342</v>
+        <v>1.046629931405363</v>
       </c>
       <c r="J21">
-        <v>1.016803751819451</v>
+        <v>1.016666504126123</v>
       </c>
       <c r="K21">
-        <v>1.022956661942237</v>
+        <v>1.030831484331138</v>
       </c>
       <c r="L21">
-        <v>0.9986758333301332</v>
+        <v>1.02682777191257</v>
       </c>
       <c r="M21">
-        <v>1.001899300519771</v>
+        <v>1.035919142515086</v>
       </c>
       <c r="N21">
-        <v>1.009225275987645</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.009545921112762</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.036999973780291</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.032952962788071</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9827782488612016</v>
+        <v>0.983843440252767</v>
       </c>
       <c r="D22">
-        <v>1.005211612362261</v>
+        <v>1.014281951677988</v>
       </c>
       <c r="E22">
-        <v>0.978621623992475</v>
+        <v>1.009778382876296</v>
       </c>
       <c r="F22">
-        <v>0.9816155777529393</v>
+        <v>1.019237435010845</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036525424084431</v>
+        <v>1.045976727400297</v>
       </c>
       <c r="J22">
-        <v>1.014293383713555</v>
+        <v>1.015309512600454</v>
       </c>
       <c r="K22">
-        <v>1.020680528386998</v>
+        <v>1.029575692173183</v>
       </c>
       <c r="L22">
-        <v>0.9946288294143123</v>
+        <v>1.025158585481198</v>
       </c>
       <c r="M22">
-        <v>0.9975602481228332</v>
+        <v>1.034437190758495</v>
       </c>
       <c r="N22">
-        <v>1.008375500353812</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.009092482936314</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.035827101627342</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.032051518901534</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9848895769317375</v>
+        <v>0.9853020883956985</v>
       </c>
       <c r="D23">
-        <v>1.006764743127634</v>
+        <v>1.015266995433175</v>
       </c>
       <c r="E23">
-        <v>0.9811528903333347</v>
+        <v>1.010991816441125</v>
       </c>
       <c r="F23">
-        <v>0.9843037201008731</v>
+        <v>1.020345015278316</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037201187563868</v>
+        <v>1.046321311438478</v>
       </c>
       <c r="J23">
-        <v>1.015631289851514</v>
+        <v>1.016025378137402</v>
       </c>
       <c r="K23">
-        <v>1.021893635102255</v>
+        <v>1.030236005973257</v>
       </c>
       <c r="L23">
-        <v>0.996785478547624</v>
+        <v>1.026040780962988</v>
       </c>
       <c r="M23">
-        <v>0.9998724804871114</v>
+        <v>1.03522019110282</v>
       </c>
       <c r="N23">
-        <v>1.008828387789512</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.009330780589234</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.036446797682363</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.032508730390606</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9929738755264459</v>
+        <v>0.9909445481788774</v>
       </c>
       <c r="D24">
-        <v>1.012722199681636</v>
+        <v>1.019090469587558</v>
       </c>
       <c r="E24">
-        <v>0.9908447631137545</v>
+        <v>1.015710613672834</v>
       </c>
       <c r="F24">
-        <v>0.9945950119858722</v>
+        <v>1.024648562238366</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039769109873877</v>
+        <v>1.047630495693721</v>
       </c>
       <c r="J24">
-        <v>1.020745098987962</v>
+        <v>1.018795692169049</v>
       </c>
       <c r="K24">
-        <v>1.026529522966612</v>
+        <v>1.032790428925574</v>
       </c>
       <c r="L24">
-        <v>1.005034585434725</v>
+        <v>1.029467338421367</v>
       </c>
       <c r="M24">
-        <v>1.008717714817089</v>
+        <v>1.038256219915856</v>
       </c>
       <c r="N24">
-        <v>1.010559448632562</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.010254601562246</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.038849620487218</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.034307319103555</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.001924396841496</v>
+        <v>0.9972761651635694</v>
       </c>
       <c r="D25">
-        <v>1.019336387447301</v>
+        <v>1.023392613729124</v>
       </c>
       <c r="E25">
-        <v>1.001581453458792</v>
+        <v>1.021054822725345</v>
       </c>
       <c r="F25">
-        <v>1.005993341881909</v>
+        <v>1.029513775468455</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042570761686819</v>
+        <v>1.049040162854279</v>
       </c>
       <c r="J25">
-        <v>1.026387170464492</v>
+        <v>1.021895546220243</v>
       </c>
       <c r="K25">
-        <v>1.031641767469379</v>
+        <v>1.035638327008564</v>
       </c>
       <c r="L25">
-        <v>1.014155268905494</v>
+        <v>1.033334851211815</v>
       </c>
       <c r="M25">
-        <v>1.018499325968504</v>
+        <v>1.041670574808741</v>
       </c>
       <c r="N25">
-        <v>1.012469127465348</v>
+        <v>1.011288511256565</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.041551854585768</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.036318068594386</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_37/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_37/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.00214524428019</v>
+        <v>1.001954975439051</v>
       </c>
       <c r="D2">
-        <v>1.026696114420329</v>
+        <v>1.02603910418285</v>
       </c>
       <c r="E2">
-        <v>1.025202925122887</v>
+        <v>1.024916903608219</v>
       </c>
       <c r="F2">
-        <v>1.033280909630021</v>
+        <v>1.032901611348996</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.050066037423493</v>
+        <v>1.049732453676763</v>
       </c>
       <c r="J2">
-        <v>1.024261980237998</v>
+        <v>1.024077370343783</v>
       </c>
       <c r="K2">
-        <v>1.037795648317531</v>
+        <v>1.037147211457651</v>
       </c>
       <c r="L2">
-        <v>1.03632196367492</v>
+        <v>1.036039686418172</v>
       </c>
       <c r="M2">
-        <v>1.04429527099922</v>
+        <v>1.043920841983101</v>
       </c>
       <c r="N2">
-        <v>1.012075578515368</v>
+        <v>1.013645739706197</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.043629119639968</v>
+        <v>1.043332785397349</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.037795064928859</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.037345346239145</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.021987157054807</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.00560383287899</v>
+        <v>1.005290791749137</v>
       </c>
       <c r="D3">
-        <v>1.029052756963529</v>
+        <v>1.028242649284534</v>
       </c>
       <c r="E3">
-        <v>1.02816981162242</v>
+        <v>1.02780467600806</v>
       </c>
       <c r="F3">
-        <v>1.035972125021309</v>
+        <v>1.035493114867316</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.050769930068225</v>
+        <v>1.050358188611132</v>
       </c>
       <c r="J3">
-        <v>1.02594288881327</v>
+        <v>1.025638256270119</v>
       </c>
       <c r="K3">
-        <v>1.039326922402356</v>
+        <v>1.038526476367083</v>
       </c>
       <c r="L3">
-        <v>1.038454508318873</v>
+        <v>1.038093734387628</v>
       </c>
       <c r="M3">
-        <v>1.046164529532773</v>
+        <v>1.045691135909439</v>
       </c>
       <c r="N3">
-        <v>1.012636074508771</v>
+        <v>1.014059521795938</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.045108504554956</v>
+        <v>1.044733847521856</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.038875143116369</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.038317664180035</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.022252730136704</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,105 +563,123 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.007803277737623</v>
+        <v>1.00741294558427</v>
       </c>
       <c r="D4">
-        <v>1.030552943450378</v>
+        <v>1.029646015561015</v>
       </c>
       <c r="E4">
-        <v>1.030065967353607</v>
+        <v>1.029651059051426</v>
       </c>
       <c r="F4">
-        <v>1.037690174116583</v>
+        <v>1.037148222368244</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.0512036863125</v>
+        <v>1.05074242166903</v>
       </c>
       <c r="J4">
-        <v>1.027009459440552</v>
+        <v>1.02662890966367</v>
       </c>
       <c r="K4">
-        <v>1.040296092069383</v>
+        <v>1.03939933606445</v>
       </c>
       <c r="L4">
-        <v>1.039814575037232</v>
+        <v>1.039404322927274</v>
       </c>
       <c r="M4">
-        <v>1.047354035976521</v>
+        <v>1.046818057658767</v>
       </c>
       <c r="N4">
-        <v>1.012991778870341</v>
+        <v>1.014322210839657</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.046049912578392</v>
+        <v>1.045625724787176</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.039561326408786</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.038935829895338</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.022418276803014</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.008721261459128</v>
+        <v>1.008298880659201</v>
       </c>
       <c r="D5">
-        <v>1.031180902820009</v>
+        <v>1.030233781286298</v>
       </c>
       <c r="E5">
-        <v>1.030859418158732</v>
+        <v>1.030423892496013</v>
       </c>
       <c r="F5">
-        <v>1.038408937797475</v>
+        <v>1.037840873928138</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.051382457536241</v>
+        <v>1.050900611122509</v>
       </c>
       <c r="J5">
-        <v>1.027455149657177</v>
+        <v>1.027043041215936</v>
       </c>
       <c r="K5">
-        <v>1.040701478817873</v>
+        <v>1.03976470045372</v>
       </c>
       <c r="L5">
-        <v>1.0403835023579</v>
+        <v>1.039952733655533</v>
       </c>
       <c r="M5">
-        <v>1.047851340576635</v>
+        <v>1.047289372163597</v>
       </c>
       <c r="N5">
-        <v>1.013140683600863</v>
+        <v>1.014432238783652</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.046443492720752</v>
+        <v>1.045998735894359</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.039855141039338</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.039202055374467</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.022487294265722</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.008877674846351</v>
+        <v>1.008449881809891</v>
       </c>
       <c r="D6">
-        <v>1.031289742780646</v>
+        <v>1.030335890203435</v>
       </c>
       <c r="E6">
-        <v>1.030994529986202</v>
+        <v>1.030555536913001</v>
       </c>
       <c r="F6">
-        <v>1.038531676306732</v>
+        <v>1.03795923022572</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.051414076289967</v>
+        <v>1.050928781792379</v>
       </c>
       <c r="J6">
-        <v>1.027532427366729</v>
+        <v>1.027114985347332</v>
       </c>
       <c r="K6">
-        <v>1.0407729476404</v>
+        <v>1.039829464586821</v>
       </c>
       <c r="L6">
-        <v>1.040480941648193</v>
+        <v>1.040046721385249</v>
       </c>
       <c r="M6">
-        <v>1.04793691361998</v>
+        <v>1.047370582060035</v>
       </c>
       <c r="N6">
-        <v>1.013166809977818</v>
+        <v>1.014451593202947</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.046511217491491</v>
+        <v>1.046063007594177</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.039914421405051</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.039257462654202</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.022499901541866</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.007823066180818</v>
+        <v>1.007439526677398</v>
       </c>
       <c r="D7">
-        <v>1.030571335187263</v>
+        <v>1.029668479319392</v>
       </c>
       <c r="E7">
-        <v>1.030082509743336</v>
+        <v>1.029670476132332</v>
       </c>
       <c r="F7">
-        <v>1.037706128178008</v>
+        <v>1.037167407056677</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.051211170264466</v>
+        <v>1.050751974732315</v>
       </c>
       <c r="J7">
-        <v>1.027022733959951</v>
+        <v>1.02664880248953</v>
       </c>
       <c r="K7">
-        <v>1.04031139530336</v>
+        <v>1.039418661778439</v>
       </c>
       <c r="L7">
-        <v>1.039828047599811</v>
+        <v>1.039420636180049</v>
       </c>
       <c r="M7">
-        <v>1.047366958251328</v>
+        <v>1.046834172729355</v>
       </c>
       <c r="N7">
-        <v>1.012997048318373</v>
+        <v>1.014353984654511</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.046060139614462</v>
+        <v>1.045638478695097</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.039592263726288</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.038971607808113</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.022423497440157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.003331398326469</v>
+        <v>1.003121593456939</v>
       </c>
       <c r="D8">
-        <v>1.027509875215142</v>
+        <v>1.026814834679863</v>
       </c>
       <c r="E8">
-        <v>1.026217901003158</v>
+        <v>1.025914716301848</v>
       </c>
       <c r="F8">
-        <v>1.034203030897916</v>
+        <v>1.033800751719806</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.050314609090899</v>
+        <v>1.049961593482003</v>
       </c>
       <c r="J8">
-        <v>1.024843403184488</v>
+        <v>1.024639630816613</v>
       </c>
       <c r="K8">
-        <v>1.038329668131531</v>
+        <v>1.037643430783889</v>
       </c>
       <c r="L8">
-        <v>1.037054069585913</v>
+        <v>1.036754735186822</v>
       </c>
       <c r="M8">
-        <v>1.044938804842668</v>
+        <v>1.044541537170319</v>
       </c>
       <c r="N8">
-        <v>1.012270525478482</v>
+        <v>1.013874161932883</v>
       </c>
       <c r="O8">
-        <v>1.029999999999999</v>
+        <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.044138431153075</v>
+        <v>1.043824021935346</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.038195586337283</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.037721403682043</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.022085931867969</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.995098166251865</v>
+        <v>0.9951886435284591</v>
       </c>
       <c r="D9">
-        <v>1.021904612923359</v>
+        <v>1.021578993288301</v>
       </c>
       <c r="E9">
-        <v>1.019210841996991</v>
+        <v>1.019100804896633</v>
       </c>
       <c r="F9">
-        <v>1.027835209181351</v>
+        <v>1.027674594809209</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.048558127136886</v>
+        <v>1.048393128150192</v>
       </c>
       <c r="J9">
-        <v>1.020825216329744</v>
+        <v>1.020912454755063</v>
       </c>
       <c r="K9">
-        <v>1.0346520257443</v>
+        <v>1.034331405999818</v>
       </c>
       <c r="L9">
-        <v>1.031999740408292</v>
+        <v>1.031891403895397</v>
       </c>
       <c r="M9">
-        <v>1.040492263828856</v>
+        <v>1.040334079062702</v>
       </c>
       <c r="N9">
-        <v>1.010930078288938</v>
+        <v>1.012895266926888</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.040619301205278</v>
+        <v>1.040494108578696</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.035592065163329</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.035376122588706</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.021433060651851</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9894282012275176</v>
+        <v>0.989761123858661</v>
       </c>
       <c r="D10">
-        <v>1.018075327061723</v>
+        <v>1.018025820949904</v>
       </c>
       <c r="E10">
-        <v>1.014491866144002</v>
+        <v>1.014531120615959</v>
       </c>
       <c r="F10">
-        <v>1.02355768598624</v>
+        <v>1.02358097001929</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.047293832619601</v>
+        <v>1.047268784361113</v>
       </c>
       <c r="J10">
-        <v>1.018067631370258</v>
+        <v>1.018386947442533</v>
       </c>
       <c r="K10">
-        <v>1.032125718958728</v>
+        <v>1.032077066174858</v>
       </c>
       <c r="L10">
-        <v>1.028604304045873</v>
+        <v>1.028642875770746</v>
       </c>
       <c r="M10">
-        <v>1.037514238852999</v>
+        <v>1.037537127111623</v>
       </c>
       <c r="N10">
-        <v>1.010014127430019</v>
+        <v>1.012345402469196</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.038313839285594</v>
+        <v>1.038331952732924</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.033822644807736</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.033800680443537</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.020981582467363</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9872442431153131</v>
+        <v>0.987707333145965</v>
       </c>
       <c r="D11">
-        <v>1.016746530584879</v>
+        <v>1.01681983317533</v>
       </c>
       <c r="E11">
-        <v>1.013113707383776</v>
+        <v>1.013218466808445</v>
       </c>
       <c r="F11">
-        <v>1.022470999302489</v>
+        <v>1.022578810965459</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.046901948067973</v>
+        <v>1.046939013371468</v>
       </c>
       <c r="J11">
-        <v>1.017157475983442</v>
+        <v>1.017600596438453</v>
       </c>
       <c r="K11">
-        <v>1.031359394350552</v>
+        <v>1.031431373253706</v>
       </c>
       <c r="L11">
-        <v>1.027792484465375</v>
+        <v>1.02789533453951</v>
       </c>
       <c r="M11">
-        <v>1.036981233012134</v>
+        <v>1.03708712610231</v>
       </c>
       <c r="N11">
-        <v>1.009740334459099</v>
+        <v>1.012385732979594</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.038328309038317</v>
+        <v>1.038412069202493</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.033313733555799</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.033380274768679</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.02088000522411</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.986537454482089</v>
+        <v>0.9870436429312193</v>
       </c>
       <c r="D12">
-        <v>1.016371582817657</v>
+        <v>1.016482396139438</v>
       </c>
       <c r="E12">
-        <v>1.012850336976822</v>
+        <v>1.012972288974118</v>
       </c>
       <c r="F12">
-        <v>1.022352196727751</v>
+        <v>1.022485978320964</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.04681465889404</v>
+        <v>1.046870678867931</v>
       </c>
       <c r="J12">
-        <v>1.016922707445872</v>
+        <v>1.017406644268418</v>
       </c>
       <c r="K12">
-        <v>1.031191709802477</v>
+        <v>1.031300488556159</v>
       </c>
       <c r="L12">
-        <v>1.027735417471113</v>
+        <v>1.027855110077669</v>
       </c>
       <c r="M12">
-        <v>1.037063337497287</v>
+        <v>1.037194700111318</v>
       </c>
       <c r="N12">
-        <v>1.009684286492393</v>
+        <v>1.012450983652732</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.03871966197112</v>
+        <v>1.038823533049784</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.033195174658988</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.033287736626785</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.020872293643284</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9869313771254277</v>
+        <v>0.9874057408771606</v>
       </c>
       <c r="D13">
-        <v>1.016719923545354</v>
+        <v>1.016798293755615</v>
       </c>
       <c r="E13">
-        <v>1.01343917157948</v>
+        <v>1.013538597915179</v>
       </c>
       <c r="F13">
-        <v>1.022988069691135</v>
+        <v>1.023099663004587</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.046968908054311</v>
+        <v>1.047008529259179</v>
       </c>
       <c r="J13">
-        <v>1.017204624426796</v>
+        <v>1.017658234828758</v>
       </c>
       <c r="K13">
-        <v>1.031490673954087</v>
+        <v>1.03156761129468</v>
       </c>
       <c r="L13">
-        <v>1.028270164218078</v>
+        <v>1.028367757387221</v>
       </c>
       <c r="M13">
-        <v>1.03764511856617</v>
+        <v>1.037754704027378</v>
       </c>
       <c r="N13">
-        <v>1.009797431182164</v>
+        <v>1.012507998537028</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.039456313512949</v>
+        <v>1.039542943180606</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.033404054767261</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.033473857561559</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.02094082677145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9877064523756025</v>
+        <v>0.9881252059704297</v>
       </c>
       <c r="D14">
-        <v>1.017292282568165</v>
+        <v>1.017316738019304</v>
       </c>
       <c r="E14">
-        <v>1.014236344229768</v>
+        <v>1.01430309106085</v>
       </c>
       <c r="F14">
-        <v>1.02377469462315</v>
+        <v>1.023849506169551</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.047186396155853</v>
+        <v>1.047198762072494</v>
       </c>
       <c r="J14">
-        <v>1.017636152898608</v>
+        <v>1.01803684590141</v>
       </c>
       <c r="K14">
-        <v>1.031911848445952</v>
+        <v>1.031935862296328</v>
       </c>
       <c r="L14">
-        <v>1.028911310359969</v>
+        <v>1.028976842516142</v>
       </c>
       <c r="M14">
-        <v>1.038278163436124</v>
+        <v>1.038351646276366</v>
       </c>
       <c r="N14">
-        <v>1.009953395533191</v>
+        <v>1.01254554254781</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.04013000649346</v>
+        <v>1.04018808842216</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.033703267838925</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.033735784786439</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.021023636957672</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9881381175956625</v>
+        <v>0.9885274300931594</v>
       </c>
       <c r="D15">
-        <v>1.017595152957513</v>
+        <v>1.017591362318348</v>
       </c>
       <c r="E15">
-        <v>1.014625832545494</v>
+        <v>1.014676325858926</v>
       </c>
       <c r="F15">
-        <v>1.024142837899178</v>
+        <v>1.024198360660438</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.047295018852246</v>
+        <v>1.047293101915233</v>
       </c>
       <c r="J15">
-        <v>1.01785869632793</v>
+        <v>1.01823136392493</v>
       </c>
       <c r="K15">
-        <v>1.0321225792466</v>
+        <v>1.032118856538743</v>
       </c>
       <c r="L15">
-        <v>1.029206673636792</v>
+        <v>1.029256255234239</v>
       </c>
       <c r="M15">
-        <v>1.038553897604295</v>
+        <v>1.038608441853383</v>
       </c>
       <c r="N15">
-        <v>1.010030226706298</v>
+        <v>1.012557296333163</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.040385472165575</v>
+        <v>1.040428583616496</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.033858144977406</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.033871618912579</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.02106249866005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9904638748657975</v>
+        <v>0.9907074713655918</v>
       </c>
       <c r="D16">
-        <v>1.019156689456133</v>
+        <v>1.019011130937388</v>
       </c>
       <c r="E16">
-        <v>1.016519460898375</v>
+        <v>1.01649180645656</v>
       </c>
       <c r="F16">
-        <v>1.025857574363157</v>
+        <v>1.025816270981998</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.047822144272645</v>
+        <v>1.047748491073565</v>
       </c>
       <c r="J16">
-        <v>1.018983004669678</v>
+        <v>1.019216705499674</v>
       </c>
       <c r="K16">
-        <v>1.033152780650481</v>
+        <v>1.033009717207267</v>
       </c>
       <c r="L16">
-        <v>1.03056090116727</v>
+        <v>1.03053372387619</v>
       </c>
       <c r="M16">
-        <v>1.039739791831991</v>
+        <v>1.039699184476157</v>
       </c>
       <c r="N16">
-        <v>1.010400359114187</v>
+        <v>1.012609026967476</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.041284098348447</v>
+        <v>1.041252001618118</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.034589709477369</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.034504960653448</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.021240627015064</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9918435770507016</v>
+        <v>0.9920127428517432</v>
       </c>
       <c r="D17">
-        <v>1.020055458032563</v>
+        <v>1.019834514348099</v>
       </c>
       <c r="E17">
-        <v>1.017554747273127</v>
+        <v>1.017486863360959</v>
       </c>
       <c r="F17">
-        <v>1.02675747823919</v>
+        <v>1.026664821508994</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.048108999959955</v>
+        <v>1.047997159753755</v>
       </c>
       <c r="J17">
-        <v>1.019618843622394</v>
+        <v>1.019781358018792</v>
       </c>
       <c r="K17">
-        <v>1.033720748648375</v>
+        <v>1.033503486188934</v>
       </c>
       <c r="L17">
-        <v>1.031261823490038</v>
+        <v>1.031195077574602</v>
       </c>
       <c r="M17">
-        <v>1.040312071977164</v>
+        <v>1.040220932986057</v>
       </c>
       <c r="N17">
-        <v>1.010602349828822</v>
+        <v>1.012657754670069</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.041607468457134</v>
+        <v>1.041535423506152</v>
       </c>
       <c r="Q17">
-        <v>1.019999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.034993877840392</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.034856913238521</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.0213339668289</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9925325261442376</v>
+        <v>0.9926722442705008</v>
       </c>
       <c r="D18">
-        <v>1.020451959460031</v>
+        <v>1.020200342260766</v>
       </c>
       <c r="E18">
-        <v>1.017916190961915</v>
+        <v>1.017833452440372</v>
       </c>
       <c r="F18">
-        <v>1.027001745351542</v>
+        <v>1.026887996576611</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.048210575661843</v>
+        <v>1.048083181396789</v>
       </c>
       <c r="J18">
-        <v>1.01988064460832</v>
+        <v>1.020014972623064</v>
       </c>
       <c r="K18">
-        <v>1.03392676283252</v>
+        <v>1.033679269222855</v>
       </c>
       <c r="L18">
-        <v>1.031432671360054</v>
+        <v>1.031351297201726</v>
       </c>
       <c r="M18">
-        <v>1.040370120814562</v>
+        <v>1.040258205485028</v>
       </c>
       <c r="N18">
-        <v>1.010672872972942</v>
+        <v>1.01266696555796</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.041415799616955</v>
+        <v>1.041327312637602</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.035127881326094</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.034968407761015</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.0213566469398</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9925994574586233</v>
+        <v>0.9927454958325628</v>
       </c>
       <c r="D19">
-        <v>1.020401204769553</v>
+        <v>1.02015683400193</v>
       </c>
       <c r="E19">
-        <v>1.017665656785566</v>
+        <v>1.017589665908337</v>
       </c>
       <c r="F19">
-        <v>1.026652513940351</v>
+        <v>1.026543281057407</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.048150867799844</v>
+        <v>1.048027134202314</v>
       </c>
       <c r="J19">
-        <v>1.019808712295816</v>
+        <v>1.019949150865825</v>
       </c>
       <c r="K19">
-        <v>1.033814133058554</v>
+        <v>1.033573746220332</v>
       </c>
       <c r="L19">
-        <v>1.031123322564307</v>
+        <v>1.031048578866682</v>
       </c>
       <c r="M19">
-        <v>1.039964355396917</v>
+        <v>1.039856875309428</v>
       </c>
       <c r="N19">
-        <v>1.010628361295913</v>
+        <v>1.012623594407562</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.040769646364097</v>
+        <v>1.040684638406561</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.035054653682053</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.034900828984927</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.021317272920095</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9909153978872727</v>
+        <v>0.9911641743905198</v>
       </c>
       <c r="D20">
-        <v>1.019090635261929</v>
+        <v>1.018956292800196</v>
       </c>
       <c r="E20">
-        <v>1.015727761150611</v>
+        <v>1.015718413172941</v>
       </c>
       <c r="F20">
-        <v>1.024681241689516</v>
+        <v>1.024646353587782</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.047638782300254</v>
+        <v>1.047570784081854</v>
       </c>
       <c r="J20">
-        <v>1.018801063880517</v>
+        <v>1.019040003299194</v>
       </c>
       <c r="K20">
-        <v>1.032805904371698</v>
+        <v>1.032673811842966</v>
       </c>
       <c r="L20">
-        <v>1.02949958176503</v>
+        <v>1.029490391660214</v>
       </c>
       <c r="M20">
-        <v>1.038303553922639</v>
+        <v>1.038269241869515</v>
       </c>
       <c r="N20">
-        <v>1.010260283394842</v>
+        <v>1.012421474284237</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.038927947945047</v>
+        <v>1.038900793541169</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.034345722346694</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.034268857875739</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.021103372754414</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9865975441428039</v>
+        <v>0.9871338398838372</v>
       </c>
       <c r="D21">
-        <v>1.016149747749272</v>
+        <v>1.01629155607679</v>
       </c>
       <c r="E21">
-        <v>1.012071545606364</v>
+        <v>1.012225227755581</v>
       </c>
       <c r="F21">
-        <v>1.021330927376619</v>
+        <v>1.021487440714032</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.046629931405363</v>
+        <v>1.046701630382298</v>
       </c>
       <c r="J21">
-        <v>1.016666504126123</v>
+        <v>1.017179516157993</v>
       </c>
       <c r="K21">
-        <v>1.030831484331138</v>
+        <v>1.030970716474463</v>
       </c>
       <c r="L21">
-        <v>1.02682777191257</v>
+        <v>1.026978632830197</v>
       </c>
       <c r="M21">
-        <v>1.035919142515086</v>
+        <v>1.036072849928014</v>
       </c>
       <c r="N21">
-        <v>1.009545921112762</v>
+        <v>1.012343499746673</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.036999973780291</v>
+        <v>1.037121623475933</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.032952962788071</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.033068268370808</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.020757694741089</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.983843440252767</v>
+        <v>0.9845610247702873</v>
       </c>
       <c r="D22">
-        <v>1.014281951677988</v>
+        <v>1.014597926896287</v>
       </c>
       <c r="E22">
-        <v>1.009778382876296</v>
+        <v>1.010035962362087</v>
       </c>
       <c r="F22">
-        <v>1.019237435010845</v>
+        <v>1.019514706922289</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.045976727400297</v>
+        <v>1.046136378174322</v>
       </c>
       <c r="J22">
-        <v>1.015309512600454</v>
+        <v>1.015994131222066</v>
       </c>
       <c r="K22">
-        <v>1.029575692173183</v>
+        <v>1.029885638815168</v>
       </c>
       <c r="L22">
-        <v>1.025158585481198</v>
+        <v>1.025411192573905</v>
       </c>
       <c r="M22">
-        <v>1.034437190758495</v>
+        <v>1.034709239243144</v>
       </c>
       <c r="N22">
-        <v>1.009092482936314</v>
+        <v>1.012286117822576</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.035827101627342</v>
+        <v>1.036042411137727</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.032051518901534</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.03228623166298</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.02053567259728</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9853020883956985</v>
+        <v>0.9859119345299903</v>
       </c>
       <c r="D23">
-        <v>1.015266995433175</v>
+        <v>1.015483167188091</v>
       </c>
       <c r="E23">
-        <v>1.010991816441125</v>
+        <v>1.011188792394989</v>
       </c>
       <c r="F23">
-        <v>1.020345015278316</v>
+        <v>1.02055254609475</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.046321311438478</v>
+        <v>1.046430574106721</v>
       </c>
       <c r="J23">
-        <v>1.016025378137402</v>
+        <v>1.016608028359305</v>
       </c>
       <c r="K23">
-        <v>1.030236005973257</v>
+        <v>1.030448158229024</v>
       </c>
       <c r="L23">
-        <v>1.026040780962988</v>
+        <v>1.026234053687</v>
       </c>
       <c r="M23">
-        <v>1.03522019110282</v>
+        <v>1.03542391290831</v>
       </c>
       <c r="N23">
-        <v>1.009330780589234</v>
+        <v>1.012272557278857</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.036446797682363</v>
+        <v>1.036608030727344</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.032508730390606</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.032673354676215</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.020649563205118</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9909445481788774</v>
+        <v>0.9911929185360727</v>
       </c>
       <c r="D24">
-        <v>1.019090469587558</v>
+        <v>1.018955607905671</v>
       </c>
       <c r="E24">
-        <v>1.015710613672834</v>
+        <v>1.015701611358443</v>
       </c>
       <c r="F24">
-        <v>1.024648562238366</v>
+        <v>1.024613430169216</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.047630495693721</v>
+        <v>1.047562233541968</v>
       </c>
       <c r="J24">
-        <v>1.018795692169049</v>
+        <v>1.019034256140691</v>
       </c>
       <c r="K24">
-        <v>1.032790428925574</v>
+        <v>1.032657822978686</v>
       </c>
       <c r="L24">
-        <v>1.029467338421367</v>
+        <v>1.02945848795352</v>
       </c>
       <c r="M24">
-        <v>1.038256219915856</v>
+        <v>1.038221667228657</v>
       </c>
       <c r="N24">
-        <v>1.010254601562246</v>
+        <v>1.012413193081189</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.038849620487218</v>
+        <v>1.038822274288667</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.034307319103555</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.03422742169795</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.021096131149501</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9972761651635694</v>
+        <v>0.9972775173868265</v>
       </c>
       <c r="D25">
-        <v>1.023392613729124</v>
+        <v>1.022963502393284</v>
       </c>
       <c r="E25">
-        <v>1.021054822725345</v>
+        <v>1.020889199299662</v>
       </c>
       <c r="F25">
-        <v>1.029513775468455</v>
+        <v>1.029284529924329</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.049040162854279</v>
+        <v>1.048822593026643</v>
       </c>
       <c r="J25">
-        <v>1.021895546220243</v>
+        <v>1.021896852588718</v>
       </c>
       <c r="K25">
-        <v>1.035638327008564</v>
+        <v>1.035215499455937</v>
       </c>
       <c r="L25">
-        <v>1.033334851211815</v>
+        <v>1.033171666456475</v>
       </c>
       <c r="M25">
-        <v>1.041670574808741</v>
+        <v>1.041444635056723</v>
       </c>
       <c r="N25">
-        <v>1.011288511256565</v>
+        <v>1.013124456377231</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.041551854585768</v>
+        <v>1.041373038659211</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.036318068594386</v>
+        <v>1.036032658313899</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.021610611810475</v>
       </c>
     </row>
   </sheetData>
